--- a/System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:1_{D917D78E-4147-4BCD-843E-1DD318EE102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{405A399A-CD5E-4286-A412-53F9C1AD423A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr dataExtractLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -481,7 +479,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -489,7 +487,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -565,10 +563,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -580,39 +574,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -645,9 +639,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -680,6 +691,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,13 +769,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -756,6 +777,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -820,11 +848,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,29 +882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="25.265625" customWidth="1"/>
-    <col min="9" max="9" width="30.796875" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="33.265625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.265625" customWidth="1"/>
-    <col min="15" max="15" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.265625" customWidth="1"/>
-    <col min="18" max="18" width="10.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
@@ -10962,11 +10992,11 @@
         <v>1</v>
       </c>
       <c r="N438" s="1">
-        <f t="shared" ref="N438:N501" si="17">ROUNDUP(J438/M438,0)</f>
+        <f t="shared" ref="N438:N472" si="17">ROUNDUP(J438/M438,0)</f>
         <v>1</v>
       </c>
       <c r="O438" s="1">
-        <f t="shared" ref="O438:O501" si="18">N438*L438</f>
+        <f t="shared" ref="O438:O472" si="18">N438*L438</f>
         <v>0</v>
       </c>
     </row>
@@ -11719,43 +11749,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" display="https://www.amazon.com/Malida-Connect-Reverse-Osmosis-System/dp/B00YYKB9K2/ref=pd_bxgy_vft_none_img_sccl_1/147-2290966-7422106?pd_rd_w=FvAsa&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=678W2XE3CCP73JHQ5X2J&amp;pd_rd_wg=TCnbU&amp;pd_rd_r=601c734b-77d9-45b2-90ab-c781acc1d53e&amp;pd_rd_i=B00YYKB9K2&amp;psc=1" xr:uid="{25717976-5BF8-4C8D-8052-895C12486B28}"/>
-    <hyperlink ref="K10" r:id="rId2" display="https://www.amazon.com/Malida-Connect-Fitting-Reverse-Osmosis/dp/B01M2XEJZA/ref=sr_1_2?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=reverse%2Bosmosis%2Bfittings&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251367&amp;sr=8-2&amp;th=1" xr:uid="{20E1CF67-F713-4BB5-9804-EF1D3F19D121}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{D786C015-A4D9-45A3-BE88-FDF185630D9D}"/>
-    <hyperlink ref="K7" r:id="rId4" xr:uid="{0D834329-BBA9-4D13-86D1-936D29D9C68B}"/>
-    <hyperlink ref="K64" r:id="rId5" display="https://www.amazon.com/Control-Angle180-Digital-Torque-Helicopter/dp/B07NQJ1VZ2?pd_rd_w=o4u9k&amp;content-id=amzn1.sym.19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_p=19a914cd-0dca-42c7-976a-adbe4da0b2c6&amp;pf_rd_r=1WH70Z685459XVCK4SVK&amp;pd_rd_wg=sznvv&amp;pd_rd_r=70da1834-5d84-497a-8c6a-90a6bb2331d0&amp;pd_rd_i=B07NQJ1VZ2&amp;psc=1&amp;ref_=pd_bap_d_grid_rp_0_1_ec_t" xr:uid="{493A9BCB-A8BB-4BF8-9086-A2467490E03F}"/>
-    <hyperlink ref="K101" r:id="rId6" display="https://www.amazon.com/gp/product/B01NBO4Q9F/ref=ewc_pr_img_2?smid=A1BU77VE99X2YG&amp;psc=1" xr:uid="{9D272701-1C11-4F62-904F-1F7F0D33EF7D}"/>
-    <hyperlink ref="K22" r:id="rId7" display="https://www.amazon.com/dp/B0C9C55H6K/ref=sspa_dk_detail_5?pd_rd_i=B0C2HMBSPB&amp;pd_rd_w=xVOzw&amp;content-id=amzn1.sym.0089de39-2448-4df6-a3d2-4943a23c9d2f&amp;pf_rd_p=0089de39-2448-4df6-a3d2-4943a23c9d2f&amp;pf_rd_r=P35V80B6XRN72BYT60N3&amp;pd_rd_wg=WyLcj&amp;pd_rd_r=42fe3dd5-c119-4d93-8a9f-d67657b825c1&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;th=1" xr:uid="{41C7D563-DE32-46BF-81B7-92B51C7FF7F5}"/>
-    <hyperlink ref="K54" r:id="rId8" display="https://www.amazon.com/gp/product/B07VXSLNY5/ref=sw_img_1?smid=A30WUG2ZDGM0XM&amp;psc=1" xr:uid="{AFA5280C-74E9-4821-9ECE-15EC20FC6DFB}"/>
-    <hyperlink ref="K12" r:id="rId9" display="https://www.amazon.com/dp/B0BWWG857H/ref=sspa_dk_detail_4?pd_rd_i=B0BWWG857H&amp;pd_rd_w=v2HGd&amp;content-id=amzn1.sym.953c7d66-4120-4d22-a777-f19dbfa69309&amp;pf_rd_p=953c7d66-4120-4d22-a777-f19dbfa69309&amp;pf_rd_r=HHZ0FNGZ30601R179WKM&amp;pd_rd_wg=mhvXy&amp;pd_rd_r=65f3ee50-06af-42b0-9402-af016f761a65&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy&amp;th=1" xr:uid="{B565E25B-4EA7-4DE3-AD23-03D1C54A4817}"/>
-    <hyperlink ref="K8" r:id="rId10" display="https://www.amazon.com/gp/product/B01MRWDTZ2/ref=sw_img_1?smid=A39E18MGKR2SOC&amp;psc=1" xr:uid="{B0CF00B3-55D9-4725-9B6B-97DA1F2319C3}"/>
-    <hyperlink ref="K14" r:id="rId11" display="https://www.amazon.com/gp/product/B07VXSLNY5/ref=sw_img_1?smid=A30WUG2ZDGM0XM&amp;psc=1" xr:uid="{4C79B218-8744-42F8-9779-35F996317A96}"/>
-    <hyperlink ref="K109" r:id="rId12" display="https://www.amazon.com/gp/product/B0000510ZO/ref=ppx_yo_dt_b_asin_title_o00_s01?ie=UTF8&amp;psc=1" xr:uid="{DC99362C-7012-48B5-8898-70367F2C932E}"/>
-    <hyperlink ref="K15" r:id="rId13" display="https://www.amazon.com/gp/product/B0CFJ7QNT4/ref=ppx_yo_dt_b_asin_title_o00_s01?ie=UTF8&amp;psc=1" xr:uid="{C82B13B3-919D-4A68-B9F0-A6598D72E046}"/>
-    <hyperlink ref="K110" r:id="rId14" display="https://www.amazon.com/gp/product/B07RRY5MYZ/ref=ppx_yo_dt_b_asin_title_o00_s01?ie=UTF8&amp;psc=1" xr:uid="{4001A575-88A9-4901-B17D-3E3FE4654B56}"/>
-    <hyperlink ref="K111" r:id="rId15" display="https://www.amazon.com/gp/product/B07RT54H9V/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{C444922E-05F4-4D0B-BB55-B6E7FA5E5F1C}"/>
-    <hyperlink ref="K17" r:id="rId16" display="https://www.amazon.com/gp/product/B07VLLRWY5/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{92BA6F14-C142-4460-818D-B421C2337213}"/>
-    <hyperlink ref="K32" r:id="rId17" display="https://www.amazon.com/gp/product/B07Y5KY2GT/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1" xr:uid="{9E2F8000-2F54-4F6E-930A-B0AE4A59D089}"/>
-    <hyperlink ref="K25" r:id="rId18" display="https://www.mcmaster.com/9452K407/" xr:uid="{79C03A6A-01CA-45A9-9A31-77F9F415FB51}"/>
-    <hyperlink ref="K27" r:id="rId19" display="https://www.amazon.com/gp/product/B0051XYDYU/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1" xr:uid="{EBDED589-0746-4FD2-94E9-7F198040DB6E}"/>
-    <hyperlink ref="K37" r:id="rId20" display="https://www.mcmaster.com/9452K72/" xr:uid="{CD7AFC8B-F059-40B3-9F6A-549D94290AF9}"/>
-    <hyperlink ref="K40" r:id="rId21" display="https://www.mcmaster.com/9505K22/" xr:uid="{F8BE62B7-398C-40F8-BBEF-FB765336B52C}"/>
-    <hyperlink ref="K39" r:id="rId22" display="https://www.mcmaster.com/9505K121/" xr:uid="{CC10B19B-F049-4A49-AE8B-8D4400209AB8}"/>
-    <hyperlink ref="K33" r:id="rId23" display="https://www.mcmaster.com/9505K121/" xr:uid="{2F6D2BD7-77ED-4598-A5AA-B8852F759EDA}"/>
-    <hyperlink ref="K99" r:id="rId24" display="https://www.amazon.com/gp/product/B08D5ZD528/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1" xr:uid="{CDC69370-602F-4F46-9774-29F5679BF79D}"/>
-    <hyperlink ref="K34" r:id="rId25" display="https://www.amazon.com/Stainless-Unpolished-Finish-Diameter-Length/dp/B000H9LDMI/ref=sr_1_1?crid=K4VIQ25HCF1T&amp;dib=eyJ2IjoiMSJ9.RO7N8SAS7qxaK0ysQf-Xg3mCvqSW5R2LKCZGcFDyAD80oF3gNQXcSJRV2q8eYZ2ErI4EN3Oo5PswAuSO9CV3f03XIxGLqC-MErQ_DWLXmGcN-0AjqH7BioX0hp8Jn6ark_kZn9NtQoXbM05gQ2L0gtmAfZKki1MvCaYFI2oWnmiYO69LuDBZGoB9liCOepUpJ7IJekY9Dhvd_PhMWTIOtJsALmeAOBlmIfCoPQE8W2DyL7h7x_OgSzquVWsMLnQlKNIIBrsizIUSfvNTK-pkQvcLHARLwxgn6TLEzUdDt-0.7xJ8JpFBlVf-a9NPQyFScRZsa749fWNLc7hKW6mpBAo&amp;dib_tag=se&amp;keywords=7%2F8%2Bstainless%2Bsteel%2Bround%2Bbar&amp;qid=1720923550&amp;s=industrial&amp;sprefix=7%2F8%2Bstainless%2Bsteel%2Bround%2Bba%2Cindustrial%2C297&amp;sr=1-1&amp;th=1" xr:uid="{CA48AB45-3FC1-43F9-8257-A42F5B651874}"/>
-    <hyperlink ref="K97" r:id="rId26" xr:uid="{D798B1FA-84FB-4980-8048-F13083BAC0FA}"/>
-    <hyperlink ref="K23" r:id="rId27" display="https://www.mcmaster.com/9056K87/" xr:uid="{7258C4B5-BCE6-4626-A79A-EA5227DEC303}"/>
-    <hyperlink ref="K56" r:id="rId28" display="https://www.mcmaster.com/99030A005/" xr:uid="{AEB5C03A-3B05-4898-A698-9EDB5B0ED981}"/>
-    <hyperlink ref="K44" r:id="rId29" display="https://www.mcmaster.com/91831A011/" xr:uid="{7868EE10-4957-4142-9776-BF1669F7A7F5}"/>
-    <hyperlink ref="K43" r:id="rId30" display="https://www.mcmaster.com/89535K84/" xr:uid="{9D4B5394-5434-4214-89F4-02E2A35AA1C6}"/>
-    <hyperlink ref="K78" r:id="rId31" display="https://www.mcmaster.com/products/cable-guides/" xr:uid="{FAADE435-F043-414E-AE73-2A8BC48D341D}"/>
-    <hyperlink ref="K79" r:id="rId32" display="https://www.bing.com/search?q=punch+inset+countersink+for+bolt+on+sheet+metal&amp;qs=n&amp;form=QBRE&amp;sp=-1&amp;lq=0&amp;pq=punch+inset+countersink+for+bolt+on+sheet+metal&amp;sc=0-47&amp;sk=&amp;cvid=11216627A5F547B69FA3BEDB81DF92A3&amp;ghsh=0&amp;ghacc=0&amp;ghpl=" xr:uid="{FAE972A8-DCD3-4120-9E2E-572A98F350E8}"/>
-    <hyperlink ref="K30" r:id="rId33" display="https://www.amazon.com/uxcell-Needle-Roller-Bearings-16-inch/dp/B0B5XVGR7F/ref=pd_bxgy_d_sccl_1/134-0072472-6555177?pd_rd_w=aHHig&amp;content-id=amzn1.sym.f7fa8b58-6436-47b8-8741-9e90c231669e&amp;pf_rd_p=f7fa8b58-6436-47b8-8741-9e90c231669e&amp;pf_rd_r=ACDFCJ38VQHMNC7EF2RY&amp;pd_rd_wg=HuPw7&amp;pd_rd_r=66db46aa-c7ae-49bd-920e-f77ae39921ce&amp;pd_rd_i=B0B5XVGR7F&amp;th=1" xr:uid="{2AE5C8C0-EDDE-4B39-91E5-CF1BB1FFD501}"/>
-    <hyperlink ref="K98" r:id="rId34" display="https://www.amazon.com/OSOYOO-Capacitive-Display-Interface-Raspberry/dp/B0B8R1V19B/ref=sr_1_1?dib=eyJ2IjoiMSJ9.ur2C9xJbBjwkhV-xTnpDtSXAqUSe-gMhpTWztFr3Q47Z00zf7w3Pc7F9_k3eYUcpXXsyHh1xtgpFFrVF87SYRp7qPYv0nnnx3gcYt5KALlbVGkkPbOjvgX9lgy7linQRmbydnPlHOd3zIvrkns9F247UAJvm7cAyIephPOKzrTsqjkyrPn9RHxp50gEmDizhQFU3ZGv6_BrCL76uuXkzxte3K8MhLKzdAv616uxB-NE.EGqz8ISmPNu_D_9hmHOpxJiFpyFAGrF1j5iysx4bwWY&amp;dib_tag=se&amp;keywords=4.3+inch+IPS+LCD+Capacitive+Touc+Screen+Display+800%C3%97480+DSI&amp;qid=1728741690&amp;sr=8-1" xr:uid="{30C7150E-618D-4950-94F0-9BE964AC547E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1100" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB3BCF8-F193-4619-842E-EC34423BA50E}"/>
+  <xr:revisionPtr revIDLastSave="1109" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60A66629-4E3C-4921-B7F3-A4D51C31B2BE}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1350" yWindow="1350" windowWidth="2355" windowHeight="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$464</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="254">
   <si>
     <t>$/kg</t>
   </si>
@@ -157,12 +157,6 @@
     <t>3D Printing Fillament (PLA)</t>
   </si>
   <si>
-    <t>Propane</t>
-  </si>
-  <si>
-    <t>Casting Sand</t>
-  </si>
-  <si>
     <t>1/4" Pex Push Elbow 90</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Reservior Piston</t>
   </si>
   <si>
-    <t>Conduit Static Seal</t>
-  </si>
-  <si>
     <t>Wash Piston Rod</t>
   </si>
   <si>
@@ -827,6 +818,9 @@
   </si>
   <si>
     <t>https://www.printables.com/model/191154-din-rail-mount/files</t>
+  </si>
+  <si>
+    <t>Conduit Static Seal O-Ring</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O465"/>
+  <dimension ref="A1:O463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="10" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1278,16 +1272,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1">
-        <f>SUM(K4:K466)</f>
+        <f>SUM(K4:K464)</f>
         <v>1972.2800000000009</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1301,10 +1295,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1336,7 +1330,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1345,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -1354,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>16.989999999999998</v>
@@ -1371,7 +1365,7 @@
         <v>16.989999999999998</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(OR(CELL("address")=CELL("address",A4),CELL("address")=CELL("address",B4),CELL("address")=CELL("address",C4),CELL("address")=CELL("address",D4),CELL("address")=CELL("address",E4),CELL("address")=CELL("address",F4),CELL("address")=CELL("address",G4),CELL("address")=CELL("address",H4),CELL("address")=CELL("address",I4)),NOW(),M4)</f>
@@ -1381,22 +1375,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>8.69</v>
@@ -1419,22 +1413,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>5.99</v>
@@ -1461,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H7">
         <v>12.99</v>
@@ -1493,22 +1487,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8">
         <v>8.85</v>
@@ -1534,22 +1528,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">IF(OR(CELL("address")=CELL("address",A9),CELL("address")=CELL("address",B9),CELL("address")=CELL("address",C9),CELL("address")=CELL("address",D9),CELL("address")=CELL("address",E9),CELL("address")=CELL("address",F9),CELL("address")=CELL("address",G9),CELL("address")=CELL("address",H9),CELL("address")=CELL("address",I9)),NOW(),M9)</f>
@@ -1575,7 +1569,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1584,16 +1578,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10">
         <v>22.99</v>
@@ -1616,13 +1610,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
@@ -1645,7 +1639,7 @@
         <v>6.99</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">IF(OR(CELL("address")=CELL("address",A11),CELL("address")=CELL("address",B11),CELL("address")=CELL("address",C11),CELL("address")=CELL("address",D11),CELL("address")=CELL("address",E11),CELL("address")=CELL("address",F11),CELL("address")=CELL("address",G11),CELL("address")=CELL("address",H11),CELL("address")=CELL("address",I11)),NOW(),M11)</f>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1690,19 +1684,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>6.99</v>
@@ -1725,19 +1719,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14">
         <v>6.99</v>
@@ -1760,19 +1754,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>7.99</v>
@@ -1795,13 +1789,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
@@ -1830,19 +1824,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="8">
         <v>17.989999999999998</v>
@@ -1865,16 +1859,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H18" s="8">
         <v>7.99</v>
@@ -1897,7 +1891,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1909,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <v>10.99</v>
@@ -1932,7 +1926,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">IF(OR(CELL("address")=CELL("address",A20),CELL("address")=CELL("address",B20),CELL("address")=CELL("address",C20),CELL("address")=CELL("address",D20),CELL("address")=CELL("address",E20),CELL("address")=CELL("address",F20),CELL("address")=CELL("address",G20),CELL("address")=CELL("address",H20),CELL("address")=CELL("address",I20)),NOW(),M20)</f>
@@ -1970,22 +1964,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H21">
         <v>9.99</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2017,16 +2011,16 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22">
         <v>9.89</v>
@@ -2049,22 +2043,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>8.99</v>
@@ -2088,16 +2082,16 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H24">
         <v>13.99</v>
@@ -2120,22 +2114,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>15.99</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2167,16 +2161,16 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>8.99</v>
@@ -2199,10 +2193,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2237,22 +2231,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H28">
         <v>67.989999999999995</v>
@@ -2275,22 +2269,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2307,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">IF(OR(CELL("address")=CELL("address",A29),CELL("address")=CELL("address",B29),CELL("address")=CELL("address",C29),CELL("address")=CELL("address",D29),CELL("address")=CELL("address",E29),CELL("address")=CELL("address",F29),CELL("address")=CELL("address",G29),CELL("address")=CELL("address",H29),CELL("address")=CELL("address",I29)),NOW(),M29)</f>
@@ -2316,22 +2310,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H30">
         <v>7.69</v>
@@ -2349,27 +2343,27 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">IF(OR(CELL("address")=CELL("address",A30),CELL("address")=CELL("address",B30),CELL("address")=CELL("address",C30),CELL("address")=CELL("address",D30),CELL("address")=CELL("address",E30),CELL("address")=CELL("address",F30),CELL("address")=CELL("address",G30),CELL("address")=CELL("address",H30),CELL("address")=CELL("address",I30)),NOW(),M30)</f>
-        <v>45695.849370601849</v>
+        <v>45746.871895486111</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2391,25 +2385,27 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="6">
         <v>10.58</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -2426,25 +2422,29 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H33">
+        <v>78</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="5">
         <v>23.53</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="5">
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2462,13 +2462,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2523,15 +2523,15 @@
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">IF(OR(CELL("address")=CELL("address",A35),CELL("address")=CELL("address",B35),CELL("address")=CELL("address",C35),CELL("address")=CELL("address",D35),CELL("address")=CELL("address",E35),CELL("address")=CELL("address",F35),CELL("address")=CELL("address",G35),CELL("address")=CELL("address",H35),CELL("address")=CELL("address",I35)),NOW(),M35)</f>
-        <v>0</v>
+        <v>45747.68347314815</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36">
@@ -2555,22 +2555,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H37">
         <v>70.98</v>
@@ -2587,7 +2587,7 @@
         <v>70.98</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">IF(OR(CELL("address")=CELL("address",A37),CELL("address")=CELL("address",B37),CELL("address")=CELL("address",C37),CELL("address")=CELL("address",D37),CELL("address")=CELL("address",E37),CELL("address")=CELL("address",F37),CELL("address")=CELL("address",G37),CELL("address")=CELL("address",H37),CELL("address")=CELL("address",I37)),NOW(),M37)</f>
@@ -2596,22 +2596,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H38">
         <v>13.76</v>
@@ -2634,19 +2634,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="F39">
         <v>11.6</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H39">
         <v>21.55</v>
@@ -2672,19 +2672,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H40">
         <v>5.99</v>
@@ -2701,7 +2701,7 @@
         <v>5.99</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">IF(OR(CELL("address")=CELL("address",A40),CELL("address")=CELL("address",B40),CELL("address")=CELL("address",C40),CELL("address")=CELL("address",D40),CELL("address")=CELL("address",E40),CELL("address")=CELL("address",F40),CELL("address")=CELL("address",G40),CELL("address")=CELL("address",H40),CELL("address")=CELL("address",I40)),NOW(),M40)</f>
@@ -2710,19 +2710,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H41">
         <v>9.99</v>
@@ -2745,19 +2745,19 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H42">
         <v>5.98</v>
@@ -2774,7 +2774,7 @@
         <v>5.98</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">IF(OR(CELL("address")=CELL("address",A42),CELL("address")=CELL("address",B42),CELL("address")=CELL("address",C42),CELL("address")=CELL("address",D42),CELL("address")=CELL("address",E42),CELL("address")=CELL("address",F42),CELL("address")=CELL("address",G42),CELL("address")=CELL("address",H42),CELL("address")=CELL("address",I42)),NOW(),M42)</f>
@@ -2783,22 +2783,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H43">
         <v>13.76</v>
@@ -2821,22 +2821,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H44">
         <v>5.01</v>
@@ -2853,7 +2853,7 @@
         <v>10.02</v>
       </c>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M44" s="3" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">IF(OR(CELL("address")=CELL("address",A44),CELL("address")=CELL("address",B44),CELL("address")=CELL("address",C44),CELL("address")=CELL("address",D44),CELL("address")=CELL("address",E44),CELL("address")=CELL("address",F44),CELL("address")=CELL("address",G44),CELL("address")=CELL("address",H44),CELL("address")=CELL("address",I44)),NOW(),M44)</f>
@@ -2863,19 +2863,19 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H45">
         <v>8.73</v>
@@ -2895,13 +2895,13 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -2910,25 +2910,25 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H47">
         <v>10.99</v>
@@ -2941,19 +2941,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H48">
         <v>12.99</v>
@@ -2970,7 +2970,7 @@
         <v>12.99</v>
       </c>
       <c r="L48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M48" s="3" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">IF(OR(CELL("address")=CELL("address",A48),CELL("address")=CELL("address",B48),CELL("address")=CELL("address",C48),CELL("address")=CELL("address",D48),CELL("address")=CELL("address",E48),CELL("address")=CELL("address",F48),CELL("address")=CELL("address",G48),CELL("address")=CELL("address",H48),CELL("address")=CELL("address",I48)),NOW(),M48)</f>
@@ -2979,19 +2979,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H49">
         <v>6.49</v>
@@ -3014,19 +3014,19 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H50">
         <v>3.29</v>
@@ -3049,25 +3049,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H51">
         <v>56.3</v>
@@ -3090,22 +3090,22 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3128,22 +3128,22 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H53">
         <v>8.99</v>
@@ -3166,22 +3166,22 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H54">
         <v>9.99</v>
@@ -3204,22 +3204,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H55">
         <v>12.29</v>
@@ -3242,22 +3242,22 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H56">
         <v>8.19</v>
@@ -3280,19 +3280,19 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H57">
         <v>16.91</v>
@@ -3309,7 +3309,7 @@
         <v>16.91</v>
       </c>
       <c r="L57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M57" s="3" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">IF(OR(CELL("address")=CELL("address",A57),CELL("address")=CELL("address",B57),CELL("address")=CELL("address",C57),CELL("address")=CELL("address",D57),CELL("address")=CELL("address",E57),CELL("address")=CELL("address",F57),CELL("address")=CELL("address",G57),CELL("address")=CELL("address",H57),CELL("address")=CELL("address",I57)),NOW(),M57)</f>
@@ -3318,22 +3318,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H58">
         <v>12.88</v>
@@ -3356,22 +3356,22 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H59">
         <v>9.99</v>
@@ -3388,7 +3388,7 @@
         <v>79.92</v>
       </c>
       <c r="L59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M59" s="3" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">IF(OR(CELL("address")=CELL("address",A59),CELL("address")=CELL("address",B59),CELL("address")=CELL("address",C59),CELL("address")=CELL("address",D59),CELL("address")=CELL("address",E59),CELL("address")=CELL("address",F59),CELL("address")=CELL("address",G59),CELL("address")=CELL("address",H59),CELL("address")=CELL("address",I59)),NOW(),M59)</f>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H60">
         <v>12.49</v>
@@ -3429,7 +3429,7 @@
         <v>12.49</v>
       </c>
       <c r="L60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M60" s="3" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">IF(OR(CELL("address")=CELL("address",A60),CELL("address")=CELL("address",B60),CELL("address")=CELL("address",C60),CELL("address")=CELL("address",D60),CELL("address")=CELL("address",E60),CELL("address")=CELL("address",F60),CELL("address")=CELL("address",G60),CELL("address")=CELL("address",H60),CELL("address")=CELL("address",I60)),NOW(),M60)</f>
@@ -3438,22 +3438,22 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3476,22 +3476,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H62">
         <v>17.59</v>
@@ -3514,22 +3514,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H63">
         <v>6.69</v>
@@ -3552,16 +3552,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3626,22 +3626,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3664,22 +3664,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H67">
         <v>13.63</v>
@@ -3702,25 +3702,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H68">
         <v>8.2899999999999991</v>
@@ -3743,16 +3743,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>25</v>
@@ -3761,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H69">
         <v>60.97</v>
@@ -3784,23 +3784,23 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F70">
         <f>8*4</f>
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H70">
         <v>9.49</v>
@@ -3824,29 +3824,29 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H72">
         <v>9.99</v>
@@ -3869,22 +3869,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H73">
         <v>3.3</v>
@@ -3907,22 +3907,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H74">
         <v>7.99</v>
@@ -3939,7 +3939,7 @@
         <v>7.99</v>
       </c>
       <c r="L74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M74" s="3" cm="1">
         <f t="array" aca="1" ref="M74" ca="1">IF(OR(CELL("address")=CELL("address",A74),CELL("address")=CELL("address",B74),CELL("address")=CELL("address",C74),CELL("address")=CELL("address",D74),CELL("address")=CELL("address",E74),CELL("address")=CELL("address",F74),CELL("address")=CELL("address",G74),CELL("address")=CELL("address",H74),CELL("address")=CELL("address",I74)),NOW(),M74)</f>
@@ -3948,22 +3948,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3986,22 +3986,22 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F76">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H76">
         <v>8.39</v>
@@ -4024,25 +4024,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H77">
         <v>18.989999999999998</v>
@@ -4065,16 +4065,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4085,16 +4085,16 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -4125,16 +4125,16 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F81">
         <v>16</v>
@@ -4148,22 +4148,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F82">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4173,16 +4173,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G83" s="2"/>
       <c r="J83" s="1"/>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>28</v>
@@ -4237,7 +4237,7 @@
         <v>12.99</v>
       </c>
       <c r="L87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M87" s="3" cm="1">
         <f t="array" aca="1" ref="M87" ca="1">IF(OR(CELL("address")=CELL("address",A87),CELL("address")=CELL("address",B87),CELL("address")=CELL("address",C87),CELL("address")=CELL("address",D87),CELL("address")=CELL("address",E87),CELL("address")=CELL("address",F87),CELL("address")=CELL("address",G87),CELL("address")=CELL("address",H87),CELL("address")=CELL("address",I87)),NOW(),M87)</f>
@@ -4246,16 +4246,16 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H88">
         <v>9.99</v>
@@ -4278,19 +4278,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H89">
         <v>16.989999999999998</v>
@@ -4313,16 +4313,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H90">
         <v>36.950000000000003</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4374,13 +4374,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>26</v>
@@ -4412,22 +4412,22 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="H93">
         <v>8.98</v>
@@ -4450,22 +4450,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H94">
         <v>33.92</v>
@@ -4482,7 +4482,7 @@
         <v>33.92</v>
       </c>
       <c r="L94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M94" s="3" cm="1">
         <f t="array" aca="1" ref="M94" ca="1">IF(OR(CELL("address")=CELL("address",A94),CELL("address")=CELL("address",B94),CELL("address")=CELL("address",C94),CELL("address")=CELL("address",D94),CELL("address")=CELL("address",E94),CELL("address")=CELL("address",F94),CELL("address")=CELL("address",G94),CELL("address")=CELL("address",H94),CELL("address")=CELL("address",I94)),NOW(),M94)</f>
@@ -4491,22 +4491,22 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H95">
         <v>15.99</v>
@@ -4529,16 +4529,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H96">
         <v>18</v>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="M96" s="3" cm="1">
         <f t="array" aca="1" ref="M96" ca="1">IF(OR(CELL("address")=CELL("address",A96),CELL("address")=CELL("address",B96),CELL("address")=CELL("address",C96),CELL("address")=CELL("address",D96),CELL("address")=CELL("address",E96),CELL("address")=CELL("address",F96),CELL("address")=CELL("address",G96),CELL("address")=CELL("address",H96),CELL("address")=CELL("address",I96)),NOW(),M96)</f>
-        <v>45703.755765624999</v>
+        <v>45737.921368981479</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
@@ -4569,27 +4569,27 @@
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="E98" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G98" s="2"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H99">
         <v>16.989999999999998</v>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H100">
         <v>22.99</v>
@@ -4644,16 +4644,16 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H101">
         <v>15.19</v>
@@ -4676,16 +4676,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H102">
         <v>9.49</v>
@@ -4708,19 +4708,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H103">
         <v>3.99</v>
@@ -4737,7 +4737,7 @@
         <v>3.99</v>
       </c>
       <c r="L103" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M103" s="3" cm="1">
         <f t="array" aca="1" ref="M103" ca="1">IF(OR(CELL("address")=CELL("address",A103),CELL("address")=CELL("address",B103),CELL("address")=CELL("address",C103),CELL("address")=CELL("address",D103),CELL("address")=CELL("address",E103),CELL("address")=CELL("address",F103),CELL("address")=CELL("address",G103),CELL("address")=CELL("address",H103),CELL("address")=CELL("address",I103)),NOW(),M103)</f>
@@ -4746,19 +4746,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H104">
         <v>7.99</v>
@@ -4781,19 +4781,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H105">
         <v>23.99</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>31</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H111">
         <v>13.99</v>
@@ -4975,11 +4975,11 @@
         <v>1</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" ref="J112:J121" si="29">ROUNDUP(F112/I112,0)</f>
+        <f t="shared" ref="J112:J119" si="29">ROUNDUP(F112/I112,0)</f>
         <v>1</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" ref="K112:K121" si="30">J112*H112</f>
+        <f t="shared" ref="K112:K119" si="30">J112*H112</f>
         <v>0</v>
       </c>
       <c r="M112" s="3" cm="1">
@@ -5012,7 +5012,7 @@
     </row>
     <row r="114" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -5038,13 +5038,13 @@
     </row>
     <row r="115" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E115" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F115">
         <v>6</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H115">
         <v>28.99</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="116" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E116" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H116">
         <v>52.99</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="117" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E117" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="118" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="119" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E119" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H119">
         <v>23.99</v>
@@ -5177,66 +5177,20 @@
     </row>
     <row r="120" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E120" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="3" cm="1">
-        <f t="array" aca="1" ref="M120" ca="1">IF(OR(CELL("address")=CELL("address",A120),CELL("address")=CELL("address",B120),CELL("address")=CELL("address",C120),CELL("address")=CELL("address",D120),CELL("address")=CELL("address",E120),CELL("address")=CELL("address",F120),CELL("address")=CELL("address",G120),CELL("address")=CELL("address",H120),CELL("address")=CELL("address",I120)),NOW(),M120)</f>
-        <v>0</v>
-      </c>
+      <c r="G120" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M120"/>
     </row>
     <row r="121" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E121" t="s">
-        <v>33</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="3" cm="1">
-        <f t="array" aca="1" ref="M121" ca="1">IF(OR(CELL("address")=CELL("address",A121),CELL("address")=CELL("address",B121),CELL("address")=CELL("address",C121),CELL("address")=CELL("address",D121),CELL("address")=CELL("address",E121),CELL("address")=CELL("address",F121),CELL("address")=CELL("address",G121),CELL("address")=CELL("address",H121),CELL("address")=CELL("address",I121)),NOW(),M121)</f>
-        <v>0</v>
-      </c>
+      <c r="M121"/>
     </row>
     <row r="122" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E122" t="s">
-        <v>223</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="M122"/>
     </row>
     <row r="123" spans="5:13" x14ac:dyDescent="0.45">
@@ -6169,58 +6123,90 @@
     <row r="432" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M432"/>
     </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="433" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M433"/>
     </row>
-    <row r="434" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="434" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M434"/>
     </row>
-    <row r="435" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="435" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M435"/>
     </row>
-    <row r="436" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="436" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M436"/>
     </row>
-    <row r="437" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="437" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M437"/>
     </row>
-    <row r="438" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="438" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M438"/>
     </row>
-    <row r="439" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="439" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M439"/>
     </row>
-    <row r="440" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="440" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M440"/>
     </row>
-    <row r="441" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="441" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M441"/>
     </row>
-    <row r="442" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="442" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M442"/>
     </row>
-    <row r="443" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="443" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M443"/>
     </row>
-    <row r="444" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="444" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M444"/>
     </row>
-    <row r="445" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="445" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M445"/>
     </row>
-    <row r="446" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="446" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M446"/>
     </row>
-    <row r="447" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="447" spans="6:13" x14ac:dyDescent="0.45">
       <c r="M447"/>
     </row>
-    <row r="448" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M448"/>
-    </row>
-    <row r="449" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M449"/>
-    </row>
-    <row r="450" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="448" spans="6:13" x14ac:dyDescent="0.45">
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>1</v>
+      </c>
+      <c r="J448" s="1">
+        <f t="shared" ref="J448:J463" si="31">ROUNDUP(F448/I448,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K448" s="1">
+        <f t="shared" ref="K448:K463" si="32">J448*H448</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>1</v>
+      </c>
+      <c r="J449" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K449" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F450">
         <v>1</v>
       </c>
@@ -6231,15 +6217,15 @@
         <v>1</v>
       </c>
       <c r="J450" s="1">
-        <f t="shared" ref="J450:J465" si="31">ROUNDUP(F450/I450,0)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="K450" s="1">
-        <f t="shared" ref="K450:K465" si="32">J450*H450</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="6:13" x14ac:dyDescent="0.45">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F451">
         <v>1</v>
       </c>
@@ -6258,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="452" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F452">
         <v>1</v>
       </c>
@@ -6277,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="453" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F453">
         <v>1</v>
       </c>
@@ -6296,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="454" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F454">
         <v>1</v>
       </c>
@@ -6315,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="455" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F455">
         <v>1</v>
       </c>
@@ -6334,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="456" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F456">
         <v>1</v>
       </c>
@@ -6353,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="457" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F457">
         <v>1</v>
       </c>
@@ -6372,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="458" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F458">
         <v>1</v>
       </c>
@@ -6391,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="459" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F459">
         <v>1</v>
       </c>
@@ -6410,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="460" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F460">
         <v>1</v>
       </c>
@@ -6429,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="461" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F461">
         <v>1</v>
       </c>
@@ -6448,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="462" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F462">
         <v>1</v>
       </c>
@@ -6467,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="463" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F463">
         <v>1</v>
       </c>
@@ -6486,48 +6472,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F464">
-        <v>1</v>
-      </c>
-      <c r="H464">
-        <v>0</v>
-      </c>
-      <c r="I464">
-        <v>1</v>
-      </c>
-      <c r="J464" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K464" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F465">
-        <v>1</v>
-      </c>
-      <c r="H465">
-        <v>0</v>
-      </c>
-      <c r="I465">
-        <v>1</v>
-      </c>
-      <c r="J465" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K465" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:M466" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:M464" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M21">
-      <sortCondition ref="D3:D466"/>
+      <sortCondition ref="D3:D464"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -6591,7 +6539,7 @@
     <hyperlink ref="G119" r:id="rId58" display="https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5" xr:uid="{379CDD9F-5880-48D8-8A5F-A897A2101E33}"/>
     <hyperlink ref="G60" r:id="rId59" xr:uid="{C4DD5C7B-D350-4A87-8A29-6768079AD1F3}"/>
     <hyperlink ref="G76" r:id="rId60" xr:uid="{9E70EB05-4DE6-467A-8E3F-8E3E6CA69A5A}"/>
-    <hyperlink ref="G122" r:id="rId61" xr:uid="{2FF4B5CE-C392-4908-BE0B-2A3E7911232E}"/>
+    <hyperlink ref="G120" r:id="rId61" xr:uid="{2FF4B5CE-C392-4908-BE0B-2A3E7911232E}"/>
     <hyperlink ref="G33" r:id="rId62" xr:uid="{CB41B711-AA65-4AFA-824B-10D0659B2C1C}"/>
     <hyperlink ref="G50" r:id="rId63" xr:uid="{D8A0DC46-7E47-4EE3-A0EB-AC60985A5323}"/>
     <hyperlink ref="G42" r:id="rId64" xr:uid="{C99A1979-6CAD-4105-B9DE-3703456B3D48}"/>
@@ -6614,7 +6562,7 @@
   <dimension ref="E9:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6624,10 +6572,10 @@
   <sheetData>
     <row r="9" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G9">
         <v>9.99</v>
@@ -6635,10 +6583,10 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G12">
         <v>9.99</v>
@@ -6646,10 +6594,10 @@
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G13">
         <v>18.989999999999998</v>

--- a/System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1109" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60A66629-4E3C-4921-B7F3-A4D51C31B2BE}"/>
+  <xr:revisionPtr revIDLastSave="1120" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4433535B-396B-4D19-B993-EB2AC2C09734}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1350" yWindow="1350" windowWidth="2355" windowHeight="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$453</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="253">
   <si>
     <t>$/kg</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>https://www.amazon.com/dp/B08R9MGSWV?psc=1&amp;smid=A2Z10KY0342329&amp;ref_=chk_typ_imgToDp</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
   </si>
   <si>
     <t>3D Printing Fillament (PLA)</t>
@@ -1254,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O463"/>
+  <dimension ref="A1:O452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="10" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1272,16 +1269,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1">
-        <f>SUM(K4:K464)</f>
+        <f>SUM(K4:K453)</f>
         <v>1972.2800000000009</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1295,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1339,7 +1336,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -1348,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>16.989999999999998</v>
@@ -1365,7 +1362,7 @@
         <v>16.989999999999998</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(OR(CELL("address")=CELL("address",A4),CELL("address")=CELL("address",B4),CELL("address")=CELL("address",C4),CELL("address")=CELL("address",D4),CELL("address")=CELL("address",E4),CELL("address")=CELL("address",F4),CELL("address")=CELL("address",G4),CELL("address")=CELL("address",H4),CELL("address")=CELL("address",I4)),NOW(),M4)</f>
@@ -1375,22 +1372,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>8.69</v>
@@ -1413,22 +1410,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>5.99</v>
@@ -1455,16 +1452,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7">
         <v>12.99</v>
@@ -1487,22 +1484,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>8.85</v>
@@ -1528,22 +1525,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1560,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">IF(OR(CELL("address")=CELL("address",A9),CELL("address")=CELL("address",B9),CELL("address")=CELL("address",C9),CELL("address")=CELL("address",D9),CELL("address")=CELL("address",E9),CELL("address")=CELL("address",F9),CELL("address")=CELL("address",G9),CELL("address")=CELL("address",H9),CELL("address")=CELL("address",I9)),NOW(),M9)</f>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1578,16 +1575,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10">
         <v>22.99</v>
@@ -1610,13 +1607,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
@@ -1639,7 +1636,7 @@
         <v>6.99</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">IF(OR(CELL("address")=CELL("address",A11),CELL("address")=CELL("address",B11),CELL("address")=CELL("address",C11),CELL("address")=CELL("address",D11),CELL("address")=CELL("address",E11),CELL("address")=CELL("address",F11),CELL("address")=CELL("address",G11),CELL("address")=CELL("address",H11),CELL("address")=CELL("address",I11)),NOW(),M11)</f>
@@ -1648,7 +1645,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1684,19 +1681,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>6.99</v>
@@ -1719,19 +1716,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14">
         <v>6.99</v>
@@ -1754,19 +1751,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>7.99</v>
@@ -1789,13 +1786,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
@@ -1819,24 +1816,24 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">IF(OR(CELL("address")=CELL("address",A16),CELL("address")=CELL("address",B16),CELL("address")=CELL("address",C16),CELL("address")=CELL("address",D16),CELL("address")=CELL("address",E16),CELL("address")=CELL("address",F16),CELL("address")=CELL("address",G16),CELL("address")=CELL("address",H16),CELL("address")=CELL("address",I16)),NOW(),M16)</f>
-        <v>45643.711338657406</v>
+        <v>45761.423950462966</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="8">
         <v>17.989999999999998</v>
@@ -1859,16 +1856,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="8">
         <v>7.99</v>
@@ -1891,7 +1888,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1903,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19">
         <v>10.99</v>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">IF(OR(CELL("address")=CELL("address",A20),CELL("address")=CELL("address",B20),CELL("address")=CELL("address",C20),CELL("address")=CELL("address",D20),CELL("address")=CELL("address",E20),CELL("address")=CELL("address",F20),CELL("address")=CELL("address",G20),CELL("address")=CELL("address",H20),CELL("address")=CELL("address",I20)),NOW(),M20)</f>
@@ -1964,22 +1961,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <v>9.99</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2011,16 +2008,16 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22">
         <v>9.89</v>
@@ -2043,22 +2040,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>8.99</v>
@@ -2082,16 +2079,16 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24">
         <v>13.99</v>
@@ -2114,22 +2111,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H25">
         <v>15.99</v>
@@ -2152,7 +2149,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2161,16 +2158,16 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26">
         <v>8.99</v>
@@ -2193,10 +2190,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2231,22 +2228,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28">
         <v>67.989999999999995</v>
@@ -2269,22 +2266,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2301,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">IF(OR(CELL("address")=CELL("address",A29),CELL("address")=CELL("address",B29),CELL("address")=CELL("address",C29),CELL("address")=CELL("address",D29),CELL("address")=CELL("address",E29),CELL("address")=CELL("address",F29),CELL("address")=CELL("address",G29),CELL("address")=CELL("address",H29),CELL("address")=CELL("address",I29)),NOW(),M29)</f>
@@ -2310,22 +2307,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30">
         <v>7.69</v>
@@ -2348,22 +2345,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2388,19 +2385,19 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H32" s="6">
         <v>10.58</v>
@@ -2423,23 +2420,23 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="5">
         <v>23.53</v>
@@ -2462,13 +2459,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2495,13 +2492,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2523,15 +2520,15 @@
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">IF(OR(CELL("address")=CELL("address",A35),CELL("address")=CELL("address",B35),CELL("address")=CELL("address",C35),CELL("address")=CELL("address",D35),CELL("address")=CELL("address",E35),CELL("address")=CELL("address",F35),CELL("address")=CELL("address",G35),CELL("address")=CELL("address",H35),CELL("address")=CELL("address",I35)),NOW(),M35)</f>
-        <v>45747.68347314815</v>
+        <v>45753.519040509258</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36">
@@ -2555,22 +2552,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37">
         <v>70.98</v>
@@ -2587,7 +2584,7 @@
         <v>70.98</v>
       </c>
       <c r="L37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">IF(OR(CELL("address")=CELL("address",A37),CELL("address")=CELL("address",B37),CELL("address")=CELL("address",C37),CELL("address")=CELL("address",D37),CELL("address")=CELL("address",E37),CELL("address")=CELL("address",F37),CELL("address")=CELL("address",G37),CELL("address")=CELL("address",H37),CELL("address")=CELL("address",I37)),NOW(),M37)</f>
@@ -2596,22 +2593,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38">
         <v>13.76</v>
@@ -2634,19 +2631,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>11.6</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H39">
         <v>21.55</v>
@@ -2672,19 +2669,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40">
         <v>5.99</v>
@@ -2701,7 +2698,7 @@
         <v>5.99</v>
       </c>
       <c r="L40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">IF(OR(CELL("address")=CELL("address",A40),CELL("address")=CELL("address",B40),CELL("address")=CELL("address",C40),CELL("address")=CELL("address",D40),CELL("address")=CELL("address",E40),CELL("address")=CELL("address",F40),CELL("address")=CELL("address",G40),CELL("address")=CELL("address",H40),CELL("address")=CELL("address",I40)),NOW(),M40)</f>
@@ -2710,19 +2707,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H41">
         <v>9.99</v>
@@ -2745,19 +2742,19 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H42">
         <v>5.98</v>
@@ -2774,7 +2771,7 @@
         <v>5.98</v>
       </c>
       <c r="L42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">IF(OR(CELL("address")=CELL("address",A42),CELL("address")=CELL("address",B42),CELL("address")=CELL("address",C42),CELL("address")=CELL("address",D42),CELL("address")=CELL("address",E42),CELL("address")=CELL("address",F42),CELL("address")=CELL("address",G42),CELL("address")=CELL("address",H42),CELL("address")=CELL("address",I42)),NOW(),M42)</f>
@@ -2783,22 +2780,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H43">
         <v>13.76</v>
@@ -2821,22 +2818,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H44">
         <v>5.01</v>
@@ -2853,29 +2850,29 @@
         <v>10.02</v>
       </c>
       <c r="L44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M44" s="3" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">IF(OR(CELL("address")=CELL("address",A44),CELL("address")=CELL("address",B44),CELL("address")=CELL("address",C44),CELL("address")=CELL("address",D44),CELL("address")=CELL("address",E44),CELL("address")=CELL("address",F44),CELL("address")=CELL("address",G44),CELL("address")=CELL("address",H44),CELL("address")=CELL("address",I44)),NOW(),M44)</f>
-        <v>45699.675219097226</v>
+        <v>45759.449647222224</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H45">
         <v>8.73</v>
@@ -2895,13 +2892,13 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -2910,25 +2907,25 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H47">
         <v>10.99</v>
@@ -2941,19 +2938,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H48">
         <v>12.99</v>
@@ -2970,7 +2967,7 @@
         <v>12.99</v>
       </c>
       <c r="L48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M48" s="3" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">IF(OR(CELL("address")=CELL("address",A48),CELL("address")=CELL("address",B48),CELL("address")=CELL("address",C48),CELL("address")=CELL("address",D48),CELL("address")=CELL("address",E48),CELL("address")=CELL("address",F48),CELL("address")=CELL("address",G48),CELL("address")=CELL("address",H48),CELL("address")=CELL("address",I48)),NOW(),M48)</f>
@@ -2979,19 +2976,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H49">
         <v>6.49</v>
@@ -3014,19 +3011,19 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H50">
         <v>3.29</v>
@@ -3049,25 +3046,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51">
         <v>56.3</v>
@@ -3090,22 +3087,22 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3128,22 +3125,22 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H53">
         <v>8.99</v>
@@ -3166,22 +3163,22 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H54">
         <v>9.99</v>
@@ -3204,22 +3201,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H55">
         <v>12.29</v>
@@ -3242,22 +3239,22 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H56">
         <v>8.19</v>
@@ -3280,19 +3277,19 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H57">
         <v>16.91</v>
@@ -3309,7 +3306,7 @@
         <v>16.91</v>
       </c>
       <c r="L57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M57" s="3" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">IF(OR(CELL("address")=CELL("address",A57),CELL("address")=CELL("address",B57),CELL("address")=CELL("address",C57),CELL("address")=CELL("address",D57),CELL("address")=CELL("address",E57),CELL("address")=CELL("address",F57),CELL("address")=CELL("address",G57),CELL("address")=CELL("address",H57),CELL("address")=CELL("address",I57)),NOW(),M57)</f>
@@ -3318,22 +3315,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H58">
         <v>12.88</v>
@@ -3356,22 +3353,22 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H59">
         <v>9.99</v>
@@ -3388,7 +3385,7 @@
         <v>79.92</v>
       </c>
       <c r="L59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M59" s="3" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">IF(OR(CELL("address")=CELL("address",A59),CELL("address")=CELL("address",B59),CELL("address")=CELL("address",C59),CELL("address")=CELL("address",D59),CELL("address")=CELL("address",E59),CELL("address")=CELL("address",F59),CELL("address")=CELL("address",G59),CELL("address")=CELL("address",H59),CELL("address")=CELL("address",I59)),NOW(),M59)</f>
@@ -3397,22 +3394,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60">
         <v>8</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H60">
         <v>12.49</v>
@@ -3429,7 +3426,7 @@
         <v>12.49</v>
       </c>
       <c r="L60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M60" s="3" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">IF(OR(CELL("address")=CELL("address",A60),CELL("address")=CELL("address",B60),CELL("address")=CELL("address",C60),CELL("address")=CELL("address",D60),CELL("address")=CELL("address",E60),CELL("address")=CELL("address",F60),CELL("address")=CELL("address",G60),CELL("address")=CELL("address",H60),CELL("address")=CELL("address",I60)),NOW(),M60)</f>
@@ -3438,22 +3435,22 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3476,22 +3473,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H62">
         <v>17.59</v>
@@ -3514,22 +3511,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H63">
         <v>6.69</v>
@@ -3552,16 +3549,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -3588,22 +3585,22 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3626,22 +3623,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3664,22 +3661,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H67">
         <v>13.63</v>
@@ -3702,25 +3699,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H68">
         <v>8.2899999999999991</v>
@@ -3743,16 +3740,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>25</v>
@@ -3761,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H69">
         <v>60.97</v>
@@ -3784,23 +3781,23 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70">
         <f>8*4</f>
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H70">
         <v>9.49</v>
@@ -3824,29 +3821,29 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H72">
         <v>9.99</v>
@@ -3869,22 +3866,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H73">
         <v>3.3</v>
@@ -3907,22 +3904,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H74">
         <v>7.99</v>
@@ -3931,15 +3928,15 @@
         <v>10</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" ref="J74:J111" si="23">ROUNDUP(F74/I74,0)</f>
+        <f t="shared" ref="J74:J102" si="23">ROUNDUP(F74/I74,0)</f>
         <v>1</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" ref="K74:K111" si="24">J74*H74</f>
+        <f t="shared" ref="K74:K102" si="24">J74*H74</f>
         <v>7.99</v>
       </c>
       <c r="L74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M74" s="3" cm="1">
         <f t="array" aca="1" ref="M74" ca="1">IF(OR(CELL("address")=CELL("address",A74),CELL("address")=CELL("address",B74),CELL("address")=CELL("address",C74),CELL("address")=CELL("address",D74),CELL("address")=CELL("address",E74),CELL("address")=CELL("address",F74),CELL("address")=CELL("address",G74),CELL("address")=CELL("address",H74),CELL("address")=CELL("address",I74)),NOW(),M74)</f>
@@ -3948,22 +3945,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3986,22 +3983,22 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F76">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H76">
         <v>8.39</v>
@@ -4024,25 +4021,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H77">
         <v>18.989999999999998</v>
@@ -4065,16 +4062,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4085,16 +4082,16 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4105,16 +4102,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -4125,16 +4122,16 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F81">
         <v>16</v>
@@ -4148,22 +4145,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F82">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4173,92 +4170,167 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G83" s="2"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="G84" s="2"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="A84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84">
+        <v>12.99</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" ref="J84" si="27">ROUNDUP(F84/I84,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" ref="K84" si="28">J84*H84</f>
+        <v>12.99</v>
+      </c>
+      <c r="L84" t="s">
+        <v>192</v>
+      </c>
+      <c r="M84" s="3" cm="1">
+        <f t="array" aca="1" ref="M84" ca="1">IF(OR(CELL("address")=CELL("address",A84),CELL("address")=CELL("address",B84),CELL("address")=CELL("address",C84),CELL("address")=CELL("address",D84),CELL("address")=CELL("address",E84),CELL("address")=CELL("address",F84),CELL("address")=CELL("address",G84),CELL("address")=CELL("address",H84),CELL("address")=CELL("address",I84)),NOW(),M84)</f>
+        <v>45760.443062500002</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="G85" s="2"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="A85" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85">
+        <v>9.99</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="24"/>
+        <v>9.99</v>
+      </c>
+      <c r="M85" s="3" cm="1">
+        <f t="array" aca="1" ref="M85" ca="1">IF(OR(CELL("address")=CELL("address",A85),CELL("address")=CELL("address",B85),CELL("address")=CELL("address",C85),CELL("address")=CELL("address",D85),CELL("address")=CELL("address",E85),CELL("address")=CELL("address",F85),CELL("address")=CELL("address",G85),CELL("address")=CELL("address",H85),CELL("address")=CELL("address",I85)),NOW(),M85)</f>
+        <v>45643.558642013886</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A86" s="4"/>
-      <c r="E86" s="5"/>
-      <c r="G86" s="2"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="A86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="24"/>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="M86" s="3" cm="1">
+        <f t="array" aca="1" ref="M86" ca="1">IF(OR(CELL("address")=CELL("address",A86),CELL("address")=CELL("address",B86),CELL("address")=CELL("address",C86),CELL("address")=CELL("address",D86),CELL("address")=CELL("address",E86),CELL("address")=CELL("address",F86),CELL("address")=CELL("address",G86),CELL("address")=CELL("address",H86),CELL("address")=CELL("address",I86)),NOW(),M86)</f>
+        <v>45642.601836689813</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="H87">
-        <v>12.99</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="27">ROUNDUP(F87/I87,0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="28">J87*H87</f>
-        <v>12.99</v>
-      </c>
-      <c r="L87" t="s">
-        <v>193</v>
+        <f t="shared" si="24"/>
+        <v>36.950000000000003</v>
       </c>
       <c r="M87" s="3" cm="1">
         <f t="array" aca="1" ref="M87" ca="1">IF(OR(CELL("address")=CELL("address",A87),CELL("address")=CELL("address",B87),CELL("address")=CELL("address",C87),CELL("address")=CELL("address",D87),CELL("address")=CELL("address",E87),CELL("address")=CELL("address",F87),CELL("address")=CELL("address",G87),CELL("address")=CELL("address",H87),CELL("address")=CELL("address",I87)),NOW(),M87)</f>
-        <v>45643.707809722226</v>
+        <v>45643.708739930553</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H88">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -4269,31 +4341,34 @@
       </c>
       <c r="K88" s="1">
         <f t="shared" si="24"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3" cm="1">
         <f t="array" aca="1" ref="M88" ca="1">IF(OR(CELL("address")=CELL("address",A88),CELL("address")=CELL("address",B88),CELL("address")=CELL("address",C88),CELL("address")=CELL("address",D88),CELL("address")=CELL("address",E88),CELL("address")=CELL("address",F88),CELL("address")=CELL("address",G88),CELL("address")=CELL("address",H88),CELL("address")=CELL("address",I88)),NOW(),M88)</f>
-        <v>45643.558642013886</v>
+        <v>45643.451515856483</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>148</v>
+      </c>
+      <c r="D89" t="s">
+        <v>98</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="H89">
-        <v>16.989999999999998</v>
+        <v>70.5</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4304,28 +4379,34 @@
       </c>
       <c r="K89" s="1">
         <f t="shared" si="24"/>
-        <v>16.989999999999998</v>
+        <v>70.5</v>
       </c>
       <c r="M89" s="3" cm="1">
         <f t="array" aca="1" ref="M89" ca="1">IF(OR(CELL("address")=CELL("address",A89),CELL("address")=CELL("address",B89),CELL("address")=CELL("address",C89),CELL("address")=CELL("address",D89),CELL("address")=CELL("address",E89),CELL("address")=CELL("address",F89),CELL("address")=CELL("address",G89),CELL("address")=CELL("address",H89),CELL("address")=CELL("address",I89)),NOW(),M89)</f>
-        <v>45642.601836689813</v>
+        <v>45643.709317013891</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="H90">
-        <v>36.950000000000003</v>
+        <v>8.98</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -4336,25 +4417,34 @@
       </c>
       <c r="K90" s="1">
         <f t="shared" si="24"/>
-        <v>36.950000000000003</v>
+        <v>8.98</v>
       </c>
       <c r="M90" s="3" cm="1">
         <f t="array" aca="1" ref="M90" ca="1">IF(OR(CELL("address")=CELL("address",A90),CELL("address")=CELL("address",B90),CELL("address")=CELL("address",C90),CELL("address")=CELL("address",D90),CELL("address")=CELL("address",E90),CELL("address")=CELL("address",F90),CELL("address")=CELL("address",G90),CELL("address")=CELL("address",H90),CELL("address")=CELL("address",I90)),NOW(),M90)</f>
-        <v>45643.708739930553</v>
+        <v>45643.709466666667</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>98</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H91">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -4365,37 +4455,40 @@
       </c>
       <c r="K91" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>33.92</v>
+      </c>
+      <c r="L91" t="s">
+        <v>104</v>
       </c>
       <c r="M91" s="3" cm="1">
         <f t="array" aca="1" ref="M91" ca="1">IF(OR(CELL("address")=CELL("address",A91),CELL("address")=CELL("address",B91),CELL("address")=CELL("address",C91),CELL("address")=CELL("address",D91),CELL("address")=CELL("address",E91),CELL("address")=CELL("address",F91),CELL("address")=CELL("address",G91),CELL("address")=CELL("address",H91),CELL("address")=CELL("address",I91)),NOW(),M91)</f>
-        <v>45643.451515856483</v>
+        <v>45642.605838310184</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="H92">
-        <v>70.5</v>
+        <v>15.99</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" si="23"/>
@@ -4403,34 +4496,28 @@
       </c>
       <c r="K92" s="1">
         <f t="shared" si="24"/>
-        <v>70.5</v>
+        <v>15.99</v>
       </c>
       <c r="M92" s="3" cm="1">
         <f t="array" aca="1" ref="M92" ca="1">IF(OR(CELL("address")=CELL("address",A92),CELL("address")=CELL("address",B92),CELL("address")=CELL("address",C92),CELL("address")=CELL("address",D92),CELL("address")=CELL("address",E92),CELL("address")=CELL("address",F92),CELL("address")=CELL("address",G92),CELL("address")=CELL("address",H92),CELL("address")=CELL("address",I92)),NOW(),M92)</f>
-        <v>45643.709317013891</v>
+        <v>45643.709010995372</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H93">
-        <v>8.98</v>
+        <v>18</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4441,78 +4528,43 @@
       </c>
       <c r="K93" s="1">
         <f t="shared" si="24"/>
-        <v>8.98</v>
+        <v>18</v>
       </c>
       <c r="M93" s="3" cm="1">
         <f t="array" aca="1" ref="M93" ca="1">IF(OR(CELL("address")=CELL("address",A93),CELL("address")=CELL("address",B93),CELL("address")=CELL("address",C93),CELL("address")=CELL("address",D93),CELL("address")=CELL("address",E93),CELL("address")=CELL("address",F93),CELL("address")=CELL("address",G93),CELL("address")=CELL("address",H93),CELL("address")=CELL("address",I93)),NOW(),M93)</f>
-        <v>45643.709466666667</v>
+        <v>45737.921368981479</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A94" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" t="s">
-        <v>99</v>
-      </c>
+      <c r="A94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H94">
-        <v>33.92</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="K94" s="1">
-        <f t="shared" si="24"/>
-        <v>33.92</v>
-      </c>
-      <c r="L94" t="s">
-        <v>105</v>
-      </c>
-      <c r="M94" s="3" cm="1">
-        <f t="array" aca="1" ref="M94" ca="1">IF(OR(CELL("address")=CELL("address",A94),CELL("address")=CELL("address",B94),CELL("address")=CELL("address",C94),CELL("address")=CELL("address",D94),CELL("address")=CELL("address",E94),CELL("address")=CELL("address",F94),CELL("address")=CELL("address",G94),CELL("address")=CELL("address",H94),CELL("address")=CELL("address",I94)),NOW(),M94)</f>
-        <v>45642.605838310184</v>
+        <v>250</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H95">
-        <v>15.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" si="23"/>
@@ -4520,28 +4572,28 @@
       </c>
       <c r="K95" s="1">
         <f t="shared" si="24"/>
-        <v>15.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="M95" s="3" cm="1">
         <f t="array" aca="1" ref="M95" ca="1">IF(OR(CELL("address")=CELL("address",A95),CELL("address")=CELL("address",B95),CELL("address")=CELL("address",C95),CELL("address")=CELL("address",D95),CELL("address")=CELL("address",E95),CELL("address")=CELL("address",F95),CELL("address")=CELL("address",G95),CELL("address")=CELL("address",H95),CELL("address")=CELL("address",I95)),NOW(),M95)</f>
-        <v>45643.709010995372</v>
+        <v>45663.844828240741</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H96">
-        <v>18</v>
+        <v>22.99</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4552,50 +4604,98 @@
       </c>
       <c r="K96" s="1">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>22.99</v>
       </c>
       <c r="M96" s="3" cm="1">
         <f t="array" aca="1" ref="M96" ca="1">IF(OR(CELL("address")=CELL("address",A96),CELL("address")=CELL("address",B96),CELL("address")=CELL("address",C96),CELL("address")=CELL("address",D96),CELL("address")=CELL("address",E96),CELL("address")=CELL("address",F96),CELL("address")=CELL("address",G96),CELL("address")=CELL("address",H96),CELL("address")=CELL("address",I96)),NOW(),M96)</f>
-        <v>45737.921368981479</v>
+        <v>45643.705772337962</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="G97" s="2"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="A97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H97">
+        <v>15.19</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="24"/>
+        <v>15.19</v>
+      </c>
+      <c r="M97" s="3" cm="1">
+        <f t="array" aca="1" ref="M97" ca="1">IF(OR(CELL("address")=CELL("address",A97),CELL("address")=CELL("address",B97),CELL("address")=CELL("address",C97),CELL("address")=CELL("address",D97),CELL("address")=CELL("address",E97),CELL("address")=CELL("address",F97),CELL("address")=CELL("address",G97),CELL("address")=CELL("address",H97),CELL("address")=CELL("address",I97)),NOW(),M97)</f>
+        <v>45643.707148842594</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E98" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="2" t="s">
-        <v>252</v>
+        <v>100</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H98">
+        <v>9.49</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="24"/>
+        <v>9.49</v>
+      </c>
+      <c r="M98" s="3" cm="1">
+        <f t="array" aca="1" ref="M98" ca="1">IF(OR(CELL("address")=CELL("address",A98),CELL("address")=CELL("address",B98),CELL("address")=CELL("address",C98),CELL("address")=CELL("address",D98),CELL("address")=CELL("address",E98),CELL("address")=CELL("address",F98),CELL("address")=CELL("address",G98),CELL("address")=CELL("address",H98),CELL("address")=CELL("address",I98)),NOW(),M98)</f>
+        <v>45643.699993402777</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D99" t="s">
+        <v>215</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H99">
-        <v>16.989999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="23"/>
@@ -4603,28 +4703,34 @@
       </c>
       <c r="K99" s="1">
         <f t="shared" si="24"/>
-        <v>16.989999999999998</v>
+        <v>3.99</v>
+      </c>
+      <c r="L99" t="s">
+        <v>216</v>
       </c>
       <c r="M99" s="3" cm="1">
         <f t="array" aca="1" ref="M99" ca="1">IF(OR(CELL("address")=CELL("address",A99),CELL("address")=CELL("address",B99),CELL("address")=CELL("address",C99),CELL("address")=CELL("address",D99),CELL("address")=CELL("address",E99),CELL("address")=CELL("address",F99),CELL("address")=CELL("address",G99),CELL("address")=CELL("address",H99),CELL("address")=CELL("address",I99)),NOW(),M99)</f>
-        <v>45663.844828240741</v>
+        <v>45663.844060416668</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="H100">
-        <v>22.99</v>
+        <v>7.99</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -4635,28 +4741,31 @@
       </c>
       <c r="K100" s="1">
         <f t="shared" si="24"/>
-        <v>22.99</v>
+        <v>7.99</v>
       </c>
       <c r="M100" s="3" cm="1">
         <f t="array" aca="1" ref="M100" ca="1">IF(OR(CELL("address")=CELL("address",A100),CELL("address")=CELL("address",B100),CELL("address")=CELL("address",C100),CELL("address")=CELL("address",D100),CELL("address")=CELL("address",E100),CELL("address")=CELL("address",F100),CELL("address")=CELL("address",G100),CELL("address")=CELL("address",H100),CELL("address")=CELL("address",I100)),NOW(),M100)</f>
-        <v>45643.705772337962</v>
+        <v>45663.844104976852</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="H101">
-        <v>15.19</v>
+        <v>23.99</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4667,28 +4776,28 @@
       </c>
       <c r="K101" s="1">
         <f t="shared" si="24"/>
-        <v>15.19</v>
+        <v>23.99</v>
       </c>
       <c r="M101" s="3" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">IF(OR(CELL("address")=CELL("address",A101),CELL("address")=CELL("address",B101),CELL("address")=CELL("address",C101),CELL("address")=CELL("address",D101),CELL("address")=CELL("address",E101),CELL("address")=CELL("address",F101),CELL("address")=CELL("address",G101),CELL("address")=CELL("address",H101),CELL("address")=CELL("address",I101)),NOW(),M101)</f>
-        <v>45643.707148842594</v>
+        <v>45663.844116319444</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H102">
-        <v>9.49</v>
+        <v>13.99</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4699,122 +4808,101 @@
       </c>
       <c r="K102" s="1">
         <f t="shared" si="24"/>
-        <v>9.49</v>
+        <v>13.99</v>
       </c>
       <c r="M102" s="3" cm="1">
         <f t="array" aca="1" ref="M102" ca="1">IF(OR(CELL("address")=CELL("address",A102),CELL("address")=CELL("address",B102),CELL("address")=CELL("address",C102),CELL("address")=CELL("address",D102),CELL("address")=CELL("address",E102),CELL("address")=CELL("address",F102),CELL("address")=CELL("address",G102),CELL("address")=CELL("address",H102),CELL("address")=CELL("address",I102)),NOW(),M102)</f>
-        <v>45643.699993402777</v>
+        <v>45760.443250578704</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A103" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>43</v>
+      <c r="E103" t="s">
+        <v>193</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H103">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="J103:J108" si="29">ROUNDUP(F103/I103,0)</f>
         <v>1</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="24"/>
-        <v>3.99</v>
-      </c>
-      <c r="L103" t="s">
-        <v>217</v>
+        <f t="shared" ref="K103:K108" si="30">J103*H103</f>
+        <v>0</v>
       </c>
       <c r="M103" s="3" cm="1">
         <f t="array" aca="1" ref="M103" ca="1">IF(OR(CELL("address")=CELL("address",A103),CELL("address")=CELL("address",B103),CELL("address")=CELL("address",C103),CELL("address")=CELL("address",D103),CELL("address")=CELL("address",E103),CELL("address")=CELL("address",F103),CELL("address")=CELL("address",G103),CELL("address")=CELL("address",H103),CELL("address")=CELL("address",I103)),NOW(),M103)</f>
-        <v>45663.844060416668</v>
+        <v>45760.443337847224</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A104" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" t="s">
-        <v>216</v>
-      </c>
       <c r="E104" s="5" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H104">
-        <v>7.99</v>
+        <v>28.99</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="24"/>
-        <v>7.99</v>
+        <f t="shared" si="30"/>
+        <v>173.94</v>
       </c>
       <c r="M104" s="3" cm="1">
         <f t="array" aca="1" ref="M104" ca="1">IF(OR(CELL("address")=CELL("address",A104),CELL("address")=CELL("address",B104),CELL("address")=CELL("address",C104),CELL("address")=CELL("address",D104),CELL("address")=CELL("address",E104),CELL("address")=CELL("address",F104),CELL("address")=CELL("address",G104),CELL("address")=CELL("address",H104),CELL("address")=CELL("address",I104)),NOW(),M104)</f>
-        <v>45663.844104976852</v>
+        <v>45650.76498472222</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A105" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" t="s">
-        <v>216</v>
-      </c>
       <c r="E105" s="5" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="H105">
-        <v>23.99</v>
+        <v>52.99</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="24"/>
-        <v>23.99</v>
+        <f t="shared" si="30"/>
+        <v>105.98</v>
       </c>
       <c r="M105" s="3" cm="1">
         <f t="array" aca="1" ref="M105" ca="1">IF(OR(CELL("address")=CELL("address",A105),CELL("address")=CELL("address",B105),CELL("address")=CELL("address",C105),CELL("address")=CELL("address",D105),CELL("address")=CELL("address",E105),CELL("address")=CELL("address",F105),CELL("address")=CELL("address",G105),CELL("address")=CELL("address",H105),CELL("address")=CELL("address",I105)),NOW(),M105)</f>
-        <v>45663.844116319444</v>
+        <v>45646.90144050926</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E106" t="s">
+        <v>198</v>
+      </c>
       <c r="F106">
         <v>1</v>
       </c>
@@ -4825,19 +4913,22 @@
         <v>1</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M106" s="3" cm="1">
         <f t="array" aca="1" ref="M106" ca="1">IF(OR(CELL("address")=CELL("address",A106),CELL("address")=CELL("address",B106),CELL("address")=CELL("address",C106),CELL("address")=CELL("address",D106),CELL("address")=CELL("address",E106),CELL("address")=CELL("address",F106),CELL("address")=CELL("address",G106),CELL("address")=CELL("address",H106),CELL("address")=CELL("address",I106)),NOW(),M106)</f>
-        <v>0</v>
+        <v>45661.886575694443</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>199</v>
+      </c>
       <c r="F107">
         <v>1</v>
       </c>
@@ -4848,11 +4939,11 @@
         <v>1</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M107" s="3" cm="1">
@@ -4861,354 +4952,101 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E108" t="s">
+        <v>205</v>
+      </c>
       <c r="F108">
         <v>1</v>
       </c>
+      <c r="G108" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H108">
-        <v>0</v>
+        <v>23.99</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>23.99</v>
       </c>
       <c r="M108" s="3" cm="1">
         <f t="array" aca="1" ref="M108" ca="1">IF(OR(CELL("address")=CELL("address",A108),CELL("address")=CELL("address",B108),CELL("address")=CELL("address",C108),CELL("address")=CELL("address",D108),CELL("address")=CELL("address",E108),CELL("address")=CELL("address",F108),CELL("address")=CELL("address",G108),CELL("address")=CELL("address",H108),CELL("address")=CELL("address",I108)),NOW(),M108)</f>
-        <v>0</v>
+        <v>45661.850359490738</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E109" t="s">
+        <v>219</v>
+      </c>
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="K109" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="3" cm="1">
-        <f t="array" aca="1" ref="M109" ca="1">IF(OR(CELL("address")=CELL("address",A109),CELL("address")=CELL("address",B109),CELL("address")=CELL("address",C109),CELL("address")=CELL("address",D109),CELL("address")=CELL("address",E109),CELL("address")=CELL("address",F109),CELL("address")=CELL("address",G109),CELL("address")=CELL("address",H109),CELL("address")=CELL("address",I109)),NOW(),M109)</f>
-        <v>0</v>
-      </c>
+      <c r="G109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M109"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E110" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="3" cm="1">
-        <f t="array" aca="1" ref="M110" ca="1">IF(OR(CELL("address")=CELL("address",A110),CELL("address")=CELL("address",B110),CELL("address")=CELL("address",C110),CELL("address")=CELL("address",D110),CELL("address")=CELL("address",E110),CELL("address")=CELL("address",F110),CELL("address")=CELL("address",G110),CELL("address")=CELL("address",H110),CELL("address")=CELL("address",I110)),NOW(),M110)</f>
-        <v>45643.706193518519</v>
-      </c>
+      <c r="M110"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A111" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H111">
-        <v>13.99</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="K111" s="1">
-        <f t="shared" si="24"/>
-        <v>13.99</v>
-      </c>
-      <c r="M111" s="3" cm="1">
-        <f t="array" aca="1" ref="M111" ca="1">IF(OR(CELL("address")=CELL("address",A111),CELL("address")=CELL("address",B111),CELL("address")=CELL("address",C111),CELL("address")=CELL("address",D111),CELL("address")=CELL("address",E111),CELL("address")=CELL("address",F111),CELL("address")=CELL("address",G111),CELL("address")=CELL("address",H111),CELL("address")=CELL("address",I111)),NOW(),M111)</f>
-        <v>45642.654247106482</v>
-      </c>
+      <c r="M111"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
-        <f t="shared" ref="J112:J119" si="29">ROUNDUP(F112/I112,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K112" s="1">
-        <f t="shared" ref="K112:K119" si="30">J112*H112</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="3" cm="1">
-        <f t="array" aca="1" ref="M112" ca="1">IF(OR(CELL("address")=CELL("address",A112),CELL("address")=CELL("address",B112),CELL("address")=CELL("address",C112),CELL("address")=CELL("address",D112),CELL("address")=CELL("address",E112),CELL("address")=CELL("address",F112),CELL("address")=CELL("address",G112),CELL("address")=CELL("address",H112),CELL("address")=CELL("address",I112)),NOW(),M112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K113" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="3" cm="1">
-        <f t="array" aca="1" ref="M113" ca="1">IF(OR(CELL("address")=CELL("address",A113),CELL("address")=CELL("address",B113),CELL("address")=CELL("address",C113),CELL("address")=CELL("address",D113),CELL("address")=CELL("address",E113),CELL("address")=CELL("address",F113),CELL("address")=CELL("address",G113),CELL("address")=CELL("address",H113),CELL("address")=CELL("address",I113)),NOW(),M113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K114" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="3" cm="1">
-        <f t="array" aca="1" ref="M114" ca="1">IF(OR(CELL("address")=CELL("address",A114),CELL("address")=CELL("address",B114),CELL("address")=CELL("address",C114),CELL("address")=CELL("address",D114),CELL("address")=CELL("address",E114),CELL("address")=CELL("address",F114),CELL("address")=CELL("address",G114),CELL("address")=CELL("address",H114),CELL("address")=CELL("address",I114)),NOW(),M114)</f>
-        <v>45646.899649189814</v>
-      </c>
-    </row>
-    <row r="115" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E115" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F115">
-        <v>6</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H115">
-        <v>28.99</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="K115" s="1">
-        <f t="shared" si="30"/>
-        <v>173.94</v>
-      </c>
-      <c r="M115" s="3" cm="1">
-        <f t="array" aca="1" ref="M115" ca="1">IF(OR(CELL("address")=CELL("address",A115),CELL("address")=CELL("address",B115),CELL("address")=CELL("address",C115),CELL("address")=CELL("address",D115),CELL("address")=CELL("address",E115),CELL("address")=CELL("address",F115),CELL("address")=CELL("address",G115),CELL("address")=CELL("address",H115),CELL("address")=CELL("address",I115)),NOW(),M115)</f>
-        <v>45650.76498472222</v>
-      </c>
-    </row>
-    <row r="116" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E116" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H116">
-        <v>52.99</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="K116" s="1">
-        <f t="shared" si="30"/>
-        <v>105.98</v>
-      </c>
-      <c r="M116" s="3" cm="1">
-        <f t="array" aca="1" ref="M116" ca="1">IF(OR(CELL("address")=CELL("address",A116),CELL("address")=CELL("address",B116),CELL("address")=CELL("address",C116),CELL("address")=CELL("address",D116),CELL("address")=CELL("address",E116),CELL("address")=CELL("address",F116),CELL("address")=CELL("address",G116),CELL("address")=CELL("address",H116),CELL("address")=CELL("address",I116)),NOW(),M116)</f>
-        <v>45646.90144050926</v>
-      </c>
-    </row>
-    <row r="117" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E117" t="s">
-        <v>199</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K117" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="3" cm="1">
-        <f t="array" aca="1" ref="M117" ca="1">IF(OR(CELL("address")=CELL("address",A117),CELL("address")=CELL("address",B117),CELL("address")=CELL("address",C117),CELL("address")=CELL("address",D117),CELL("address")=CELL("address",E117),CELL("address")=CELL("address",F117),CELL("address")=CELL("address",G117),CELL("address")=CELL("address",H117),CELL("address")=CELL("address",I117)),NOW(),M117)</f>
-        <v>45661.886575694443</v>
-      </c>
-    </row>
-    <row r="118" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E118" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="3" cm="1">
-        <f t="array" aca="1" ref="M118" ca="1">IF(OR(CELL("address")=CELL("address",A118),CELL("address")=CELL("address",B118),CELL("address")=CELL("address",C118),CELL("address")=CELL("address",D118),CELL("address")=CELL("address",E118),CELL("address")=CELL("address",F118),CELL("address")=CELL("address",G118),CELL("address")=CELL("address",H118),CELL("address")=CELL("address",I118)),NOW(),M118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H119">
-        <v>23.99</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="30"/>
-        <v>23.99</v>
-      </c>
-      <c r="M119" s="3" cm="1">
-        <f t="array" aca="1" ref="M119" ca="1">IF(OR(CELL("address")=CELL("address",A119),CELL("address")=CELL("address",B119),CELL("address")=CELL("address",C119),CELL("address")=CELL("address",D119),CELL("address")=CELL("address",E119),CELL("address")=CELL("address",F119),CELL("address")=CELL("address",G119),CELL("address")=CELL("address",H119),CELL("address")=CELL("address",I119)),NOW(),M119)</f>
-        <v>45661.850359490738</v>
-      </c>
-    </row>
-    <row r="120" spans="5:13" x14ac:dyDescent="0.45">
-      <c r="E120" t="s">
-        <v>220</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M120"/>
     </row>
-    <row r="121" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M121"/>
     </row>
-    <row r="122" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M122"/>
     </row>
-    <row r="123" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M123"/>
     </row>
-    <row r="124" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M124"/>
     </row>
-    <row r="125" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M125"/>
     </row>
-    <row r="126" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M126"/>
     </row>
-    <row r="127" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M127"/>
     </row>
-    <row r="128" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M128"/>
     </row>
     <row r="129" spans="13:13" x14ac:dyDescent="0.45">
@@ -6136,37 +5974,213 @@
       <c r="M436"/>
     </row>
     <row r="437" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M437"/>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437" s="1">
+        <f t="shared" ref="J437:J452" si="31">ROUNDUP(F437/I437,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K437" s="1">
+        <f t="shared" ref="K437:K452" si="32">J437*H437</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M438"/>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K438" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M439"/>
+      <c r="F439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K439" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="440" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M440"/>
+      <c r="F440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+      <c r="J440" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K440" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="441" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M441"/>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>1</v>
+      </c>
+      <c r="J441" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K441" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M442"/>
+      <c r="F442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="J442" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K442" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M443"/>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>1</v>
+      </c>
+      <c r="J443" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K443" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M444"/>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+      <c r="J444" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K444" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M445"/>
+      <c r="F445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+      <c r="I445">
+        <v>1</v>
+      </c>
+      <c r="J445" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K445" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M446"/>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+      <c r="J446" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K446" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="M447"/>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>1</v>
+      </c>
+      <c r="J447" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K447" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="6:13" x14ac:dyDescent="0.45">
       <c r="F448">
@@ -6179,11 +6193,11 @@
         <v>1</v>
       </c>
       <c r="J448" s="1">
-        <f t="shared" ref="J448:J463" si="31">ROUNDUP(F448/I448,0)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="K448" s="1">
-        <f t="shared" ref="K448:K463" si="32">J448*H448</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -6263,219 +6277,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F453">
-        <v>1</v>
-      </c>
-      <c r="H453">
-        <v>0</v>
-      </c>
-      <c r="I453">
-        <v>1</v>
-      </c>
-      <c r="J453" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K453" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F454">
-        <v>1</v>
-      </c>
-      <c r="H454">
-        <v>0</v>
-      </c>
-      <c r="I454">
-        <v>1</v>
-      </c>
-      <c r="J454" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K454" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F455">
-        <v>1</v>
-      </c>
-      <c r="H455">
-        <v>0</v>
-      </c>
-      <c r="I455">
-        <v>1</v>
-      </c>
-      <c r="J455" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K455" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F456">
-        <v>1</v>
-      </c>
-      <c r="H456">
-        <v>0</v>
-      </c>
-      <c r="I456">
-        <v>1</v>
-      </c>
-      <c r="J456" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K456" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F457">
-        <v>1</v>
-      </c>
-      <c r="H457">
-        <v>0</v>
-      </c>
-      <c r="I457">
-        <v>1</v>
-      </c>
-      <c r="J457" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K457" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F458">
-        <v>1</v>
-      </c>
-      <c r="H458">
-        <v>0</v>
-      </c>
-      <c r="I458">
-        <v>1</v>
-      </c>
-      <c r="J458" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K458" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F459">
-        <v>1</v>
-      </c>
-      <c r="H459">
-        <v>0</v>
-      </c>
-      <c r="I459">
-        <v>1</v>
-      </c>
-      <c r="J459" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K459" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F460">
-        <v>1</v>
-      </c>
-      <c r="H460">
-        <v>0</v>
-      </c>
-      <c r="I460">
-        <v>1</v>
-      </c>
-      <c r="J460" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K460" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F461">
-        <v>1</v>
-      </c>
-      <c r="H461">
-        <v>0</v>
-      </c>
-      <c r="I461">
-        <v>1</v>
-      </c>
-      <c r="J461" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K461" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F462">
-        <v>1</v>
-      </c>
-      <c r="H462">
-        <v>0</v>
-      </c>
-      <c r="I462">
-        <v>1</v>
-      </c>
-      <c r="J462" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K462" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F463">
-        <v>1</v>
-      </c>
-      <c r="H463">
-        <v>0</v>
-      </c>
-      <c r="I463">
-        <v>1</v>
-      </c>
-      <c r="J463" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K463" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:M464" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:M453" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M21">
-      <sortCondition ref="D3:D464"/>
+      <sortCondition ref="D3:D453"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -6488,37 +6293,37 @@
     <hyperlink ref="G8" r:id="rId7" display="https://www.amazon.com/dp/B019U87UQ4?psc=1&amp;pd_rd_i=B019U87UQ4&amp;pd_rd_w=uRW9V&amp;content-id=amzn1.sym.dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_p=dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_r=225ETS73H2852Z99D761&amp;pd_rd_wg=3D4rT&amp;pd_rd_r=9b2c3f2b-c2b1-47d8-af44-4ad3f0200e7d&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;smid=A3E0SBPIY1LXW8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMU9SOElRWEJFMTY3JmVuY3J5cHRlZElkPUEwMzc4MjQ2M1BUVDIxVllRN0tJTCZlbmNyeXB0ZWRBZElkPUEwNzU5NTkwMTBITUM1WlpPN0xCVCZ3aWRnZXROYW1lPXNwX2RldGFpbF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{0CFA7821-B753-4016-952E-A2F2C78A736C}"/>
     <hyperlink ref="G19" r:id="rId8" display="https://www.amazon.com/ESHIONG-Straight-Reverse-Fittings%EF%BC%881-Purifiers%EF%BC%89/dp/B088DDX593?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=ro%2Bcheck%2Bvalve&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251369&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJU0tQNVM1MDhVM1UmZW5jcnlwdGVkSWQ9QTA5MjIyMjJUVU9IMFBRMVVQM1UmZW5jcnlwdGVkQWRJZD1BMDk5MzUwN1IzRUZTUTIwTVM2UCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{1FCD8F64-5B13-4DB7-86C9-101B36DB637F}"/>
     <hyperlink ref="G21" r:id="rId9" xr:uid="{5A7DA1E0-C8BE-4D2C-9475-073B3454FB99}"/>
-    <hyperlink ref="G89" r:id="rId10" xr:uid="{E44491F2-DB4E-4225-BB90-29BA22FBEA0D}"/>
-    <hyperlink ref="G94" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
-    <hyperlink ref="G92" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
-    <hyperlink ref="G103" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
-    <hyperlink ref="G104" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
-    <hyperlink ref="G105" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
-    <hyperlink ref="G93" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
+    <hyperlink ref="G86" r:id="rId10" xr:uid="{E44491F2-DB4E-4225-BB90-29BA22FBEA0D}"/>
+    <hyperlink ref="G91" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
+    <hyperlink ref="G89" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
+    <hyperlink ref="G99" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
+    <hyperlink ref="G100" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
+    <hyperlink ref="G101" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
+    <hyperlink ref="G90" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
     <hyperlink ref="G23" r:id="rId17" xr:uid="{53743EB8-09BB-4C83-9BD4-8D184989BC54}"/>
     <hyperlink ref="G25" r:id="rId18" xr:uid="{61C14228-2890-4F92-9A1F-412D451F55A3}"/>
     <hyperlink ref="G26" r:id="rId19" xr:uid="{C55FBA61-8E93-4FF3-A1D1-C786D9873885}"/>
     <hyperlink ref="G74" r:id="rId20" xr:uid="{640FC664-131F-4FFC-917F-379924A0E026}"/>
     <hyperlink ref="G37" r:id="rId21" xr:uid="{4DBFBC39-72E0-4524-B6C8-465CD165F079}"/>
     <hyperlink ref="G32" r:id="rId22" xr:uid="{1498CBE9-9372-485C-B3BB-27D0AE5B86BD}"/>
-    <hyperlink ref="G99" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
-    <hyperlink ref="G111" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
-    <hyperlink ref="G95" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
+    <hyperlink ref="G95" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
+    <hyperlink ref="G102" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
+    <hyperlink ref="G92" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
     <hyperlink ref="G7" r:id="rId26" xr:uid="{08E5E586-C17A-424B-951C-2C634CC7920D}"/>
     <hyperlink ref="G77" r:id="rId27" xr:uid="{5036D263-8019-49B4-8087-28821AEAE19F}"/>
     <hyperlink ref="G68" r:id="rId28" xr:uid="{9B0D3F4C-ACB7-4A15-AFFD-417E1A393112}"/>
-    <hyperlink ref="G88" r:id="rId29" display="https://www.amazon.com/APIELE-Warranty-Momentary-Mushroom-Mouting/dp/B07PKQJZDY?_encoding=UTF8&amp;pd_rd_i=B07PJKL2GW&amp;pd_rd_w=ypYuo&amp;content-id=amzn1.sym.5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_p=5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_r=QD95TBGR51F20SVN625E&amp;pd_rd_wg=K1vol&amp;pd_rd_r=90175681-5e10-4e04-8f10-3ae6b69f23a1&amp;th=1" xr:uid="{EDF63C4A-4F70-48E3-A041-2A3CD7DDACC0}"/>
+    <hyperlink ref="G85" r:id="rId29" display="https://www.amazon.com/APIELE-Warranty-Momentary-Mushroom-Mouting/dp/B07PKQJZDY?_encoding=UTF8&amp;pd_rd_i=B07PJKL2GW&amp;pd_rd_w=ypYuo&amp;content-id=amzn1.sym.5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_p=5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_r=QD95TBGR51F20SVN625E&amp;pd_rd_wg=K1vol&amp;pd_rd_r=90175681-5e10-4e04-8f10-3ae6b69f23a1&amp;th=1" xr:uid="{EDF63C4A-4F70-48E3-A041-2A3CD7DDACC0}"/>
     <hyperlink ref="G30" r:id="rId30" xr:uid="{C9250C8B-D50A-4893-8305-58824C2072FA}"/>
     <hyperlink ref="G38" r:id="rId31" xr:uid="{224DCDDC-D440-4E25-B7A6-177EF4011634}"/>
     <hyperlink ref="G44" r:id="rId32" xr:uid="{9991EFE1-5955-44E3-A2FD-4CB79E023BA5}"/>
     <hyperlink ref="G43" r:id="rId33" xr:uid="{CC6305D1-3266-4187-9479-77C83506E1AC}"/>
     <hyperlink ref="G24" r:id="rId34" xr:uid="{9D165EC1-90A2-4DD6-91D9-C86229A7D7C4}"/>
     <hyperlink ref="G22" r:id="rId35" xr:uid="{7527279C-B3EA-4862-86A2-82F2923022AD}"/>
-    <hyperlink ref="G96" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
-    <hyperlink ref="G102" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
-    <hyperlink ref="G100" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
-    <hyperlink ref="G101" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
-    <hyperlink ref="G90" r:id="rId40" xr:uid="{39B4DA69-46BF-425C-9C7E-E076BB5F0FBF}"/>
+    <hyperlink ref="G93" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
+    <hyperlink ref="G98" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
+    <hyperlink ref="G96" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
+    <hyperlink ref="G97" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
+    <hyperlink ref="G87" r:id="rId40" xr:uid="{39B4DA69-46BF-425C-9C7E-E076BB5F0FBF}"/>
     <hyperlink ref="G28" r:id="rId41" xr:uid="{1C4C4A2E-E434-466E-B19C-B16AB5D70DBB}"/>
     <hyperlink ref="G27" r:id="rId42" xr:uid="{851DC6B1-D13B-4376-943C-22F0F5436C0C}"/>
     <hyperlink ref="G67" r:id="rId43" xr:uid="{9A872AB3-8267-42B5-9651-725EF17F8C2B}"/>
@@ -6534,12 +6339,12 @@
     <hyperlink ref="G54" r:id="rId53" xr:uid="{0CF6430F-070E-48FB-AF86-976EA824908C}"/>
     <hyperlink ref="G56" r:id="rId54" xr:uid="{F7BBDE79-5152-47E7-A1F9-5D98D092F5A9}"/>
     <hyperlink ref="G18" r:id="rId55" xr:uid="{CAAA46C2-8E4E-45FD-BDBD-8F2EFB8F581D}"/>
-    <hyperlink ref="G115" r:id="rId56" xr:uid="{E50E6AAF-0B69-41F6-BDD1-240B57873590}"/>
-    <hyperlink ref="G116" r:id="rId57" display="https://www.amazon.com/Photect-Plates-Stainless-Kitchen-Crafting/dp/B0CR9V8TMF?_encoding=UTF8&amp;pd_rd_i=B0CR9V8TMF&amp;pd_rd_w=uQsUI&amp;content-id=amzn1.sym.6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_p=6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_r=1X2GZETAYHRDND2BYMEZ&amp;pd_rd_wg=QJQsZ&amp;pd_rd_r=3cf7e335-19d1-47cb-b917-ff38ead25483&amp;th=1" xr:uid="{DF6062D9-4942-4FB4-BA90-59E65FB55310}"/>
-    <hyperlink ref="G119" r:id="rId58" display="https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5" xr:uid="{379CDD9F-5880-48D8-8A5F-A897A2101E33}"/>
+    <hyperlink ref="G104" r:id="rId56" xr:uid="{E50E6AAF-0B69-41F6-BDD1-240B57873590}"/>
+    <hyperlink ref="G105" r:id="rId57" display="https://www.amazon.com/Photect-Plates-Stainless-Kitchen-Crafting/dp/B0CR9V8TMF?_encoding=UTF8&amp;pd_rd_i=B0CR9V8TMF&amp;pd_rd_w=uQsUI&amp;content-id=amzn1.sym.6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_p=6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_r=1X2GZETAYHRDND2BYMEZ&amp;pd_rd_wg=QJQsZ&amp;pd_rd_r=3cf7e335-19d1-47cb-b917-ff38ead25483&amp;th=1" xr:uid="{DF6062D9-4942-4FB4-BA90-59E65FB55310}"/>
+    <hyperlink ref="G108" r:id="rId58" display="https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5" xr:uid="{379CDD9F-5880-48D8-8A5F-A897A2101E33}"/>
     <hyperlink ref="G60" r:id="rId59" xr:uid="{C4DD5C7B-D350-4A87-8A29-6768079AD1F3}"/>
     <hyperlink ref="G76" r:id="rId60" xr:uid="{9E70EB05-4DE6-467A-8E3F-8E3E6CA69A5A}"/>
-    <hyperlink ref="G120" r:id="rId61" xr:uid="{2FF4B5CE-C392-4908-BE0B-2A3E7911232E}"/>
+    <hyperlink ref="G109" r:id="rId61" xr:uid="{2FF4B5CE-C392-4908-BE0B-2A3E7911232E}"/>
     <hyperlink ref="G33" r:id="rId62" xr:uid="{CB41B711-AA65-4AFA-824B-10D0659B2C1C}"/>
     <hyperlink ref="G50" r:id="rId63" xr:uid="{D8A0DC46-7E47-4EE3-A0EB-AC60985A5323}"/>
     <hyperlink ref="G42" r:id="rId64" xr:uid="{C99A1979-6CAD-4105-B9DE-3703456B3D48}"/>
@@ -6551,7 +6356,7 @@
     <hyperlink ref="G82" r:id="rId70" display="https://www.amazon.com/Bates-Stainless-Steel-Hardware-Metal/dp/B0CJ9FFH2Y/134-0072472-6555177?pd_rd_w=e47SZ&amp;content-id=amzn1.sym.52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_p=52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_r=1J12ZA159605VZ87JQJC&amp;pd_rd_wg=typRi&amp;pd_rd_r=eb0c5671-49df-4701-a0c7-37bcdd82384a&amp;pd_rd_i=B0CJ9FFH2Y&amp;th=1" xr:uid="{D56841B4-E815-4C25-AE8A-39A87A511FF3}"/>
     <hyperlink ref="G47" r:id="rId71" display="https://www.amazon.com/Yeebyee-Collars-Machinery-Industrial-Silver-1/dp/B0BYJWLKT7?crid=2WK0ZEC48NUPF&amp;dib=eyJ2IjoiMSJ9.fCJr-VhLiZSgWEt8w43axqSGjEY7pYgKYEqvFELVFdvuRg8l1OTxrVBzrBxGuZB7E5QHF_cYgRIYCrK3uM4H7l7wVqMCnvUuFkVGuOKqHEAcULfJEk7ci2FQSxkNu_syIcv9o8phu2mds62aI3B9oy_5wEGROeG_ZAZCO8Ab1ZBP455fr_tweFnwZdP2dyDeDD-ac_RnAz_2oY-u7W4nYBxMrTMZlDhGv4jtvozE8Yk.f6cw7CkASwj5p2FXP0xrxzxvoQ7fh6UY519n9FnwTSc&amp;dib_tag=se&amp;keywords=1%2F2%2Bshaft%2Bcollar&amp;qid=1739308002&amp;sprefix=1%2F2%22%2Bshaft%2Bco%2Caps%2C119&amp;sr=8-4&amp;th=1" xr:uid="{610555B3-8FBE-46B0-80C8-FAFB6B1C4D0B}"/>
     <hyperlink ref="G45" r:id="rId72" xr:uid="{1B239889-CD63-4E40-A11F-93774E4125BC}"/>
-    <hyperlink ref="L98" r:id="rId73" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
+    <hyperlink ref="L94" r:id="rId73" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6572,10 +6377,10 @@
   <sheetData>
     <row r="9" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9">
         <v>9.99</v>
@@ -6583,10 +6388,10 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12">
         <v>9.99</v>
@@ -6594,10 +6399,10 @@
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G13">
         <v>18.989999999999998</v>

--- a/System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1120" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4433535B-396B-4D19-B993-EB2AC2C09734}"/>
+  <xr:revisionPtr revIDLastSave="1631" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2940CEE4-D78B-4199-8570-588D13F9F25F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tools Needed" sheetId="2" r:id="rId2"/>
+    <sheet name="Part Catagory Key" sheetId="3" r:id="rId3"/>
+    <sheet name="Operational Consumables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$453</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$464</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="310">
   <si>
     <t>$/kg</t>
   </si>
@@ -163,15 +165,9 @@
     <t>1/4" Pex Push Ball Valve</t>
   </si>
   <si>
-    <t>YOTOO Reinforced Polyurethane Recoil Air Hose 1/4" Inner Diameter by 10' Long, Heavy Duty, Flexible Air Compressor Hose with Bend Restrictor, 1/4" Swivel Industrial Quick Coupler and Plug, Red - Amazon.com</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/product/B01NBO4Q9F/ref=ewc_pr_img_2?smid=A1BU77VE99X2YG&amp;psc=1</t>
   </si>
   <si>
-    <t>1/4" Air Hose 10 ft max</t>
-  </si>
-  <si>
     <t>1/2" Thrust Bearing</t>
   </si>
   <si>
@@ -235,12 +231,6 @@
     <t>Wash Piston Rod Static Seals</t>
   </si>
   <si>
-    <t>Closing Lever</t>
-  </si>
-  <si>
-    <t>Locking Lever</t>
-  </si>
-  <si>
     <t>Wash Piston Dynamic Seals</t>
   </si>
   <si>
@@ -259,18 +249,6 @@
     <t>.875 OD</t>
   </si>
   <si>
-    <t>GEARED MOTOR</t>
-  </si>
-  <si>
-    <t>Reservior Piston Stay Pin Locknut</t>
-  </si>
-  <si>
-    <t>Reservior Piston Stay Pin</t>
-  </si>
-  <si>
-    <t>Pin Bearings</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/YZM-Connector-fittings-Purifiers-accessories/dp/B01MRWDTZ2</t>
   </si>
   <si>
@@ -505,9 +483,6 @@
     <t>https://www.amazon.com/gp/product/B0957T1S9C/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t>EC&amp;UI</t>
-  </si>
-  <si>
     <t>1/4" MNPT to 1/4" Barb Fitting</t>
   </si>
   <si>
@@ -640,27 +615,6 @@
     <t>Not Used In Current Design</t>
   </si>
   <si>
-    <t>Machining Stock Used</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/cart/smart-wagon?newItems=6ae7574e-f16d-4eac-8798-e3f335d44bf3,1&amp;ref_=sw_refresh</t>
-  </si>
-  <si>
-    <t>12x12x1/8" 304 SS Sheet</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Photect-Plates-Stainless-Kitchen-Crafting/dp/B0CR9V8TMF?_encoding=UTF8&amp;pd_rd_i=B0CR9V8TMF&amp;pd_rd_w=uQsUI&amp;content-id=amzn1.sym.6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_p=6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_r=1X2GZETAYHRDND2BYMEZ&amp;pd_rd_wg=QJQsZ&amp;pd_rd_r=3cf7e335-19d1-47cb-b917-ff38ead25483&amp;th=1</t>
-  </si>
-  <si>
-    <t>12x24x1/8" 304 SS Sheet</t>
-  </si>
-  <si>
-    <t>1/4" Sheet Steel</t>
-  </si>
-  <si>
-    <t>Thin Gauge Steel</t>
-  </si>
-  <si>
     <t>1/4" NPT Tap</t>
   </si>
   <si>
@@ -676,9 +630,6 @@
     <t>https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5</t>
   </si>
   <si>
-    <t>1" Brass Stock</t>
-  </si>
-  <si>
     <t>4 to be machined so they can hold a bearing for idlers</t>
   </si>
   <si>
@@ -703,9 +654,6 @@
     <t>Optical Rotary Encoder Bracket</t>
   </si>
   <si>
-    <t>Motor Bracket</t>
-  </si>
-  <si>
     <t>Power Supply</t>
   </si>
   <si>
@@ -715,33 +663,15 @@
     <t>3.3V 8 Channel Relay</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B0DK673HM2?smid=AR88GRBHPCMHU&amp;psc=1</t>
-  </si>
-  <si>
-    <t>1" Steel Stock</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/9452K209/</t>
   </si>
   <si>
     <t>https://www.mcmaster.com/9452K99/</t>
   </si>
   <si>
-    <t>Reservior Piston Rod Pin O-Ring</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/9452K21/</t>
-  </si>
-  <si>
-    <t>Wash Piston Stay Stay Pin Locknut</t>
-  </si>
-  <si>
     <t>Wash Piston Stay Pin</t>
   </si>
   <si>
-    <t>3/16" All Thread</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/9452K27/</t>
   </si>
   <si>
@@ -751,30 +681,9 @@
     <t>.375" Rod, tapped at ends</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Tynulox-Stainless-Diameter-Industry-Working/dp/B0BCJXL7G7?dib=eyJ2IjoiMSJ9.pvdIMRLyox0PIO5SfrBzy9cdRbcpRM_OS-Jh4YtksLAt5EfEZWQ5Uj0ERARR9xD_-dSKOJ0pA2YmPi43Q01wfzWUA-FR0hAoYV6Tk9MAzZvtcujHrpfE99hw3SL1cQtxmTVktojLiVoXSmcQ_u3-hEOW_G6phtnc0qS1DwFR65Yy9QkYlPqktXPvqgROn49QpNo358W4guTqRq2ybAvWKfcpvKWaZlAKVr3KJORMKdg._6StCBMrb6UDu9xRkVkHWS5motL_fySAF0bJilndgsQ&amp;dib_tag=se&amp;keywords=3%2F16%2Brod&amp;qid=1739304664&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DTGN-16-24-UNC-Hex-Nuts/dp/B0BJTZSL1T?crid=32UXT9233IBUX&amp;dib=eyJ2IjoiMSJ9.XU6sAgKV7Ror0Y0Dc9yMtM72QzogCRsZ82dzj6jVabOJOoXKytkM_qopfhQKxMCU_zQL-FJirR1BaHR-YXoyk_nEN6A5DCsZQuaaalWcrlEwLN2rxgqJBqMaNdiOnS29lM-DBUshPfQGTEcnS2Lm8V4aLD7QX72c5Zgl24FnfuaSPf53r944Bj2v4kDc4hxwK-_xq9NUHge3IXNzN1N-lipC6EEh5Hg-tsPo57MDVI0.ggg9sxEySmQPD6hw6By23yQdlo2PGL5GLFlnSX--ofU&amp;dib_tag=se&amp;keywords=3%2F16%22%2Bnut&amp;qid=1739304808&amp;sprefix=3%2F16%2Bnut%2Caps%2C120&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vifmy-16-Locknuts-Stainless-Standard/dp/B0CPHP1VL9?crid=3MB60QT5VP26B&amp;dib=eyJ2IjoiMSJ9.ODNeNL9BnL6ZJFjNRGhoWWhKLN88OC02E961cARzES6Dr6EJ8AV3lL_utwj9eg6JL_uh6FJZipZS1nCnpjUwp8oKuAzc2nZQaEQBrz-EnCQRUNCkMtA-m134qJox_rMFJMf2wvxRZMwWunL0nOQb8tUrpOR4WKTcSw23ctthvP_fjfFSkLS413hZ4DAYA050xTF1un2m6FRn30AZeI0UqcSUklXa4wAuk7V1RiR3Upc.SEBfrfK7mnYjhbqdhQn2OQqY4ptqYEsI8viIsn5lw3E&amp;dib_tag=se&amp;keywords=.375%22%2Bnut&amp;qid=1739304893&amp;sprefix=375%2Bnut%2Caps%2C129&amp;sr=8-6&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/89535K34/</t>
-  </si>
-  <si>
     <t>Frame</t>
   </si>
   <si>
-    <t>Load Cell Base</t>
-  </si>
-  <si>
-    <t>Journal Bearing Base</t>
-  </si>
-  <si>
-    <t>Motor Base</t>
-  </si>
-  <si>
     <t>1/4" - 20 All Threaded Rod</t>
   </si>
   <si>
@@ -787,12 +696,6 @@
     <t>1/4" ID Rod Spacer</t>
   </si>
   <si>
-    <t>M6 Nuts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/M6-1-0-Socket-Screws-Lengths-Available/dp/B08MZLRB6P?crid=TFQ7KIWZQBHH&amp;dib=eyJ2IjoiMSJ9.HnhCBTwcuzkpeMRLxl3Qt2UJcYunyiokb1-nwl7knROz5Ucyb-N_F2yhMdW7jfmbx46ZBZqPdVkvl31enbrkheAf4FDCtDpiWQqXciU2lmoRNS4gaBL2xInIyTBEJ_D7JbFzAOGxS-PqGmzi7um_D2Ie0McZpiG_ZguufG4cIvUGdJzbxZ5PGhIggIT4_qRZoNxq1IXgKA_uobVEA_dYWWIm2xg9u3__Osz-peQW4kg.cLwGH9Kz3PqoM-_R2MeO0xJUa9d9VNVTdyQEsmZ9Y8M&amp;dib_tag=se&amp;keywords=M6%2Bsocket%2Bscrew%2B8mm%2Bhead%2C%2B3mm&amp;qid=1739307055&amp;sprefix=m6%2Bsocket%2Bscrew%2B8mm%2Bhead%2C%2B3mm%2Caps%2C109&amp;sr=8-13&amp;th=1</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Yeebyee-Collars-Machinery-Industrial-Silver-1/dp/B0BYJWLKT7?crid=2WK0ZEC48NUPF&amp;dib=eyJ2IjoiMSJ9.fCJr-VhLiZSgWEt8w43axqSGjEY7pYgKYEqvFELVFdvuRg8l1OTxrVBzrBxGuZB7E5QHF_cYgRIYCrK3uM4H7l7wVqMCnvUuFkVGuOKqHEAcULfJEk7ci2FQSxkNu_syIcv9o8phu2mds62aI3B9oy_5wEGROeG_ZAZCO8Ab1ZBP455fr_tweFnwZdP2dyDeDD-ac_RnAz_2oY-u7W4nYBxMrTMZlDhGv4jtvozE8Yk.f6cw7CkASwj5p2FXP0xrxzxvoQ7fh6UY519n9FnwTSc&amp;dib_tag=se&amp;keywords=1%2F2%2Bshaft%2Bcollar&amp;qid=1739308002&amp;sprefix=1%2F2%22%2Bshaft%2Bco%2Caps%2C119&amp;sr=8-4&amp;th=1</t>
   </si>
   <si>
@@ -811,13 +714,283 @@
     <t>Experimentation Needed to see what spring constant is needed</t>
   </si>
   <si>
-    <t>Din Rail Mount for 8 Channel Relay</t>
-  </si>
-  <si>
     <t>https://www.printables.com/model/191154-din-rail-mount/files</t>
   </si>
   <si>
     <t>Conduit Static Seal O-Ring</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08SPBSCHX?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>1/4 Inch OD PVC Clear Vinyl Tubing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BM8X97NS?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Mortice Latch 35mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08MZMK2JW?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D1X2YBLJ?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>M5 Mounting Nuts for Load Cell</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CWG7NSJP?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CQ9NWZC7?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Limit Switch Mount</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D29QD1WB?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BLHGK43D?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Screw Terminal Block Connector Kit</t>
+  </si>
+  <si>
+    <t>Screw Terminal Block Connector 8x</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BLHDTLLH?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Screw Terminal Block Connector 12x</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07PKKY8BX?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>PCB Male Header Pin Strip</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BP6P37QY?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Standoff Kit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B072Z7Y19F?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Protoboards</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07ZH9GJWP?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Self Tapping Mounting Screws</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D5LYFRQP?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BYS6THLF?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>ESP32 Breakout Board</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B077HTXVR1?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>M3-M8 Tap and Handle</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B2N57KB4?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Set Screw Set M3-M8</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07MC8SZQL?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Grease Fittings</t>
+  </si>
+  <si>
+    <t>HSS Tool Steel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07JB6FLD9?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Amazon.com: Acxico 2 pcs 3.3V 5V 6V 9V 12V 24V Mini AC DC to DC Buck Step Down Adjustable Volt Converter : Electronics</t>
+  </si>
+  <si>
+    <t>Step Down Buck Converter</t>
+  </si>
+  <si>
+    <t>E Hardware</t>
+  </si>
+  <si>
+    <t>Drive Frame Base</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D11B8727?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>Drive Motor</t>
+  </si>
+  <si>
+    <t>Drive Nut</t>
+  </si>
+  <si>
+    <t>Drive Nut 1" Brass Machine Stock</t>
+  </si>
+  <si>
+    <t>Used for other purposes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D39RQD5G?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>24V-3.3V Step Down Buck Converter</t>
+  </si>
+  <si>
+    <t>possible to not be needed</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0C2KMQ3C2?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Structural Wire Rope</t>
+  </si>
+  <si>
+    <t>Wire Rope Fixtures</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08BFSYNY4?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Shear Frame</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B094MQJT3B?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>M5 Turnbuckle</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0C1SF53HW?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>M3 Bearing Holding Screws</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B079KCWPWQ?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Reverse Rotation Preventer Diode for Motor</t>
+  </si>
+  <si>
+    <t>Motor Control</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BKPTQFFC?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>For Motor Control and E-Stop</t>
+  </si>
+  <si>
+    <t>Electrical Mounting</t>
+  </si>
+  <si>
+    <t>Din Rail Mounts</t>
+  </si>
+  <si>
+    <t>Piping</t>
+  </si>
+  <si>
+    <t>Self Tapping Mounting Screws for Din Rails</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B6FK69N1?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B18NVT5Z?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Automotive Fuse Assortment</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B079GG3MCN?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Fuse Block Recepticle</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D923Z3N5?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Wire Rope Crimping Tool</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B00291F0XA?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>24"x36" Aluminum Sheet .020"</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B4N2FXHF?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>M3.5 Chain Link for Wire Rope</t>
+  </si>
+  <si>
+    <t>Frame Plate</t>
+  </si>
+  <si>
+    <t>1/8" .125" Hot Rolled Steel Sheet Plate 12"X 24"</t>
+  </si>
+  <si>
+    <t>A36 Mild Steel, 1/4" x 12" x 24" Hot Rolled Steel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08JD7JN39?ref_=ppx_hzod_title_dt_b_fed_asin_title_0_1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BQC8QDQL?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>Electronic Control</t>
+  </si>
+  <si>
+    <t>Drive Assembly</t>
+  </si>
+  <si>
+    <t>Detergent</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -827,7 +1000,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,8 +1016,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,12 +1060,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -901,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -910,12 +1083,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,11 +1423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O452"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="10" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1269,16 +1444,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1">
-        <f>SUM(K4:K453)</f>
-        <v>1972.2800000000009</v>
+        <f>SUM(K4:K464)</f>
+        <v>2244.4999999999991</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1292,10 +1467,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1327,7 +1502,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1336,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -1345,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>16.989999999999998</v>
@@ -1362,32 +1537,32 @@
         <v>16.989999999999998</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(OR(CELL("address")=CELL("address",A4),CELL("address")=CELL("address",B4),CELL("address")=CELL("address",C4),CELL("address")=CELL("address",D4),CELL("address")=CELL("address",E4),CELL("address")=CELL("address",F4),CELL("address")=CELL("address",G4),CELL("address")=CELL("address",H4),CELL("address")=CELL("address",I4)),NOW(),M4)</f>
-        <v>45632.709743055559</v>
-      </c>
-      <c r="O4" s="9"/>
+        <v>45795.005152893522</v>
+      </c>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>8.69</v>
@@ -1410,22 +1585,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>5.99</v>
@@ -1452,16 +1627,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H7">
         <v>12.99</v>
@@ -1484,13 +1659,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>33</v>
@@ -1499,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>8.85</v>
@@ -1525,22 +1700,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1557,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">IF(OR(CELL("address")=CELL("address",A9),CELL("address")=CELL("address",B9),CELL("address")=CELL("address",C9),CELL("address")=CELL("address",D9),CELL("address")=CELL("address",E9),CELL("address")=CELL("address",F9),CELL("address")=CELL("address",G9),CELL("address")=CELL("address",H9),CELL("address")=CELL("address",I9)),NOW(),M9)</f>
@@ -1566,7 +1741,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1575,16 +1750,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>22.99</v>
@@ -1607,12 +1782,15 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="7">
@@ -1636,21 +1814,24 @@
         <v>6.99</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">IF(OR(CELL("address")=CELL("address",A11),CELL("address")=CELL("address",B11),CELL("address")=CELL("address",C11),CELL("address")=CELL("address",D11),CELL("address")=CELL("address",E11),CELL("address")=CELL("address",F11),CELL("address")=CELL("address",G11),CELL("address")=CELL("address",H11),CELL("address")=CELL("address",I11)),NOW(),M11)</f>
-        <v>45632.710953703703</v>
+        <v>45794.977847569447</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="7">
@@ -1676,24 +1857,27 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">IF(OR(CELL("address")=CELL("address",A12),CELL("address")=CELL("address",B12),CELL("address")=CELL("address",C12),CELL("address")=CELL("address",D12),CELL("address")=CELL("address",E12),CELL("address")=CELL("address",F12),CELL("address")=CELL("address",G12),CELL("address")=CELL("address",H12),CELL("address")=CELL("address",I12)),NOW(),M12)</f>
-        <v>45632.715627546298</v>
+        <v>45794.977792361111</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>6.99</v>
@@ -1716,19 +1900,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>6.99</v>
@@ -1751,19 +1938,22 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>41</v>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>7.99</v>
@@ -1786,13 +1976,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
+      <c r="D16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
@@ -1816,30 +2009,33 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">IF(OR(CELL("address")=CELL("address",A16),CELL("address")=CELL("address",B16),CELL("address")=CELL("address",C16),CELL("address")=CELL("address",D16),CELL("address")=CELL("address",E16),CELL("address")=CELL("address",F16),CELL("address")=CELL("address",G16),CELL("address")=CELL("address",H16),CELL("address")=CELL("address",I16)),NOW(),M16)</f>
-        <v>45761.423950462966</v>
+        <v>45794.570570717595</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>51</v>
+      <c r="A17" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="8">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="H17" s="12">
+        <v>7.79</v>
+      </c>
+      <c r="I17" s="12">
+        <v>20</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
@@ -1847,30 +2043,36 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>17.989999999999998</v>
+        <v>7.79</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">IF(OR(CELL("address")=CELL("address",A17),CELL("address")=CELL("address",B17),CELL("address")=CELL("address",C17),CELL("address")=CELL("address",D17),CELL("address")=CELL("address",E17),CELL("address")=CELL("address",F17),CELL("address")=CELL("address",G17),CELL("address")=CELL("address",H17),CELL("address")=CELL("address",I17)),NOW(),M17)</f>
-        <v>45646.897200347223</v>
+        <v>45794.571933912041</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="8">
+        <v>182</v>
+      </c>
+      <c r="H18" s="12">
         <v>7.99</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="12">
         <v>5</v>
       </c>
       <c r="J18" s="1">
@@ -1883,24 +2085,27 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">IF(OR(CELL("address")=CELL("address",A18),CELL("address")=CELL("address",B18),CELL("address")=CELL("address",C18),CELL("address")=CELL("address",D18),CELL("address")=CELL("address",E18),CELL("address")=CELL("address",F18),CELL("address")=CELL("address",G18),CELL("address")=CELL("address",H18),CELL("address")=CELL("address",I18)),NOW(),M18)</f>
-        <v>45684.364871527781</v>
+        <v>45794.746052199072</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19">
         <v>10.99</v>
@@ -1922,12 +2127,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>51</v>
+      <c r="A20" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
+      <c r="D20" t="s">
+        <v>286</v>
+      </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1952,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">IF(OR(CELL("address")=CELL("address",A20),CELL("address")=CELL("address",B20),CELL("address")=CELL("address",C20),CELL("address")=CELL("address",D20),CELL("address")=CELL("address",E20),CELL("address")=CELL("address",F20),CELL("address")=CELL("address",G20),CELL("address")=CELL("address",H20),CELL("address")=CELL("address",I20)),NOW(),M20)</f>
@@ -1961,22 +2169,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H21">
         <v>9.99</v>
@@ -1999,7 +2207,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2008,16 +2216,16 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H22">
         <v>9.89</v>
@@ -2040,22 +2248,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>8.99</v>
@@ -2078,17 +2286,20 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H24">
         <v>13.99</v>
@@ -2111,22 +2322,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H25">
         <v>15.99</v>
@@ -2144,12 +2355,12 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">IF(OR(CELL("address")=CELL("address",A25),CELL("address")=CELL("address",B25),CELL("address")=CELL("address",C25),CELL("address")=CELL("address",D25),CELL("address")=CELL("address",E25),CELL("address")=CELL("address",F25),CELL("address")=CELL("address",G25),CELL("address")=CELL("address",H25),CELL("address")=CELL("address",I25)),NOW(),M25)</f>
-        <v>45642.648439004632</v>
+        <v>45794.746116550923</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2158,16 +2369,16 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H26">
         <v>8.99</v>
@@ -2190,10 +2401,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2228,22 +2439,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H28">
         <v>67.989999999999995</v>
@@ -2266,22 +2477,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2290,15 +2501,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ref="J29:J45" si="10">ROUNDUP(F29/I29,0)</f>
+        <f t="shared" ref="J29:J42" si="10">ROUNDUP(F29/I29,0)</f>
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K45" si="11">J29*H29</f>
+        <f t="shared" ref="K29:K42" si="11">J29*H29</f>
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">IF(OR(CELL("address")=CELL("address",A29),CELL("address")=CELL("address",B29),CELL("address")=CELL("address",C29),CELL("address")=CELL("address",D29),CELL("address")=CELL("address",E29),CELL("address")=CELL("address",F29),CELL("address")=CELL("address",G29),CELL("address")=CELL("address",H29),CELL("address")=CELL("address",I29)),NOW(),M29)</f>
@@ -2307,22 +2518,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H30">
         <v>7.69</v>
@@ -2345,22 +2556,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2382,22 +2593,24 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>220</v>
+      <c r="G32" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="H32" s="6">
         <v>10.58</v>
@@ -2415,33 +2628,33 @@
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">IF(OR(CELL("address")=CELL("address",A32),CELL("address")=CELL("address",B32),CELL("address")=CELL("address",C32),CELL("address")=CELL("address",D32),CELL("address")=CELL("address",E32),CELL("address")=CELL("address",F32),CELL("address")=CELL("address",G32),CELL("address")=CELL("address",H32),CELL("address")=CELL("address",I32)),NOW(),M32)</f>
-        <v>45695.864631597222</v>
+        <v>45794.746517013889</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="E33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="6">
         <v>23.53</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="6">
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2458,24 +2671,29 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="H34">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="10"/>
@@ -2483,32 +2701,37 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">IF(OR(CELL("address")=CELL("address",A34),CELL("address")=CELL("address",B34),CELL("address")=CELL("address",C34),CELL("address")=CELL("address",D34),CELL("address")=CELL("address",E34),CELL("address")=CELL("address",F34),CELL("address")=CELL("address",G34),CELL("address")=CELL("address",H34),CELL("address")=CELL("address",I34)),NOW(),M34)</f>
-        <v>45695.863874537034</v>
+        <v>45696.724602314818</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H35">
-        <v>0</v>
+        <v>70.98</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="10"/>
@@ -2516,64 +2739,78 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>70.98</v>
+      </c>
+      <c r="L35" t="s">
+        <v>109</v>
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">IF(OR(CELL("address")=CELL("address",A35),CELL("address")=CELL("address",B35),CELL("address")=CELL("address",C35),CELL("address")=CELL("address",D35),CELL("address")=CELL("address",E35),CELL("address")=CELL("address",F35),CELL("address")=CELL("address",G35),CELL("address")=CELL("address",H35),CELL("address")=CELL("address",I35)),NOW(),M35)</f>
-        <v>45753.519040509258</v>
+        <v>45794.948679976849</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H36">
-        <v>0</v>
+        <v>13.76</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>27.52</v>
       </c>
       <c r="M36" s="3" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">IF(OR(CELL("address")=CELL("address",A36),CELL("address")=CELL("address",B36),CELL("address")=CELL("address",C36),CELL("address")=CELL("address",D36),CELL("address")=CELL("address",E36),CELL("address")=CELL("address",F36),CELL("address")=CELL("address",G36),CELL("address")=CELL("address",H36),CELL("address")=CELL("address",I36)),NOW(),M36)</f>
-        <v>45643.554728240742</v>
+        <v>45794.94740902778</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>115</v>
+        <v>11.6</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="H37">
-        <v>70.98</v>
+        <v>27.5</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="10"/>
@@ -2581,75 +2818,81 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="11"/>
-        <v>70.98</v>
-      </c>
-      <c r="L37" t="s">
-        <v>117</v>
+        <v>27.5</v>
+      </c>
+      <c r="L37">
+        <v>0.875</v>
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">IF(OR(CELL("address")=CELL("address",A37),CELL("address")=CELL("address",B37),CELL("address")=CELL("address",C37),CELL("address")=CELL("address",D37),CELL("address")=CELL("address",E37),CELL("address")=CELL("address",F37),CELL("address")=CELL("address",G37),CELL("address")=CELL("address",H37),CELL("address")=CELL("address",I37)),NOW(),M37)</f>
-        <v>45699.639610532409</v>
+        <v>45794.991633564816</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="H38">
-        <v>13.76</v>
+        <v>5.99</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="11"/>
-        <v>27.52</v>
+        <v>5.99</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">IF(OR(CELL("address")=CELL("address",A38),CELL("address")=CELL("address",B38),CELL("address")=CELL("address",C38),CELL("address")=CELL("address",D38),CELL("address")=CELL("address",E38),CELL("address")=CELL("address",F38),CELL("address")=CELL("address",G38),CELL("address")=CELL("address",H38),CELL("address")=CELL("address",I38)),NOW(),M38)</f>
-        <v>45643.547302430554</v>
+        <v>45699.639482407409</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39">
-        <v>11.6</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>233</v>
+        <v>2</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H39">
-        <v>21.55</v>
+        <v>5.98</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="10"/>
@@ -2657,110 +2900,119 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" si="11"/>
-        <v>21.55</v>
-      </c>
-      <c r="L39">
-        <v>0.875</v>
+        <v>5.98</v>
+      </c>
+      <c r="L39" t="s">
+        <v>61</v>
       </c>
       <c r="M39" s="3" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">IF(OR(CELL("address")=CELL("address",A39),CELL("address")=CELL("address",B39),CELL("address")=CELL("address",C39),CELL("address")=CELL("address",D39),CELL("address")=CELL("address",E39),CELL("address")=CELL("address",F39),CELL("address")=CELL("address",G39),CELL("address")=CELL("address",H39),CELL("address")=CELL("address",I39)),NOW(),M39)</f>
-        <v>45699.639320486109</v>
+        <v>45794.992589236113</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>228</v>
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H40">
-        <v>5.99</v>
+        <v>13.76</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="11"/>
-        <v>5.99</v>
-      </c>
-      <c r="L40" t="s">
-        <v>229</v>
+        <v>27.52</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">IF(OR(CELL("address")=CELL("address",A40),CELL("address")=CELL("address",B40),CELL("address")=CELL("address",C40),CELL("address")=CELL("address",D40),CELL("address")=CELL("address",E40),CELL("address")=CELL("address",F40),CELL("address")=CELL("address",G40),CELL("address")=CELL("address",H40),CELL("address")=CELL("address",I40)),NOW(),M40)</f>
-        <v>45699.639482407409</v>
+        <v>45699.639453356482</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>232</v>
+      <c r="G41" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="H41">
-        <v>9.99</v>
+        <v>5.01</v>
       </c>
       <c r="I41">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="11"/>
-        <v>9.99</v>
+        <v>10.02</v>
+      </c>
+      <c r="L41" t="s">
+        <v>60</v>
       </c>
       <c r="M41" s="3" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">IF(OR(CELL("address")=CELL("address",A41),CELL("address")=CELL("address",B41),CELL("address")=CELL("address",C41),CELL("address")=CELL("address",D41),CELL("address")=CELL("address",E41),CELL("address")=CELL("address",F41),CELL("address")=CELL("address",G41),CELL("address")=CELL("address",H41),CELL("address")=CELL("address",I41)),NOW(),M41)</f>
-        <v>45699.636229861113</v>
+        <v>45759.449647222224</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>227</v>
+        <v>4</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="H42">
-        <v>5.98</v>
+        <v>8.73</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="10"/>
@@ -2768,89 +3020,82 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="11"/>
-        <v>5.98</v>
-      </c>
-      <c r="L42" t="s">
-        <v>65</v>
+        <v>8.73</v>
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">IF(OR(CELL("address")=CELL("address",A42),CELL("address")=CELL("address",B42),CELL("address")=CELL("address",C42),CELL("address")=CELL("address",D42),CELL("address")=CELL("address",E42),CELL("address")=CELL("address",F42),CELL("address")=CELL("address",G42),CELL("address")=CELL("address",H42),CELL("address")=CELL("address",I42)),NOW(),M42)</f>
-        <v>45699.626026041668</v>
+        <v>45794.930470833337</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43">
-        <v>13.76</v>
-      </c>
-      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6">
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="J43:J44" si="16">ROUNDUP(F43/I43,0)</f>
+        <v>4</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="11"/>
-        <v>27.52</v>
+        <f t="shared" ref="K43:K44" si="17">J43*H43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>216</v>
       </c>
       <c r="M43" s="3" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">IF(OR(CELL("address")=CELL("address",A43),CELL("address")=CELL("address",B43),CELL("address")=CELL("address",C43),CELL("address")=CELL("address",D43),CELL("address")=CELL("address",E43),CELL("address")=CELL("address",F43),CELL("address")=CELL("address",G43),CELL("address")=CELL("address",H43),CELL("address")=CELL("address",I43)),NOW(),M43)</f>
-        <v>45699.639453356482</v>
+        <v>45795.009833217591</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="H44">
-        <v>5.01</v>
+        <v>10.99</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="11"/>
-        <v>10.02</v>
-      </c>
-      <c r="L44" t="s">
-        <v>64</v>
+        <f t="shared" si="17"/>
+        <v>10.99</v>
       </c>
       <c r="M44" s="3" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">IF(OR(CELL("address")=CELL("address",A44),CELL("address")=CELL("address",B44),CELL("address")=CELL("address",C44),CELL("address")=CELL("address",D44),CELL("address")=CELL("address",E44),CELL("address")=CELL("address",F44),CELL("address")=CELL("address",G44),CELL("address")=CELL("address",H44),CELL("address")=CELL("address",I44)),NOW(),M44)</f>
@@ -2858,303 +3103,350 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H45">
-        <v>8.73</v>
+        <v>7.99</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="10"/>
+        <f>ROUNDUP(F45/I45,0)</f>
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="11"/>
-        <v>8.73</v>
+        <f>J45*H45</f>
+        <v>7.99</v>
+      </c>
+      <c r="L45" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="3" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1">IF(OR(CELL("address")=CELL("address",A45),CELL("address")=CELL("address",B45),CELL("address")=CELL("address",C45),CELL("address")=CELL("address",D45),CELL("address")=CELL("address",E45),CELL("address")=CELL("address",F45),CELL("address")=CELL("address",G45),CELL("address")=CELL("address",H45),CELL("address")=CELL("address",I45)),NOW(),M45)</f>
+        <v>45794.917324652779</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" t="s">
-        <v>249</v>
+      <c r="G46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46">
+        <v>23.99</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <f>ROUNDUP(F46/I46,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <f>J46*H46</f>
+        <v>47.98</v>
+      </c>
+      <c r="M46" s="3" cm="1">
+        <f t="array" aca="1" ref="M46" ca="1">IF(OR(CELL("address")=CELL("address",A46),CELL("address")=CELL("address",B46),CELL("address")=CELL("address",C46),CELL("address")=CELL("address",D46),CELL("address")=CELL("address",E46),CELL("address")=CELL("address",F46),CELL("address")=CELL("address",G46),CELL("address")=CELL("address",H46),CELL("address")=CELL("address",I46)),NOW(),M46)</f>
+        <v>45794.914960069444</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H47">
-        <v>10.99</v>
+        <v>8.99</v>
       </c>
       <c r="I47">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="J47" s="1">
+        <f>ROUNDUP(F47/I47,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K47" s="1">
+        <f>J47*H47</f>
+        <v>62.93</v>
+      </c>
+      <c r="M47" s="3" cm="1">
+        <f t="array" aca="1" ref="M47" ca="1">IF(OR(CELL("address")=CELL("address",A47),CELL("address")=CELL("address",B47),CELL("address")=CELL("address",C47),CELL("address")=CELL("address",D47),CELL("address")=CELL("address",E47),CELL("address")=CELL("address",F47),CELL("address")=CELL("address",G47),CELL("address")=CELL("address",H47),CELL("address")=CELL("address",I47)),NOW(),M47)</f>
+        <v>45794.89084699074</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>2</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="H48">
-        <v>12.99</v>
+        <v>56.3</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" ref="J48:J70" si="16">ROUNDUP(F48/I48,0)</f>
-        <v>1</v>
+        <f t="shared" ref="J48:J67" si="18">ROUNDUP(F48/I48,0)</f>
+        <v>2</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K70" si="17">J48*H48</f>
-        <v>12.99</v>
-      </c>
-      <c r="L48" t="s">
-        <v>226</v>
+        <f t="shared" ref="K48:K67" si="19">J48*H48</f>
+        <v>112.6</v>
       </c>
       <c r="M48" s="3" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">IF(OR(CELL("address")=CELL("address",A48),CELL("address")=CELL("address",B48),CELL("address")=CELL("address",C48),CELL("address")=CELL("address",D48),CELL("address")=CELL("address",E48),CELL("address")=CELL("address",F48),CELL("address")=CELL("address",G48),CELL("address")=CELL("address",H48),CELL("address")=CELL("address",I48)),NOW(),M48)</f>
-        <v>45699.634174652776</v>
+        <v>45794.918360300922</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="H49">
-        <v>6.49</v>
+        <v>24.99</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J49" si="20">ROUNDUP(F49/I49,0)</f>
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="17"/>
-        <v>6.49</v>
+        <f t="shared" ref="K49" si="21">J49*H49</f>
+        <v>24.99</v>
       </c>
       <c r="M49" s="3" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">IF(OR(CELL("address")=CELL("address",A49),CELL("address")=CELL("address",B49),CELL("address")=CELL("address",C49),CELL("address")=CELL("address",D49),CELL("address")=CELL("address",E49),CELL("address")=CELL("address",F49),CELL("address")=CELL("address",G49),CELL("address")=CELL("address",H49),CELL("address")=CELL("address",I49)),NOW(),M49)</f>
-        <v>45699.635003124997</v>
+        <v>45794.918360300922</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="H50">
-        <v>3.29</v>
+        <v>8.99</v>
       </c>
       <c r="I50">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ref="J50" si="18">ROUNDUP(F50/I50,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" ref="K50" si="19">J50*H50</f>
-        <v>3.29</v>
+        <f t="shared" si="19"/>
+        <v>8.99</v>
       </c>
       <c r="M50" s="3" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">IF(OR(CELL("address")=CELL("address",A50),CELL("address")=CELL("address",B50),CELL("address")=CELL("address",C50),CELL("address")=CELL("address",D50),CELL("address")=CELL("address",E50),CELL("address")=CELL("address",F50),CELL("address")=CELL("address",G50),CELL("address")=CELL("address",H50),CELL("address")=CELL("address",I50)),NOW(),M50)</f>
-        <v>45699.612210416664</v>
+        <v>45794.573409143515</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>170</v>
+        <v>4</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="H51">
-        <v>56.3</v>
+        <v>9.99</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="17"/>
-        <v>112.6</v>
+        <f t="shared" si="19"/>
+        <v>9.99</v>
       </c>
       <c r="M51" s="3" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">IF(OR(CELL("address")=CELL("address",A51),CELL("address")=CELL("address",B51),CELL("address")=CELL("address",C51),CELL("address")=CELL("address",D51),CELL("address")=CELL("address",E51),CELL("address")=CELL("address",F51),CELL("address")=CELL("address",G51),CELL("address")=CELL("address",H51),CELL("address")=CELL("address",I51)),NOW(),M51)</f>
-        <v>45661.894348032409</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>186</v>
+      <c r="G52" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" ref="J52" si="20">ROUNDUP(F52/I52,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K52" s="1">
-        <f>J52*H52</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>12.29</v>
       </c>
       <c r="M52" s="3" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">IF(OR(CELL("address")=CELL("address",A52),CELL("address")=CELL("address",B52),CELL("address")=CELL("address",C52),CELL("address")=CELL("address",D52),CELL("address")=CELL("address",E52),CELL("address")=CELL("address",F52),CELL("address")=CELL("address",G52),CELL("address")=CELL("address",H52),CELL("address")=CELL("address",I52)),NOW(),M52)</f>
-        <v>45661.897377546295</v>
+        <v>45661.896769675928</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>157</v>
+      <c r="G53" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="H53">
-        <v>8.99</v>
+        <v>8.19</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="17"/>
-        <v>8.99</v>
+        <f t="shared" si="19"/>
+        <v>8.19</v>
       </c>
       <c r="M53" s="3" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">IF(OR(CELL("address")=CELL("address",A53),CELL("address")=CELL("address",B53),CELL("address")=CELL("address",C53),CELL("address")=CELL("address",D53),CELL("address")=CELL("address",E53),CELL("address")=CELL("address",F53),CELL("address")=CELL("address",G53),CELL("address")=CELL("address",H53),CELL("address")=CELL("address",I53)),NOW(),M53)</f>
@@ -3163,36 +3455,36 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>171</v>
+        <v>8</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="H54">
-        <v>9.99</v>
+        <v>16.91</v>
       </c>
       <c r="I54">
         <v>10</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="17"/>
-        <v>9.99</v>
+        <f t="shared" si="19"/>
+        <v>16.91</v>
+      </c>
+      <c r="L54" t="s">
+        <v>164</v>
       </c>
       <c r="M54" s="3" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">IF(OR(CELL("address")=CELL("address",A54),CELL("address")=CELL("address",B54),CELL("address")=CELL("address",C54),CELL("address")=CELL("address",D54),CELL("address")=CELL("address",E54),CELL("address")=CELL("address",F54),CELL("address")=CELL("address",G54),CELL("address")=CELL("address",H54),CELL("address")=CELL("address",I54)),NOW(),M54)</f>
@@ -3201,256 +3493,256 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55">
+        <v>12.88</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55">
-        <v>12.29</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="K55" s="1">
-        <f t="shared" si="17"/>
-        <v>12.29</v>
+        <f t="shared" si="19"/>
+        <v>25.76</v>
       </c>
       <c r="M55" s="3" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">IF(OR(CELL("address")=CELL("address",A55),CELL("address")=CELL("address",B55),CELL("address")=CELL("address",C55),CELL("address")=CELL("address",D55),CELL("address")=CELL("address",E55),CELL("address")=CELL("address",F55),CELL("address")=CELL("address",G55),CELL("address")=CELL("address",H55),CELL("address")=CELL("address",I55)),NOW(),M55)</f>
-        <v>45661.896769675928</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>190</v>
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="H56">
-        <v>8.19</v>
+        <v>9.99</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="17"/>
-        <v>8.19</v>
+        <f t="shared" si="19"/>
+        <v>39.96</v>
+      </c>
+      <c r="L56" t="s">
+        <v>189</v>
       </c>
       <c r="M56" s="3" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">IF(OR(CELL("address")=CELL("address",A56),CELL("address")=CELL("address",B56),CELL("address")=CELL("address",C56),CELL("address")=CELL("address",D56),CELL("address")=CELL("address",E56),CELL("address")=CELL("address",F56),CELL("address")=CELL("address",G56),CELL("address")=CELL("address",H56),CELL("address")=CELL("address",I56)),NOW(),M56)</f>
-        <v>45646.883798726849</v>
+        <v>45795.01019872685</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>165</v>
+      <c r="G57" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="H57">
-        <v>16.91</v>
+        <v>12.49</v>
       </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J57:J63" si="22">ROUNDUP(F57/I57,0)</f>
         <v>1</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="17"/>
-        <v>16.91</v>
+        <f t="shared" ref="K57:K63" si="23">J57*H57</f>
+        <v>12.49</v>
       </c>
       <c r="L57" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M57" s="3" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">IF(OR(CELL("address")=CELL("address",A57),CELL("address")=CELL("address",B57),CELL("address")=CELL("address",C57),CELL("address")=CELL("address",D57),CELL("address")=CELL("address",E57),CELL("address")=CELL("address",F57),CELL("address")=CELL("address",G57),CELL("address")=CELL("address",H57),CELL("address")=CELL("address",I57)),NOW(),M57)</f>
-        <v>45646.883798726849</v>
+        <v>45661.891742361113</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F58">
-        <v>20</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H58">
-        <v>12.88</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="17"/>
-        <v>25.76</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="M58" s="3" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">IF(OR(CELL("address")=CELL("address",A58),CELL("address")=CELL("address",B58),CELL("address")=CELL("address",C58),CELL("address")=CELL("address",D58),CELL("address")=CELL("address",E58),CELL("address")=CELL("address",F58),CELL("address")=CELL("address",G58),CELL("address")=CELL("address",H58),CELL("address")=CELL("address",I58)),NOW(),M58)</f>
-        <v>45646.883798726849</v>
+        <v>45661.895691898149</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F59">
-        <v>8</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="H59">
-        <v>9.99</v>
+        <v>17.59</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="17"/>
-        <v>79.92</v>
-      </c>
-      <c r="L59" t="s">
-        <v>206</v>
+        <f t="shared" si="23"/>
+        <v>17.59</v>
       </c>
       <c r="M59" s="3" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">IF(OR(CELL("address")=CELL("address",A59),CELL("address")=CELL("address",B59),CELL("address")=CELL("address",C59),CELL("address")=CELL("address",D59),CELL("address")=CELL("address",E59),CELL("address")=CELL("address",F59),CELL("address")=CELL("address",G59),CELL("address")=CELL("address",H59),CELL("address")=CELL("address",I59)),NOW(),M59)</f>
-        <v>45661.890449305552</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>208</v>
+        <v>2</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="H60">
-        <v>12.49</v>
+        <v>6.69</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" ref="J60:J66" si="21">ROUNDUP(F60/I60,0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" ref="K60:K66" si="22">J60*H60</f>
-        <v>12.49</v>
-      </c>
-      <c r="L60" t="s">
-        <v>209</v>
+        <f t="shared" si="23"/>
+        <v>6.69</v>
       </c>
       <c r="M60" s="3" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">IF(OR(CELL("address")=CELL("address",A60),CELL("address")=CELL("address",B60),CELL("address")=CELL("address",C60),CELL("address")=CELL("address",D60),CELL("address")=CELL("address",E60),CELL("address")=CELL("address",F60),CELL("address")=CELL("address",G60),CELL("address")=CELL("address",H60),CELL("address")=CELL("address",I60)),NOW(),M60)</f>
-        <v>45661.891742361113</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
-        <v>71</v>
+      <c r="A61" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3459,320 +3751,323 @@
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M61" s="3" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">IF(OR(CELL("address")=CELL("address",A61),CELL("address")=CELL("address",B61),CELL("address")=CELL("address",C61),CELL("address")=CELL("address",D61),CELL("address")=CELL("address",E61),CELL("address")=CELL("address",F61),CELL("address")=CELL("address",G61),CELL("address")=CELL("address",H61),CELL("address")=CELL("address",I61)),NOW(),M61)</f>
-        <v>45661.895691898149</v>
+        <v>45795.010351851852</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>51</v>
+      <c r="A62" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>175</v>
+      <c r="G62" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H62">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="J62" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
       <c r="K62" s="1">
-        <f t="shared" si="22"/>
-        <v>17.59</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="M62" s="3" cm="1">
         <f t="array" aca="1" ref="M62" ca="1">IF(OR(CELL("address")=CELL("address",A62),CELL("address")=CELL("address",B62),CELL("address")=CELL("address",C62),CELL("address")=CELL("address",D62),CELL("address")=CELL("address",E62),CELL("address")=CELL("address",F62),CELL("address")=CELL("address",G62),CELL("address")=CELL("address",H62),CELL("address")=CELL("address",I62)),NOW(),M62)</f>
-        <v>45646.883798726849</v>
+        <v>45795.010864004631</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>180</v>
+        <v>4</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>6.69</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="22"/>
-        <v>6.69</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="M63" s="3" cm="1">
         <f t="array" aca="1" ref="M63" ca="1">IF(OR(CELL("address")=CELL("address",A63),CELL("address")=CELL("address",B63),CELL("address")=CELL("address",C63),CELL("address")=CELL("address",D63),CELL("address")=CELL("address",E63),CELL("address")=CELL("address",F63),CELL("address")=CELL("address",G63),CELL("address")=CELL("address",H63),CELL("address")=CELL("address",I63)),NOW(),M63)</f>
-        <v>45646.883798726849</v>
+        <v>45646.897749305557</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
-        <v>51</v>
+      <c r="A64" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="H64">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>27.26</v>
       </c>
       <c r="M64" s="3" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">IF(OR(CELL("address")=CELL("address",A64),CELL("address")=CELL("address",B64),CELL("address")=CELL("address",C64),CELL("address")=CELL("address",D64),CELL("address")=CELL("address",E64),CELL("address")=CELL("address",F64),CELL("address")=CELL("address",G64),CELL("address")=CELL("address",H64),CELL("address")=CELL("address",I64)),NOW(),M64)</f>
-        <v>45661.895854629627</v>
+        <v>45661.896488078703</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>187</v>
+      <c r="A65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M65" s="3" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">IF(OR(CELL("address")=CELL("address",A65),CELL("address")=CELL("address",B65),CELL("address")=CELL("address",C65),CELL("address")=CELL("address",D65),CELL("address")=CELL("address",E65),CELL("address")=CELL("address",F65),CELL("address")=CELL("address",G65),CELL("address")=CELL("address",H65),CELL("address")=CELL("address",I65)),NOW(),M65)</f>
-        <v>45661.895897569448</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>50</v>
+      <c r="G66" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>60.97</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>243.88</v>
       </c>
       <c r="M66" s="3" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">IF(OR(CELL("address")=CELL("address",A66),CELL("address")=CELL("address",B66),CELL("address")=CELL("address",C66),CELL("address")=CELL("address",D66),CELL("address")=CELL("address",E66),CELL("address")=CELL("address",F66),CELL("address")=CELL("address",G66),CELL("address")=CELL("address",H66),CELL("address")=CELL("address",I66)),NOW(),M66)</f>
-        <v>45646.897749305557</v>
+        <v>45646.883798726849</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A67" s="6" t="s">
-        <v>51</v>
+      <c r="A67" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <f>8*4</f>
+        <v>32</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="H67">
-        <v>13.63</v>
+        <v>9.69</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="17"/>
-        <v>27.26</v>
+        <f t="shared" si="19"/>
+        <v>9.69</v>
       </c>
       <c r="M67" s="3" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">IF(OR(CELL("address")=CELL("address",A67),CELL("address")=CELL("address",B67),CELL("address")=CELL("address",C67),CELL("address")=CELL("address",D67),CELL("address")=CELL("address",E67),CELL("address")=CELL("address",F67),CELL("address")=CELL("address",G67),CELL("address")=CELL("address",H67),CELL("address")=CELL("address",I67)),NOW(),M67)</f>
-        <v>45661.896488078703</v>
+        <v>45794.749220138889</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>129</v>
+        <v>180</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="H68">
-        <v>8.2899999999999991</v>
+        <v>6.99</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J68" si="24">ROUNDUP(F68/I68,0)</f>
         <v>1</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="17"/>
-        <v>8.2899999999999991</v>
+        <f t="shared" ref="K68" si="25">J68*H68</f>
+        <v>6.99</v>
       </c>
       <c r="M68" s="3" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">IF(OR(CELL("address")=CELL("address",A68),CELL("address")=CELL("address",B68),CELL("address")=CELL("address",C68),CELL("address")=CELL("address",D68),CELL("address")=CELL("address",E68),CELL("address")=CELL("address",F68),CELL("address")=CELL("address",G68),CELL("address")=CELL("address",H68),CELL("address")=CELL("address",I68)),NOW(),M68)</f>
-        <v>45646.883798726849</v>
+        <v>45794.878334374996</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="H69">
-        <v>60.97</v>
+        <v>9.99</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f>ROUNDUP(F69/I69,0)</f>
+        <v>2</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="17"/>
-        <v>243.88</v>
+        <f>J69*H69</f>
+        <v>19.98</v>
       </c>
       <c r="M69" s="3" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">IF(OR(CELL("address")=CELL("address",A69),CELL("address")=CELL("address",B69),CELL("address")=CELL("address",C69),CELL("address")=CELL("address",D69),CELL("address")=CELL("address",E69),CELL("address")=CELL("address",F69),CELL("address")=CELL("address",G69),CELL("address")=CELL("address",H69),CELL("address")=CELL("address",I69)),NOW(),M69)</f>
@@ -3780,231 +4075,266 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A70" s="6" t="s">
-        <v>51</v>
+      <c r="A70" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>141</v>
+        <v>180</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="F70">
-        <f>8*4</f>
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>243</v>
+        <v>8</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="H70">
-        <v>9.49</v>
+        <v>3.3</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f>ROUNDUP(F70/I70,0)</f>
+        <v>8</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="17"/>
-        <v>18.98</v>
+        <f>J70*H70</f>
+        <v>26.4</v>
       </c>
       <c r="M70" s="3" cm="1">
         <f t="array" aca="1" ref="M70" ca="1">IF(OR(CELL("address")=CELL("address",A70),CELL("address")=CELL("address",B70),CELL("address")=CELL("address",C70),CELL("address")=CELL("address",D70),CELL("address")=CELL("address",E70),CELL("address")=CELL("address",F70),CELL("address")=CELL("address",G70),CELL("address")=CELL("address",H70),CELL("address")=CELL("address",I70)),NOW(),M70)</f>
-        <v>45699.663689583336</v>
+        <v>45699.641425578702</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="A71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71">
+        <v>7.99</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" ref="J71:J119" si="26">ROUNDUP(F71/I71,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" ref="K71:K119" si="27">J71*H71</f>
+        <v>7.99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>106</v>
+      </c>
+      <c r="M71" s="3" cm="1">
+        <f t="array" aca="1" ref="M71" ca="1">IF(OR(CELL("address")=CELL("address",A71),CELL("address")=CELL("address",B71),CELL("address")=CELL("address",C71),CELL("address")=CELL("address",D71),CELL("address")=CELL("address",E71),CELL("address")=CELL("address",F71),CELL("address")=CELL("address",G71),CELL("address")=CELL("address",H71),CELL("address")=CELL("address",I71)),NOW(),M71)</f>
+        <v>45794.878587500003</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
-        <v>51</v>
+      <c r="A72" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="H72">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" s="1">
-        <f>ROUNDUP(F72/I72,0)</f>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <f>J72*H72</f>
-        <v>19.98</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="M72" s="3" cm="1">
         <f t="array" aca="1" ref="M72" ca="1">IF(OR(CELL("address")=CELL("address",A72),CELL("address")=CELL("address",B72),CELL("address")=CELL("address",C72),CELL("address")=CELL("address",D72),CELL("address")=CELL("address",E72),CELL("address")=CELL("address",F72),CELL("address")=CELL("address",G72),CELL("address")=CELL("address",H72),CELL("address")=CELL("address",I72)),NOW(),M72)</f>
-        <v>45646.883798726849</v>
+        <v>45794.878587500003</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>51</v>
+      <c r="A73" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>155</v>
+        <v>195</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="H73">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1">
-        <f>ROUNDUP(F73/I73,0)</f>
-        <v>8</v>
+        <f t="shared" ref="J73" si="28">ROUNDUP(F73/I73,0)</f>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <f>J73*H73</f>
-        <v>26.4</v>
+        <f t="shared" ref="K73" si="29">J73*H73</f>
+        <v>0</v>
       </c>
       <c r="M73" s="3" cm="1">
         <f t="array" aca="1" ref="M73" ca="1">IF(OR(CELL("address")=CELL("address",A73),CELL("address")=CELL("address",B73),CELL("address")=CELL("address",C73),CELL("address")=CELL("address",D73),CELL("address")=CELL("address",E73),CELL("address")=CELL("address",F73),CELL("address")=CELL("address",G73),CELL("address")=CELL("address",H73),CELL("address")=CELL("address",I73)),NOW(),M73)</f>
-        <v>45699.641425578702</v>
+        <v>45794.761007754627</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="H74">
-        <v>7.99</v>
+        <v>8.39</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" ref="J74:J102" si="23">ROUNDUP(F74/I74,0)</f>
+        <f>ROUNDUP(F74/I74,0)</f>
         <v>1</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" ref="K74:K102" si="24">J74*H74</f>
-        <v>7.99</v>
-      </c>
-      <c r="L74" t="s">
-        <v>114</v>
+        <f>J74*H74</f>
+        <v>8.39</v>
       </c>
       <c r="M74" s="3" cm="1">
         <f t="array" aca="1" ref="M74" ca="1">IF(OR(CELL("address")=CELL("address",A74),CELL("address")=CELL("address",B74),CELL("address")=CELL("address",C74),CELL("address")=CELL("address",D74),CELL("address")=CELL("address",E74),CELL("address")=CELL("address",F74),CELL("address")=CELL("address",G74),CELL("address")=CELL("address",H74),CELL("address")=CELL("address",I74)),NOW(),M74)</f>
-        <v>45663.843663425927</v>
+        <v>45661.897263078703</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="J75" s="1">
-        <f t="shared" ref="J75" si="25">ROUNDUP(F75/I75,0)</f>
-        <v>1</v>
-      </c>
       <c r="K75" s="1">
-        <f t="shared" ref="K75" si="26">J75*H75</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>37.979999999999997</v>
       </c>
       <c r="M75" s="3" cm="1">
         <f t="array" aca="1" ref="M75" ca="1">IF(OR(CELL("address")=CELL("address",A75),CELL("address")=CELL("address",B75),CELL("address")=CELL("address",C75),CELL("address")=CELL("address",D75),CELL("address")=CELL("address",E75),CELL("address")=CELL("address",F75),CELL("address")=CELL("address",G75),CELL("address")=CELL("address",H75),CELL("address")=CELL("address",I75)),NOW(),M75)</f>
-        <v>45661.897208796297</v>
+        <v>45795.005495370373</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="H76">
-        <v>8.39</v>
+        <v>5.59</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J76" s="1">
         <f>ROUNDUP(F76/I76,0)</f>
@@ -4012,1041 +4342,1746 @@
       </c>
       <c r="K76" s="1">
         <f>J76*H76</f>
-        <v>8.39</v>
+        <v>5.59</v>
       </c>
       <c r="M76" s="3" cm="1">
         <f t="array" aca="1" ref="M76" ca="1">IF(OR(CELL("address")=CELL("address",A76),CELL("address")=CELL("address",B76),CELL("address")=CELL("address",C76),CELL("address")=CELL("address",D76),CELL("address")=CELL("address",E76),CELL("address")=CELL("address",F76),CELL("address")=CELL("address",G76),CELL("address")=CELL("address",H76),CELL("address")=CELL("address",I76)),NOW(),M76)</f>
-        <v>45661.897263078703</v>
+        <v>45794.759724768519</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="H77">
-        <v>18.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" ref="J77:J79" si="30">ROUNDUP(F77/I77,0)</f>
+        <v>4</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="24"/>
-        <v>37.979999999999997</v>
+        <f t="shared" ref="K77:K79" si="31">J77*H77</f>
+        <v>39.96</v>
       </c>
       <c r="M77" s="3" cm="1">
         <f t="array" aca="1" ref="M77" ca="1">IF(OR(CELL("address")=CELL("address",A77),CELL("address")=CELL("address",B77),CELL("address")=CELL("address",C77),CELL("address")=CELL("address",D77),CELL("address")=CELL("address",E77),CELL("address")=CELL("address",F77),CELL("address")=CELL("address",G77),CELL("address")=CELL("address",H77),CELL("address")=CELL("address",I77)),NOW(),M77)</f>
-        <v>45661.893043518518</v>
+        <v>45794.941684722224</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
-        <v>187</v>
+      <c r="A78" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78">
+        <v>6.85</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="31"/>
+        <v>6.85</v>
+      </c>
+      <c r="M78" s="3" cm="1">
+        <f t="array" aca="1" ref="M78" ca="1">IF(OR(CELL("address")=CELL("address",A78),CELL("address")=CELL("address",B78),CELL("address")=CELL("address",C78),CELL("address")=CELL("address",D78),CELL("address")=CELL("address",E78),CELL("address")=CELL("address",F78),CELL("address")=CELL("address",G78),CELL("address")=CELL("address",H78),CELL("address")=CELL("address",I78)),NOW(),M78)</f>
+        <v>45794.900951041665</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>187</v>
+      <c r="A79" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H79">
+        <v>31.18</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="31"/>
+        <v>31.18</v>
+      </c>
+      <c r="M79" s="3" cm="1">
+        <f t="array" aca="1" ref="M79" ca="1">IF(OR(CELL("address")=CELL("address",A79),CELL("address")=CELL("address",B79),CELL("address")=CELL("address",C79),CELL("address")=CELL("address",D79),CELL("address")=CELL("address",E79),CELL("address")=CELL("address",F79),CELL("address")=CELL("address",G79),CELL("address")=CELL("address",H79),CELL("address")=CELL("address",I79)),NOW(),M79)</f>
+        <v>45794.879682870371</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
-        <v>187</v>
+      <c r="A80" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H80">
+        <v>6.99</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" ref="J80:J85" si="32">ROUNDUP(F80/I80,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" ref="K80:K85" si="33">J80*H80</f>
+        <v>6.99</v>
+      </c>
+      <c r="M80" s="3" cm="1">
+        <f t="array" aca="1" ref="M80" ca="1">IF(OR(CELL("address")=CELL("address",A80),CELL("address")=CELL("address",B80),CELL("address")=CELL("address",C80),CELL("address")=CELL("address",D80),CELL("address")=CELL("address",E80),CELL("address")=CELL("address",F80),CELL("address")=CELL("address",G80),CELL("address")=CELL("address",H80),CELL("address")=CELL("address",I80)),NOW(),M80)</f>
+        <v>45795.000866319446</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>51</v>
+      <c r="A81" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F81">
-        <v>16</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H81">
+        <v>8.49</v>
+      </c>
       <c r="I81">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="33"/>
+        <v>16.98</v>
+      </c>
+      <c r="M81" s="3" cm="1">
+        <f t="array" aca="1" ref="M81" ca="1">IF(OR(CELL("address")=CELL("address",A81),CELL("address")=CELL("address",B81),CELL("address")=CELL("address",C81),CELL("address")=CELL("address",D81),CELL("address")=CELL("address",E81),CELL("address")=CELL("address",F81),CELL("address")=CELL("address",G81),CELL("address")=CELL("address",H81),CELL("address")=CELL("address",I81)),NOW(),M81)</f>
+        <v>45794.934243055555</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
-        <v>51</v>
+      <c r="A82" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>239</v>
+        <v>273</v>
+      </c>
+      <c r="H82">
+        <v>13.99</v>
       </c>
       <c r="I82">
-        <v>50</v>
-      </c>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="33"/>
+        <v>13.99</v>
+      </c>
+      <c r="M82" s="3" cm="1">
+        <f t="array" aca="1" ref="M82" ca="1">IF(OR(CELL("address")=CELL("address",A82),CELL("address")=CELL("address",B82),CELL("address")=CELL("address",C82),CELL("address")=CELL("address",D82),CELL("address")=CELL("address",E82),CELL("address")=CELL("address",F82),CELL("address")=CELL("address",G82),CELL("address")=CELL("address",H82),CELL("address")=CELL("address",I82)),NOW(),M82)</f>
+        <v>45794.934243055555</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>51</v>
+      <c r="A83" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H83">
+        <v>26.99</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="33"/>
+        <v>26.99</v>
+      </c>
+      <c r="M83" s="3" cm="1">
+        <f t="array" aca="1" ref="M83" ca="1">IF(OR(CELL("address")=CELL("address",A83),CELL("address")=CELL("address",B83),CELL("address")=CELL("address",C83),CELL("address")=CELL("address",D83),CELL("address")=CELL("address",E83),CELL("address")=CELL("address",F83),CELL("address")=CELL("address",G83),CELL("address")=CELL("address",H83),CELL("address")=CELL("address",I83)),NOW(),M83)</f>
+        <v>45794.934243055555</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" t="s">
+        <v>284</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="H84">
-        <v>12.99</v>
+        <v>28.9</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="27">ROUNDUP(F84/I84,0)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="28">J84*H84</f>
-        <v>12.99</v>
-      </c>
-      <c r="L84" t="s">
-        <v>192</v>
+        <f t="shared" si="33"/>
+        <v>28.9</v>
       </c>
       <c r="M84" s="3" cm="1">
         <f t="array" aca="1" ref="M84" ca="1">IF(OR(CELL("address")=CELL("address",A84),CELL("address")=CELL("address",B84),CELL("address")=CELL("address",C84),CELL("address")=CELL("address",D84),CELL("address")=CELL("address",E84),CELL("address")=CELL("address",F84),CELL("address")=CELL("address",G84),CELL("address")=CELL("address",H84),CELL("address")=CELL("address",I84)),NOW(),M84)</f>
-        <v>45760.443062500002</v>
+        <v>45794.998487847224</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
+        <v>299</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="H85">
-        <v>9.99</v>
+        <v>40</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="24"/>
-        <v>9.99</v>
+        <f t="shared" si="33"/>
+        <v>40</v>
       </c>
       <c r="M85" s="3" cm="1">
         <f t="array" aca="1" ref="M85" ca="1">IF(OR(CELL("address")=CELL("address",A85),CELL("address")=CELL("address",B85),CELL("address")=CELL("address",C85),CELL("address")=CELL("address",D85),CELL("address")=CELL("address",E85),CELL("address")=CELL("address",F85),CELL("address")=CELL("address",G85),CELL("address")=CELL("address",H85),CELL("address")=CELL("address",I85)),NOW(),M85)</f>
-        <v>45643.558642013886</v>
+        <v>45794.998487847224</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>252</v>
+      </c>
+      <c r="D86" t="s">
+        <v>299</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="H86">
-        <v>16.989999999999998</v>
+        <v>22</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" ref="J86" si="34">ROUNDUP(F86/I86,0)</f>
+        <v>5</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="24"/>
-        <v>16.989999999999998</v>
+        <f t="shared" ref="K86" si="35">J86*H86</f>
+        <v>110</v>
       </c>
       <c r="M86" s="3" cm="1">
         <f t="array" aca="1" ref="M86" ca="1">IF(OR(CELL("address")=CELL("address",A86),CELL("address")=CELL("address",B86),CELL("address")=CELL("address",C86),CELL("address")=CELL("address",D86),CELL("address")=CELL("address",E86),CELL("address")=CELL("address",F86),CELL("address")=CELL("address",G86),CELL("address")=CELL("address",H86),CELL("address")=CELL("address",I86)),NOW(),M86)</f>
-        <v>45642.601836689813</v>
+        <v>45794.998487847224</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>36.950000000000003</v>
+        <v>12.99</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="J87" si="36">ROUNDUP(F87/I87,0)</f>
         <v>1</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="24"/>
-        <v>36.950000000000003</v>
+        <f t="shared" ref="K87" si="37">J87*H87</f>
+        <v>12.99</v>
+      </c>
+      <c r="L87" t="s">
+        <v>183</v>
       </c>
       <c r="M87" s="3" cm="1">
         <f t="array" aca="1" ref="M87" ca="1">IF(OR(CELL("address")=CELL("address",A87),CELL("address")=CELL("address",B87),CELL("address")=CELL("address",C87),CELL("address")=CELL("address",D87),CELL("address")=CELL("address",E87),CELL("address")=CELL("address",F87),CELL("address")=CELL("address",G87),CELL("address")=CELL("address",H87),CELL("address")=CELL("address",I87)),NOW(),M87)</f>
-        <v>45643.708739930553</v>
+        <v>45795.012799074073</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
+      <c r="G88" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H88">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>9.99</v>
       </c>
       <c r="M88" s="3" cm="1">
         <f t="array" aca="1" ref="M88" ca="1">IF(OR(CELL("address")=CELL("address",A88),CELL("address")=CELL("address",B88),CELL("address")=CELL("address",C88),CELL("address")=CELL("address",D88),CELL("address")=CELL("address",E88),CELL("address")=CELL("address",F88),CELL("address")=CELL("address",G88),CELL("address")=CELL("address",H88),CELL("address")=CELL("address",I88)),NOW(),M88)</f>
-        <v>45643.451515856483</v>
+        <v>45795.005366666664</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
-      </c>
-      <c r="D89" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H89">
-        <v>70.5</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="24"/>
-        <v>70.5</v>
+        <f t="shared" si="27"/>
+        <v>16.989999999999998</v>
       </c>
       <c r="M89" s="3" cm="1">
         <f t="array" aca="1" ref="M89" ca="1">IF(OR(CELL("address")=CELL("address",A89),CELL("address")=CELL("address",B89),CELL("address")=CELL("address",C89),CELL("address")=CELL("address",D89),CELL("address")=CELL("address",E89),CELL("address")=CELL("address",F89),CELL("address")=CELL("address",G89),CELL("address")=CELL("address",H89),CELL("address")=CELL("address",I89)),NOW(),M89)</f>
-        <v>45643.709317013891</v>
+        <v>45794.895426273149</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="H90">
-        <v>8.98</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="24"/>
-        <v>8.98</v>
+        <f t="shared" si="27"/>
+        <v>36.950000000000003</v>
       </c>
       <c r="M90" s="3" cm="1">
         <f t="array" aca="1" ref="M90" ca="1">IF(OR(CELL("address")=CELL("address",A90),CELL("address")=CELL("address",B90),CELL("address")=CELL("address",C90),CELL("address")=CELL("address",D90),CELL("address")=CELL("address",E90),CELL("address")=CELL("address",F90),CELL("address")=CELL("address",G90),CELL("address")=CELL("address",H90),CELL("address")=CELL("address",I90)),NOW(),M90)</f>
-        <v>45643.709466666667</v>
+        <v>45795.005954282409</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="H91">
-        <v>33.92</v>
+        <v>13.99</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="24"/>
-        <v>33.92</v>
-      </c>
-      <c r="L91" t="s">
-        <v>104</v>
+        <f t="shared" si="27"/>
+        <v>13.99</v>
       </c>
       <c r="M91" s="3" cm="1">
         <f t="array" aca="1" ref="M91" ca="1">IF(OR(CELL("address")=CELL("address",A91),CELL("address")=CELL("address",B91),CELL("address")=CELL("address",C91),CELL("address")=CELL("address",D91),CELL("address")=CELL("address",E91),CELL("address")=CELL("address",F91),CELL("address")=CELL("address",G91),CELL("address")=CELL("address",H91),CELL("address")=CELL("address",I91)),NOW(),M91)</f>
-        <v>45642.605838310184</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H92">
-        <v>15.99</v>
+        <v>7.99</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="24"/>
-        <v>15.99</v>
+        <f t="shared" si="27"/>
+        <v>7.99</v>
       </c>
       <c r="M92" s="3" cm="1">
         <f t="array" aca="1" ref="M92" ca="1">IF(OR(CELL("address")=CELL("address",A92),CELL("address")=CELL("address",B92),CELL("address")=CELL("address",C92),CELL("address")=CELL("address",D92),CELL("address")=CELL("address",E92),CELL("address")=CELL("address",F92),CELL("address")=CELL("address",G92),CELL("address")=CELL("address",H92),CELL("address")=CELL("address",I92)),NOW(),M92)</f>
-        <v>45643.709010995372</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="H93">
-        <v>18</v>
+        <v>9.99</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="24"/>
-        <v>18</v>
+        <f t="shared" si="27"/>
+        <v>9.99</v>
       </c>
       <c r="M93" s="3" cm="1">
         <f t="array" aca="1" ref="M93" ca="1">IF(OR(CELL("address")=CELL("address",A93),CELL("address")=CELL("address",B93),CELL("address")=CELL("address",C93),CELL("address")=CELL("address",D93),CELL("address")=CELL("address",E93),CELL("address")=CELL("address",F93),CELL("address")=CELL("address",G93),CELL("address")=CELL("address",H93),CELL("address")=CELL("address",I93)),NOW(),M93)</f>
-        <v>45737.921368981479</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
       <c r="E94" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H94">
+        <v>4.99</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="27"/>
+        <v>4.99</v>
+      </c>
+      <c r="M94" s="3" cm="1">
+        <f t="array" aca="1" ref="M94" ca="1">IF(OR(CELL("address")=CELL("address",A94),CELL("address")=CELL("address",B94),CELL("address")=CELL("address",C94),CELL("address")=CELL("address",D94),CELL("address")=CELL("address",E94),CELL("address")=CELL("address",F94),CELL("address")=CELL("address",G94),CELL("address")=CELL("address",H94),CELL("address")=CELL("address",I94)),NOW(),M94)</f>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="H95">
-        <v>16.989999999999998</v>
+        <v>18.98</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="24"/>
-        <v>16.989999999999998</v>
+        <f t="shared" si="27"/>
+        <v>18.98</v>
       </c>
       <c r="M95" s="3" cm="1">
         <f t="array" aca="1" ref="M95" ca="1">IF(OR(CELL("address")=CELL("address",A95),CELL("address")=CELL("address",B95),CELL("address")=CELL("address",C95),CELL("address")=CELL("address",D95),CELL("address")=CELL("address",E95),CELL("address")=CELL("address",F95),CELL("address")=CELL("address",G95),CELL("address")=CELL("address",H95),CELL("address")=CELL("address",I95)),NOW(),M95)</f>
-        <v>45663.844828240741</v>
+        <v>45795.013092476853</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="H96">
-        <v>22.99</v>
+        <v>9.99</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="24"/>
-        <v>22.99</v>
+        <f t="shared" si="27"/>
+        <v>9.99</v>
       </c>
       <c r="M96" s="3" cm="1">
         <f t="array" aca="1" ref="M96" ca="1">IF(OR(CELL("address")=CELL("address",A96),CELL("address")=CELL("address",B96),CELL("address")=CELL("address",C96),CELL("address")=CELL("address",D96),CELL("address")=CELL("address",E96),CELL("address")=CELL("address",F96),CELL("address")=CELL("address",G96),CELL("address")=CELL("address",H96),CELL("address")=CELL("address",I96)),NOW(),M96)</f>
-        <v>45643.705772337962</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="H97">
-        <v>15.19</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="24"/>
-        <v>15.19</v>
+        <f t="shared" si="27"/>
+        <v>9.2899999999999991</v>
       </c>
       <c r="M97" s="3" cm="1">
         <f t="array" aca="1" ref="M97" ca="1">IF(OR(CELL("address")=CELL("address",A97),CELL("address")=CELL("address",B97),CELL("address")=CELL("address",C97),CELL("address")=CELL("address",D97),CELL("address")=CELL("address",E97),CELL("address")=CELL("address",F97),CELL("address")=CELL("address",G97),CELL("address")=CELL("address",H97),CELL("address")=CELL("address",I97)),NOW(),M97)</f>
-        <v>45643.707148842594</v>
+        <v>45795.013152777778</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="H98">
-        <v>9.49</v>
+        <v>15.99</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="24"/>
-        <v>9.49</v>
+        <f t="shared" si="27"/>
+        <v>15.99</v>
       </c>
       <c r="M98" s="3" cm="1">
         <f t="array" aca="1" ref="M98" ca="1">IF(OR(CELL("address")=CELL("address",A98),CELL("address")=CELL("address",B98),CELL("address")=CELL("address",C98),CELL("address")=CELL("address",D98),CELL("address")=CELL("address",E98),CELL("address")=CELL("address",F98),CELL("address")=CELL("address",G98),CELL("address")=CELL("address",H98),CELL("address")=CELL("address",I98)),NOW(),M98)</f>
-        <v>45643.699993402777</v>
+        <v>45794.996764120369</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="H99">
-        <v>3.99</v>
+        <v>6.99</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J99" s="1">
-        <f t="shared" si="23"/>
+        <f>ROUNDUP(F99/I99,0)</f>
         <v>1</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="24"/>
-        <v>3.99</v>
-      </c>
-      <c r="L99" t="s">
-        <v>216</v>
+        <f>J99*H99</f>
+        <v>6.99</v>
       </c>
       <c r="M99" s="3" cm="1">
         <f t="array" aca="1" ref="M99" ca="1">IF(OR(CELL("address")=CELL("address",A99),CELL("address")=CELL("address",B99),CELL("address")=CELL("address",C99),CELL("address")=CELL("address",D99),CELL("address")=CELL("address",E99),CELL("address")=CELL("address",F99),CELL("address")=CELL("address",G99),CELL("address")=CELL("address",H99),CELL("address")=CELL("address",I99)),NOW(),M99)</f>
-        <v>45663.844060416668</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H100">
-        <v>7.99</v>
+        <v>18</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="23"/>
+        <f>ROUNDUP(F100/I100,0)</f>
         <v>1</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="24"/>
-        <v>7.99</v>
+        <f>J100*H100</f>
+        <v>18</v>
+      </c>
+      <c r="L100" t="s">
+        <v>283</v>
       </c>
       <c r="M100" s="3" cm="1">
         <f t="array" aca="1" ref="M100" ca="1">IF(OR(CELL("address")=CELL("address",A100),CELL("address")=CELL("address",B100),CELL("address")=CELL("address",C100),CELL("address")=CELL("address",D100),CELL("address")=CELL("address",E100),CELL("address")=CELL("address",F100),CELL("address")=CELL("address",G100),CELL("address")=CELL("address",H100),CELL("address")=CELL("address",I100)),NOW(),M100)</f>
-        <v>45663.844104976852</v>
+        <v>45795.004241550923</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="H101">
-        <v>23.99</v>
+        <v>8.99</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="J101:J105" si="38">ROUNDUP(F101/I101,0)</f>
         <v>1</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="24"/>
-        <v>23.99</v>
+        <f t="shared" ref="K101:K105" si="39">J101*H101</f>
+        <v>8.99</v>
       </c>
       <c r="M101" s="3" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">IF(OR(CELL("address")=CELL("address",A101),CELL("address")=CELL("address",B101),CELL("address")=CELL("address",C101),CELL("address")=CELL("address",D101),CELL("address")=CELL("address",E101),CELL("address")=CELL("address",F101),CELL("address")=CELL("address",G101),CELL("address")=CELL("address",H101),CELL("address")=CELL("address",I101)),NOW(),M101)</f>
-        <v>45663.844116319444</v>
+        <v>45795.004385532404</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="H102">
-        <v>13.99</v>
+        <v>15.59</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="24"/>
-        <v>13.99</v>
+        <f t="shared" si="39"/>
+        <v>15.59</v>
+      </c>
+      <c r="L102" t="s">
+        <v>269</v>
       </c>
       <c r="M102" s="3" cm="1">
         <f t="array" aca="1" ref="M102" ca="1">IF(OR(CELL("address")=CELL("address",A102),CELL("address")=CELL("address",B102),CELL("address")=CELL("address",C102),CELL("address")=CELL("address",D102),CELL("address")=CELL("address",E102),CELL("address")=CELL("address",F102),CELL("address")=CELL("address",G102),CELL("address")=CELL("address",H102),CELL("address")=CELL("address",I102)),NOW(),M102)</f>
-        <v>45760.443250578704</v>
+        <v>45794.921978819446</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E103" t="s">
-        <v>193</v>
+      <c r="A103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
+      <c r="G103" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H103">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" ref="J103:J108" si="29">ROUNDUP(F103/I103,0)</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" ref="K103:K108" si="30">J103*H103</f>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>12.99</v>
       </c>
       <c r="M103" s="3" cm="1">
         <f t="array" aca="1" ref="M103" ca="1">IF(OR(CELL("address")=CELL("address",A103),CELL("address")=CELL("address",B103),CELL("address")=CELL("address",C103),CELL("address")=CELL("address",D103),CELL("address")=CELL("address",E103),CELL("address")=CELL("address",F103),CELL("address")=CELL("address",G103),CELL("address")=CELL("address",H103),CELL("address")=CELL("address",I103)),NOW(),M103)</f>
-        <v>45760.443337847224</v>
+        <v>45794.996380555553</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
       <c r="E104" s="5" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="H104">
-        <v>28.99</v>
+        <v>10.99</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" si="29"/>
-        <v>6</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="30"/>
-        <v>173.94</v>
+        <f t="shared" si="39"/>
+        <v>10.99</v>
       </c>
       <c r="M104" s="3" cm="1">
         <f t="array" aca="1" ref="M104" ca="1">IF(OR(CELL("address")=CELL("address",A104),CELL("address")=CELL("address",B104),CELL("address")=CELL("address",C104),CELL("address")=CELL("address",D104),CELL("address")=CELL("address",E104),CELL("address")=CELL("address",F104),CELL("address")=CELL("address",G104),CELL("address")=CELL("address",H104),CELL("address")=CELL("address",I104)),NOW(),M104)</f>
-        <v>45650.76498472222</v>
+        <v>45794.996380555553</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
       <c r="E105" s="5" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="H105">
-        <v>52.99</v>
+        <v>11.99</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="30"/>
-        <v>105.98</v>
+        <f t="shared" si="39"/>
+        <v>11.99</v>
       </c>
       <c r="M105" s="3" cm="1">
         <f t="array" aca="1" ref="M105" ca="1">IF(OR(CELL("address")=CELL("address",A105),CELL("address")=CELL("address",B105),CELL("address")=CELL("address",C105),CELL("address")=CELL("address",D105),CELL("address")=CELL("address",E105),CELL("address")=CELL("address",F105),CELL("address")=CELL("address",G105),CELL("address")=CELL("address",H105),CELL("address")=CELL("address",I105)),NOW(),M105)</f>
-        <v>45646.90144050926</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E106" t="s">
-        <v>198</v>
+      <c r="A106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
+      <c r="G106" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H106">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>70.5</v>
       </c>
       <c r="M106" s="3" cm="1">
         <f t="array" aca="1" ref="M106" ca="1">IF(OR(CELL("address")=CELL("address",A106),CELL("address")=CELL("address",B106),CELL("address")=CELL("address",C106),CELL("address")=CELL("address",D106),CELL("address")=CELL("address",E106),CELL("address")=CELL("address",F106),CELL("address")=CELL("address",G106),CELL("address")=CELL("address",H106),CELL("address")=CELL("address",I106)),NOW(),M106)</f>
-        <v>45661.886575694443</v>
+        <v>45795.006290509256</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E107" t="s">
-        <v>199</v>
+      <c r="A107" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
+      <c r="G107" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="H107">
-        <v>0</v>
+        <v>8.98</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>8.98</v>
       </c>
       <c r="M107" s="3" cm="1">
         <f t="array" aca="1" ref="M107" ca="1">IF(OR(CELL("address")=CELL("address",A107),CELL("address")=CELL("address",B107),CELL("address")=CELL("address",C107),CELL("address")=CELL("address",D107),CELL("address")=CELL("address",E107),CELL("address")=CELL("address",F107),CELL("address")=CELL("address",G107),CELL("address")=CELL("address",H107),CELL("address")=CELL("address",I107)),NOW(),M107)</f>
-        <v>0</v>
+        <v>45643.709466666667</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E108" t="s">
-        <v>205</v>
+      <c r="A108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="H108">
-        <v>23.99</v>
+        <v>33.92</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="30"/>
-        <v>23.99</v>
+        <f t="shared" si="27"/>
+        <v>33.92</v>
+      </c>
+      <c r="L108" t="s">
+        <v>96</v>
       </c>
       <c r="M108" s="3" cm="1">
         <f t="array" aca="1" ref="M108" ca="1">IF(OR(CELL("address")=CELL("address",A108),CELL("address")=CELL("address",B108),CELL("address")=CELL("address",C108),CELL("address")=CELL("address",D108),CELL("address")=CELL("address",E108),CELL("address")=CELL("address",F108),CELL("address")=CELL("address",G108),CELL("address")=CELL("address",H108),CELL("address")=CELL("address",I108)),NOW(),M108)</f>
-        <v>45661.850359490738</v>
+        <v>45642.605838310184</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="E109" t="s">
-        <v>219</v>
+      <c r="A109" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M109"/>
+        <v>113</v>
+      </c>
+      <c r="H109">
+        <v>15.99</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="27"/>
+        <v>15.99</v>
+      </c>
+      <c r="M109" s="3" cm="1">
+        <f t="array" aca="1" ref="M109" ca="1">IF(OR(CELL("address")=CELL("address",A109),CELL("address")=CELL("address",B109),CELL("address")=CELL("address",C109),CELL("address")=CELL("address",D109),CELL("address")=CELL("address",E109),CELL("address")=CELL("address",F109),CELL("address")=CELL("address",G109),CELL("address")=CELL("address",H109),CELL("address")=CELL("address",I109)),NOW(),M109)</f>
+        <v>45643.709010995372</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M110"/>
+      <c r="A110" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" t="s">
+        <v>284</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" ref="J110" si="40">ROUNDUP(F110/I110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <f>J110*H110</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M110" s="3" cm="1">
+        <f t="array" aca="1" ref="M110" ca="1">IF(OR(CELL("address")=CELL("address",A110),CELL("address")=CELL("address",B110),CELL("address")=CELL("address",C110),CELL("address")=CELL("address",D110),CELL("address")=CELL("address",E110),CELL("address")=CELL("address",F110),CELL("address")=CELL("address",G110),CELL("address")=CELL("address",H110),CELL("address")=CELL("address",I110)),NOW(),M110)</f>
+        <v>45794.999953935185</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M111"/>
+      <c r="A111" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H111">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="27"/>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="M111" s="3" cm="1">
+        <f t="array" aca="1" ref="M111" ca="1">IF(OR(CELL("address")=CELL("address",A111),CELL("address")=CELL("address",B111),CELL("address")=CELL("address",C111),CELL("address")=CELL("address",D111),CELL("address")=CELL("address",E111),CELL("address")=CELL("address",F111),CELL("address")=CELL("address",G111),CELL("address")=CELL("address",H111),CELL("address")=CELL("address",I111)),NOW(),M111)</f>
+        <v>45794.983736458336</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M112"/>
-    </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M113"/>
-    </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M114"/>
-    </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M115"/>
-    </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M116"/>
-    </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M117"/>
-    </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M118"/>
-    </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M119"/>
-    </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M120"/>
-    </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M121"/>
-    </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="A112" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H112">
+        <v>5.99</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="27"/>
+        <v>5.99</v>
+      </c>
+      <c r="M112" s="3" cm="1">
+        <f t="array" aca="1" ref="M112" ca="1">IF(OR(CELL("address")=CELL("address",A112),CELL("address")=CELL("address",B112),CELL("address")=CELL("address",C112),CELL("address")=CELL("address",D112),CELL("address")=CELL("address",E112),CELL("address")=CELL("address",F112),CELL("address")=CELL("address",G112),CELL("address")=CELL("address",H112),CELL("address")=CELL("address",I112)),NOW(),M112)</f>
+        <v>45795.012884837961</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" t="s">
+        <v>284</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H113">
+        <v>22.99</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="27"/>
+        <v>22.99</v>
+      </c>
+      <c r="M113" s="3" cm="1">
+        <f t="array" aca="1" ref="M113" ca="1">IF(OR(CELL("address")=CELL("address",A113),CELL("address")=CELL("address",B113),CELL("address")=CELL("address",C113),CELL("address")=CELL("address",D113),CELL("address")=CELL("address",E113),CELL("address")=CELL("address",F113),CELL("address")=CELL("address",G113),CELL("address")=CELL("address",H113),CELL("address")=CELL("address",I113)),NOW(),M113)</f>
+        <v>45643.705772337962</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H114">
+        <v>15.19</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="27"/>
+        <v>15.19</v>
+      </c>
+      <c r="M114" s="3" cm="1">
+        <f t="array" aca="1" ref="M114" ca="1">IF(OR(CELL("address")=CELL("address",A114),CELL("address")=CELL("address",B114),CELL("address")=CELL("address",C114),CELL("address")=CELL("address",D114),CELL("address")=CELL("address",E114),CELL("address")=CELL("address",F114),CELL("address")=CELL("address",G114),CELL("address")=CELL("address",H114),CELL("address")=CELL("address",I114)),NOW(),M114)</f>
+        <v>45643.707148842594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A115" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115">
+        <v>9.49</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="27"/>
+        <v>9.49</v>
+      </c>
+      <c r="M115" s="3" cm="1">
+        <f t="array" aca="1" ref="M115" ca="1">IF(OR(CELL("address")=CELL("address",A115),CELL("address")=CELL("address",B115),CELL("address")=CELL("address",C115),CELL("address")=CELL("address",D115),CELL("address")=CELL("address",E115),CELL("address")=CELL("address",F115),CELL("address")=CELL("address",G115),CELL("address")=CELL("address",H115),CELL("address")=CELL("address",I115)),NOW(),M115)</f>
+        <v>45643.699993402777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H116">
+        <v>3.99</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" si="27"/>
+        <v>3.99</v>
+      </c>
+      <c r="L116" t="s">
+        <v>198</v>
+      </c>
+      <c r="M116" s="3" cm="1">
+        <f t="array" aca="1" ref="M116" ca="1">IF(OR(CELL("address")=CELL("address",A116),CELL("address")=CELL("address",B116),CELL("address")=CELL("address",C116),CELL("address")=CELL("address",D116),CELL("address")=CELL("address",E116),CELL("address")=CELL("address",F116),CELL("address")=CELL("address",G116),CELL("address")=CELL("address",H116),CELL("address")=CELL("address",I116)),NOW(),M116)</f>
+        <v>45663.844060416668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A117" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>85</v>
+      </c>
+      <c r="D117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117">
+        <v>7.99</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="27"/>
+        <v>7.99</v>
+      </c>
+      <c r="M117" s="3" cm="1">
+        <f t="array" aca="1" ref="M117" ca="1">IF(OR(CELL("address")=CELL("address",A117),CELL("address")=CELL("address",B117),CELL("address")=CELL("address",C117),CELL("address")=CELL("address",D117),CELL("address")=CELL("address",E117),CELL("address")=CELL("address",F117),CELL("address")=CELL("address",G117),CELL("address")=CELL("address",H117),CELL("address")=CELL("address",I117)),NOW(),M117)</f>
+        <v>45663.844104976852</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A118" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118">
+        <v>23.99</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="27"/>
+        <v>23.99</v>
+      </c>
+      <c r="M118" s="3" cm="1">
+        <f t="array" aca="1" ref="M118" ca="1">IF(OR(CELL("address")=CELL("address",A118),CELL("address")=CELL("address",B118),CELL("address")=CELL("address",C118),CELL("address")=CELL("address",D118),CELL("address")=CELL("address",E118),CELL("address")=CELL("address",F118),CELL("address")=CELL("address",G118),CELL("address")=CELL("address",H118),CELL("address")=CELL("address",I118)),NOW(),M118)</f>
+        <v>45663.844116319444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A119" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" t="s">
+        <v>304</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H119">
+        <v>13.99</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="27"/>
+        <v>13.99</v>
+      </c>
+      <c r="M119" s="3" cm="1">
+        <f t="array" aca="1" ref="M119" ca="1">IF(OR(CELL("address")=CELL("address",A119),CELL("address")=CELL("address",B119),CELL("address")=CELL("address",C119),CELL("address")=CELL("address",D119),CELL("address")=CELL("address",E119),CELL("address")=CELL("address",F119),CELL("address")=CELL("address",G119),CELL("address")=CELL("address",H119),CELL("address")=CELL("address",I119)),NOW(),M119)</f>
+        <v>45795.013606250002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A120" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
+        <v>304</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <f>ROUNDUP(F120/I120,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K120" s="1">
+        <f>J120*H120</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="3" cm="1">
+        <f t="array" aca="1" ref="M120" ca="1">IF(OR(CELL("address")=CELL("address",A120),CELL("address")=CELL("address",B120),CELL("address")=CELL("address",C120),CELL("address")=CELL("address",D120),CELL("address")=CELL("address",E120),CELL("address")=CELL("address",F120),CELL("address")=CELL("address",G120),CELL("address")=CELL("address",H120),CELL("address")=CELL("address",I120)),NOW(),M120)</f>
+        <v>45795.006454050927</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M122"/>
     </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M123"/>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M124"/>
     </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M125"/>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M126"/>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M127"/>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M128"/>
     </row>
     <row r="129" spans="13:13" x14ac:dyDescent="0.45">
@@ -5974,313 +7009,170 @@
       <c r="M436"/>
     </row>
     <row r="437" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F437">
-        <v>1</v>
-      </c>
-      <c r="H437">
-        <v>0</v>
-      </c>
-      <c r="I437">
-        <v>1</v>
-      </c>
-      <c r="J437" s="1">
-        <f t="shared" ref="J437:J452" si="31">ROUNDUP(F437/I437,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K437" s="1">
-        <f t="shared" ref="K437:K452" si="32">J437*H437</f>
-        <v>0</v>
-      </c>
+      <c r="M437"/>
     </row>
     <row r="438" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F438">
-        <v>1</v>
-      </c>
-      <c r="H438">
-        <v>0</v>
-      </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
-      <c r="J438" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K438" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M438"/>
     </row>
     <row r="439" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F439">
-        <v>1</v>
-      </c>
-      <c r="H439">
-        <v>0</v>
-      </c>
-      <c r="I439">
-        <v>1</v>
-      </c>
-      <c r="J439" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K439" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M439"/>
     </row>
     <row r="440" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F440">
-        <v>1</v>
-      </c>
-      <c r="H440">
-        <v>0</v>
-      </c>
-      <c r="I440">
-        <v>1</v>
-      </c>
-      <c r="J440" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K440" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M440"/>
     </row>
     <row r="441" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F441">
-        <v>1</v>
-      </c>
-      <c r="H441">
-        <v>0</v>
-      </c>
-      <c r="I441">
-        <v>1</v>
-      </c>
-      <c r="J441" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K441" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M441"/>
     </row>
     <row r="442" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F442">
-        <v>1</v>
-      </c>
-      <c r="H442">
-        <v>0</v>
-      </c>
-      <c r="I442">
-        <v>1</v>
-      </c>
-      <c r="J442" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K442" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M442"/>
     </row>
     <row r="443" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F443">
-        <v>1</v>
-      </c>
-      <c r="H443">
-        <v>0</v>
-      </c>
-      <c r="I443">
-        <v>1</v>
-      </c>
-      <c r="J443" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K443" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M443"/>
     </row>
     <row r="444" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F444">
-        <v>1</v>
-      </c>
-      <c r="H444">
-        <v>0</v>
-      </c>
-      <c r="I444">
-        <v>1</v>
-      </c>
-      <c r="J444" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K444" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M444"/>
     </row>
     <row r="445" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F445">
-        <v>1</v>
-      </c>
-      <c r="H445">
-        <v>0</v>
-      </c>
-      <c r="I445">
-        <v>1</v>
-      </c>
-      <c r="J445" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K445" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M445"/>
     </row>
     <row r="446" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F446">
-        <v>1</v>
-      </c>
-      <c r="H446">
-        <v>0</v>
-      </c>
-      <c r="I446">
-        <v>1</v>
-      </c>
-      <c r="J446" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K446" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M446"/>
     </row>
     <row r="447" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F447">
-        <v>1</v>
-      </c>
-      <c r="H447">
-        <v>0</v>
-      </c>
-      <c r="I447">
-        <v>1</v>
-      </c>
-      <c r="J447" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K447" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="M447"/>
     </row>
     <row r="448" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F448">
-        <v>1</v>
-      </c>
-      <c r="H448">
-        <v>0</v>
-      </c>
-      <c r="I448">
-        <v>1</v>
-      </c>
-      <c r="J448" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K448" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
+      <c r="J448" s="12"/>
+      <c r="K448" s="12"/>
     </row>
     <row r="449" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F449">
-        <v>1</v>
-      </c>
-      <c r="H449">
-        <v>0</v>
-      </c>
-      <c r="I449">
-        <v>1</v>
-      </c>
-      <c r="J449" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K449" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="F449" s="12"/>
+      <c r="G449" s="12"/>
+      <c r="H449" s="12"/>
+      <c r="I449" s="12"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="12"/>
     </row>
     <row r="450" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F450">
-        <v>1</v>
-      </c>
-      <c r="H450">
-        <v>0</v>
-      </c>
-      <c r="I450">
-        <v>1</v>
-      </c>
-      <c r="J450" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K450" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="F450" s="12"/>
+      <c r="G450" s="12"/>
+      <c r="H450" s="12"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="12"/>
+      <c r="K450" s="12"/>
     </row>
     <row r="451" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F451">
-        <v>1</v>
-      </c>
-      <c r="H451">
-        <v>0</v>
-      </c>
-      <c r="I451">
-        <v>1</v>
-      </c>
-      <c r="J451" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K451" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="F451" s="12"/>
+      <c r="G451" s="12"/>
+      <c r="H451" s="12"/>
+      <c r="I451" s="12"/>
+      <c r="J451" s="12"/>
+      <c r="K451" s="12"/>
     </row>
     <row r="452" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F452">
-        <v>1</v>
-      </c>
-      <c r="H452">
-        <v>0</v>
-      </c>
-      <c r="I452">
-        <v>1</v>
-      </c>
-      <c r="J452" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="K452" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
+      <c r="F452" s="12"/>
+      <c r="G452" s="12"/>
+      <c r="H452" s="12"/>
+      <c r="I452" s="12"/>
+      <c r="J452" s="12"/>
+      <c r="K452" s="12"/>
+    </row>
+    <row r="453" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F453" s="12"/>
+      <c r="G453" s="12"/>
+      <c r="H453" s="12"/>
+      <c r="I453" s="12"/>
+      <c r="J453" s="12"/>
+      <c r="K453" s="12"/>
+    </row>
+    <row r="454" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F454" s="12"/>
+      <c r="G454" s="12"/>
+      <c r="H454" s="12"/>
+      <c r="I454" s="12"/>
+      <c r="J454" s="12"/>
+      <c r="K454" s="12"/>
+    </row>
+    <row r="455" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F455" s="12"/>
+      <c r="G455" s="12"/>
+      <c r="H455" s="12"/>
+      <c r="I455" s="12"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="12"/>
+    </row>
+    <row r="456" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F456" s="12"/>
+      <c r="G456" s="12"/>
+      <c r="H456" s="12"/>
+      <c r="I456" s="12"/>
+      <c r="J456" s="12"/>
+      <c r="K456" s="12"/>
+    </row>
+    <row r="457" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F457" s="12"/>
+      <c r="G457" s="12"/>
+      <c r="H457" s="12"/>
+      <c r="I457" s="12"/>
+      <c r="J457" s="12"/>
+      <c r="K457" s="12"/>
+    </row>
+    <row r="458" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F458" s="12"/>
+      <c r="G458" s="12"/>
+      <c r="H458" s="12"/>
+      <c r="I458" s="12"/>
+      <c r="J458" s="12"/>
+      <c r="K458" s="12"/>
+    </row>
+    <row r="459" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
+      <c r="H459" s="12"/>
+      <c r="I459" s="12"/>
+      <c r="J459" s="12"/>
+      <c r="K459" s="12"/>
+    </row>
+    <row r="460" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F460" s="12"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="12"/>
+    </row>
+    <row r="461" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F461" s="12"/>
+      <c r="G461" s="12"/>
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="12"/>
+    </row>
+    <row r="462" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F462" s="12"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
+      <c r="K462" s="12"/>
+    </row>
+    <row r="463" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F463" s="12"/>
+      <c r="G463" s="12"/>
+      <c r="H463" s="12"/>
+      <c r="I463" s="12"/>
+      <c r="J463" s="12"/>
+      <c r="K463" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M453" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:M464" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M21">
-      <sortCondition ref="D3:D453"/>
+      <sortCondition ref="D3:D464"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -6293,81 +7185,107 @@
     <hyperlink ref="G8" r:id="rId7" display="https://www.amazon.com/dp/B019U87UQ4?psc=1&amp;pd_rd_i=B019U87UQ4&amp;pd_rd_w=uRW9V&amp;content-id=amzn1.sym.dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_p=dd2c6db7-6626-466d-bf04-9570e69a7df0&amp;pf_rd_r=225ETS73H2852Z99D761&amp;pd_rd_wg=3D4rT&amp;pd_rd_r=9b2c3f2b-c2b1-47d8-af44-4ad3f0200e7d&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;smid=A3E0SBPIY1LXW8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMU9SOElRWEJFMTY3JmVuY3J5cHRlZElkPUEwMzc4MjQ2M1BUVDIxVllRN0tJTCZlbmNyeXB0ZWRBZElkPUEwNzU5NTkwMTBITUM1WlpPN0xCVCZ3aWRnZXROYW1lPXNwX2RldGFpbF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{0CFA7821-B753-4016-952E-A2F2C78A736C}"/>
     <hyperlink ref="G19" r:id="rId8" display="https://www.amazon.com/ESHIONG-Straight-Reverse-Fittings%EF%BC%881-Purifiers%EF%BC%89/dp/B088DDX593?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=ro%2Bcheck%2Bvalve&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251369&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJU0tQNVM1MDhVM1UmZW5jcnlwdGVkSWQ9QTA5MjIyMjJUVU9IMFBRMVVQM1UmZW5jcnlwdGVkQWRJZD1BMDk5MzUwN1IzRUZTUTIwTVM2UCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{1FCD8F64-5B13-4DB7-86C9-101B36DB637F}"/>
     <hyperlink ref="G21" r:id="rId9" xr:uid="{5A7DA1E0-C8BE-4D2C-9475-073B3454FB99}"/>
-    <hyperlink ref="G86" r:id="rId10" xr:uid="{E44491F2-DB4E-4225-BB90-29BA22FBEA0D}"/>
-    <hyperlink ref="G91" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
-    <hyperlink ref="G89" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
-    <hyperlink ref="G99" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
-    <hyperlink ref="G100" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
-    <hyperlink ref="G101" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
-    <hyperlink ref="G90" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
+    <hyperlink ref="G89" r:id="rId10" xr:uid="{E44491F2-DB4E-4225-BB90-29BA22FBEA0D}"/>
+    <hyperlink ref="G108" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
+    <hyperlink ref="G106" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
+    <hyperlink ref="G116" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
+    <hyperlink ref="G117" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
+    <hyperlink ref="G118" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
+    <hyperlink ref="G107" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
     <hyperlink ref="G23" r:id="rId17" xr:uid="{53743EB8-09BB-4C83-9BD4-8D184989BC54}"/>
     <hyperlink ref="G25" r:id="rId18" xr:uid="{61C14228-2890-4F92-9A1F-412D451F55A3}"/>
     <hyperlink ref="G26" r:id="rId19" xr:uid="{C55FBA61-8E93-4FF3-A1D1-C786D9873885}"/>
-    <hyperlink ref="G74" r:id="rId20" xr:uid="{640FC664-131F-4FFC-917F-379924A0E026}"/>
-    <hyperlink ref="G37" r:id="rId21" xr:uid="{4DBFBC39-72E0-4524-B6C8-465CD165F079}"/>
+    <hyperlink ref="G71" r:id="rId20" xr:uid="{640FC664-131F-4FFC-917F-379924A0E026}"/>
+    <hyperlink ref="G35" r:id="rId21" xr:uid="{4DBFBC39-72E0-4524-B6C8-465CD165F079}"/>
     <hyperlink ref="G32" r:id="rId22" xr:uid="{1498CBE9-9372-485C-B3BB-27D0AE5B86BD}"/>
-    <hyperlink ref="G95" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
-    <hyperlink ref="G102" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
-    <hyperlink ref="G92" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
+    <hyperlink ref="G111" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
+    <hyperlink ref="G119" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
+    <hyperlink ref="G109" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
     <hyperlink ref="G7" r:id="rId26" xr:uid="{08E5E586-C17A-424B-951C-2C634CC7920D}"/>
-    <hyperlink ref="G77" r:id="rId27" xr:uid="{5036D263-8019-49B4-8087-28821AEAE19F}"/>
-    <hyperlink ref="G68" r:id="rId28" xr:uid="{9B0D3F4C-ACB7-4A15-AFFD-417E1A393112}"/>
-    <hyperlink ref="G85" r:id="rId29" display="https://www.amazon.com/APIELE-Warranty-Momentary-Mushroom-Mouting/dp/B07PKQJZDY?_encoding=UTF8&amp;pd_rd_i=B07PJKL2GW&amp;pd_rd_w=ypYuo&amp;content-id=amzn1.sym.5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_p=5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_r=QD95TBGR51F20SVN625E&amp;pd_rd_wg=K1vol&amp;pd_rd_r=90175681-5e10-4e04-8f10-3ae6b69f23a1&amp;th=1" xr:uid="{EDF63C4A-4F70-48E3-A041-2A3CD7DDACC0}"/>
+    <hyperlink ref="G75" r:id="rId27" xr:uid="{5036D263-8019-49B4-8087-28821AEAE19F}"/>
+    <hyperlink ref="G65" r:id="rId28" xr:uid="{9B0D3F4C-ACB7-4A15-AFFD-417E1A393112}"/>
+    <hyperlink ref="G88" r:id="rId29" display="https://www.amazon.com/APIELE-Warranty-Momentary-Mushroom-Mouting/dp/B07PKQJZDY?_encoding=UTF8&amp;pd_rd_i=B07PJKL2GW&amp;pd_rd_w=ypYuo&amp;content-id=amzn1.sym.5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_p=5334573a-029b-477d-a49c-2bbdfe16b2cb&amp;pf_rd_r=QD95TBGR51F20SVN625E&amp;pd_rd_wg=K1vol&amp;pd_rd_r=90175681-5e10-4e04-8f10-3ae6b69f23a1&amp;th=1" xr:uid="{EDF63C4A-4F70-48E3-A041-2A3CD7DDACC0}"/>
     <hyperlink ref="G30" r:id="rId30" xr:uid="{C9250C8B-D50A-4893-8305-58824C2072FA}"/>
-    <hyperlink ref="G38" r:id="rId31" xr:uid="{224DCDDC-D440-4E25-B7A6-177EF4011634}"/>
-    <hyperlink ref="G44" r:id="rId32" xr:uid="{9991EFE1-5955-44E3-A2FD-4CB79E023BA5}"/>
-    <hyperlink ref="G43" r:id="rId33" xr:uid="{CC6305D1-3266-4187-9479-77C83506E1AC}"/>
+    <hyperlink ref="G36" r:id="rId31" xr:uid="{224DCDDC-D440-4E25-B7A6-177EF4011634}"/>
+    <hyperlink ref="G41" r:id="rId32" xr:uid="{9991EFE1-5955-44E3-A2FD-4CB79E023BA5}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{CC6305D1-3266-4187-9479-77C83506E1AC}"/>
     <hyperlink ref="G24" r:id="rId34" xr:uid="{9D165EC1-90A2-4DD6-91D9-C86229A7D7C4}"/>
     <hyperlink ref="G22" r:id="rId35" xr:uid="{7527279C-B3EA-4862-86A2-82F2923022AD}"/>
-    <hyperlink ref="G93" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
-    <hyperlink ref="G98" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
-    <hyperlink ref="G96" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
-    <hyperlink ref="G97" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
-    <hyperlink ref="G87" r:id="rId40" xr:uid="{39B4DA69-46BF-425C-9C7E-E076BB5F0FBF}"/>
+    <hyperlink ref="G100" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
+    <hyperlink ref="G115" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
+    <hyperlink ref="G113" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
+    <hyperlink ref="G114" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
+    <hyperlink ref="G90" r:id="rId40" xr:uid="{39B4DA69-46BF-425C-9C7E-E076BB5F0FBF}"/>
     <hyperlink ref="G28" r:id="rId41" xr:uid="{1C4C4A2E-E434-466E-B19C-B16AB5D70DBB}"/>
     <hyperlink ref="G27" r:id="rId42" xr:uid="{851DC6B1-D13B-4376-943C-22F0F5436C0C}"/>
-    <hyperlink ref="G67" r:id="rId43" xr:uid="{9A872AB3-8267-42B5-9651-725EF17F8C2B}"/>
-    <hyperlink ref="G72" r:id="rId44" xr:uid="{1533211E-BD64-4499-955D-397E4D4EAF3F}"/>
-    <hyperlink ref="G73" r:id="rId45" xr:uid="{B4DFE118-5B47-4F74-AA4C-24827E62329B}"/>
-    <hyperlink ref="G53" r:id="rId46" xr:uid="{1DBEFDFE-7637-411A-9178-0B45CDB0236D}"/>
-    <hyperlink ref="G69" r:id="rId47" xr:uid="{53CC3843-5354-445C-B53C-AFF93F236CAE}"/>
-    <hyperlink ref="G58" r:id="rId48" xr:uid="{770BE50F-0F52-4E36-B8CB-37F86202D8A2}"/>
-    <hyperlink ref="G57" r:id="rId49" xr:uid="{4CB1D631-0386-42EC-BE01-B6C282FB7B75}"/>
-    <hyperlink ref="G59" r:id="rId50" xr:uid="{80C605E6-CAB1-48AC-A17E-7AC074D3BF22}"/>
-    <hyperlink ref="G55" r:id="rId51" xr:uid="{9CE47714-AB77-4D9F-8D77-3582CB0B43A2}"/>
-    <hyperlink ref="G51" r:id="rId52" xr:uid="{2E32DEC3-7CB5-45E7-99D9-0D810993C6DB}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{0CF6430F-070E-48FB-AF86-976EA824908C}"/>
-    <hyperlink ref="G56" r:id="rId54" xr:uid="{F7BBDE79-5152-47E7-A1F9-5D98D092F5A9}"/>
+    <hyperlink ref="G64" r:id="rId43" xr:uid="{9A872AB3-8267-42B5-9651-725EF17F8C2B}"/>
+    <hyperlink ref="G69" r:id="rId44" xr:uid="{1533211E-BD64-4499-955D-397E4D4EAF3F}"/>
+    <hyperlink ref="G70" r:id="rId45" xr:uid="{B4DFE118-5B47-4F74-AA4C-24827E62329B}"/>
+    <hyperlink ref="G50" r:id="rId46" xr:uid="{1DBEFDFE-7637-411A-9178-0B45CDB0236D}"/>
+    <hyperlink ref="G66" r:id="rId47" xr:uid="{53CC3843-5354-445C-B53C-AFF93F236CAE}"/>
+    <hyperlink ref="G55" r:id="rId48" xr:uid="{770BE50F-0F52-4E36-B8CB-37F86202D8A2}"/>
+    <hyperlink ref="G54" r:id="rId49" xr:uid="{4CB1D631-0386-42EC-BE01-B6C282FB7B75}"/>
+    <hyperlink ref="G56" r:id="rId50" xr:uid="{80C605E6-CAB1-48AC-A17E-7AC074D3BF22}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{9CE47714-AB77-4D9F-8D77-3582CB0B43A2}"/>
+    <hyperlink ref="G48" r:id="rId52" xr:uid="{2E32DEC3-7CB5-45E7-99D9-0D810993C6DB}"/>
+    <hyperlink ref="G51" r:id="rId53" xr:uid="{0CF6430F-070E-48FB-AF86-976EA824908C}"/>
+    <hyperlink ref="G53" r:id="rId54" xr:uid="{F7BBDE79-5152-47E7-A1F9-5D98D092F5A9}"/>
     <hyperlink ref="G18" r:id="rId55" xr:uid="{CAAA46C2-8E4E-45FD-BDBD-8F2EFB8F581D}"/>
-    <hyperlink ref="G104" r:id="rId56" xr:uid="{E50E6AAF-0B69-41F6-BDD1-240B57873590}"/>
-    <hyperlink ref="G105" r:id="rId57" display="https://www.amazon.com/Photect-Plates-Stainless-Kitchen-Crafting/dp/B0CR9V8TMF?_encoding=UTF8&amp;pd_rd_i=B0CR9V8TMF&amp;pd_rd_w=uQsUI&amp;content-id=amzn1.sym.6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_p=6c765dbf-3487-473e-b7c7-4a06a3685c33&amp;pf_rd_r=1X2GZETAYHRDND2BYMEZ&amp;pd_rd_wg=QJQsZ&amp;pd_rd_r=3cf7e335-19d1-47cb-b917-ff38ead25483&amp;th=1" xr:uid="{DF6062D9-4942-4FB4-BA90-59E65FB55310}"/>
-    <hyperlink ref="G108" r:id="rId58" display="https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5" xr:uid="{379CDD9F-5880-48D8-8A5F-A897A2101E33}"/>
-    <hyperlink ref="G60" r:id="rId59" xr:uid="{C4DD5C7B-D350-4A87-8A29-6768079AD1F3}"/>
-    <hyperlink ref="G76" r:id="rId60" xr:uid="{9E70EB05-4DE6-467A-8E3F-8E3E6CA69A5A}"/>
-    <hyperlink ref="G109" r:id="rId61" xr:uid="{2FF4B5CE-C392-4908-BE0B-2A3E7911232E}"/>
-    <hyperlink ref="G33" r:id="rId62" xr:uid="{CB41B711-AA65-4AFA-824B-10D0659B2C1C}"/>
-    <hyperlink ref="G50" r:id="rId63" xr:uid="{D8A0DC46-7E47-4EE3-A0EB-AC60985A5323}"/>
-    <hyperlink ref="G42" r:id="rId64" xr:uid="{C99A1979-6CAD-4105-B9DE-3703456B3D48}"/>
-    <hyperlink ref="G40" r:id="rId65" display="https://www.amazon.com/PRECISION-METALS-87143-12-Rod/dp/B0006NAUO2?crid=SKX6NL9SUVA8&amp;dib=eyJ2IjoiMSJ9.82VAWPYycTdWV07oSzG0iqUeFYokU5zAhh8N-nYtTSQb4RQJHr-U_muiJAYV8zmq9VimN7bz5BZACGonH0bWOYj0sRxtOprXnz5pF32hdD9-tNTRz7kHibpvc706euBblAUKD72tIFDva6g__nmdpiRfOP7H9p7vZmeTmg2AUP82DBMyBJf7jyiTpTh7gbuZOSF4pM0-qWpdvP1RetrBH41xuKE2tEtLtXDdabkQwzk.TAUB_QedbEtyMWDc_qyTie1Jpa-5ntZFTmYoHiOeJDI&amp;dib_tag=se&amp;keywords=.375%22%2Brod&amp;qid=1739304574&amp;sprefix=375%2Brod%2Caps%2C162&amp;sr=8-1&amp;th=1" xr:uid="{C8B89E04-3CC2-43E5-AFC3-9044CADA4E90}"/>
-    <hyperlink ref="G48" r:id="rId66" display="https://www.amazon.com/Tynulox-Stainless-Diameter-Industry-Working/dp/B0BCJXL7G7?dib=eyJ2IjoiMSJ9.pvdIMRLyox0PIO5SfrBzy9cdRbcpRM_OS-Jh4YtksLAt5EfEZWQ5Uj0ERARR9xD_-dSKOJ0pA2YmPi43Q01wfzWUA-FR0hAoYV6Tk9MAzZvtcujHrpfE99hw3SL1cQtxmTVktojLiVoXSmcQ_u3-hEOW_G6phtnc0qS1DwFR65Yy9QkYlPqktXPvqgROn49QpNo358W4guTqRq2ybAvWKfcpvKWaZlAKVr3KJORMKdg._6StCBMrb6UDu9xRkVkHWS5motL_fySAF0bJilndgsQ&amp;dib_tag=se&amp;keywords=3%2F16%2Brod&amp;qid=1739304664&amp;sr=8-3&amp;th=1" xr:uid="{AA99D2F5-25BE-43D1-A459-57BBCEE8FBF5}"/>
-    <hyperlink ref="G49" r:id="rId67" display="https://www.amazon.com/DTGN-16-24-UNC-Hex-Nuts/dp/B0BJTZSL1T?crid=32UXT9233IBUX&amp;dib=eyJ2IjoiMSJ9.XU6sAgKV7Ror0Y0Dc9yMtM72QzogCRsZ82dzj6jVabOJOoXKytkM_qopfhQKxMCU_zQL-FJirR1BaHR-YXoyk_nEN6A5DCsZQuaaalWcrlEwLN2rxgqJBqMaNdiOnS29lM-DBUshPfQGTEcnS2Lm8V4aLD7QX72c5Zgl24FnfuaSPf53r944Bj2v4kDc4hxwK-_xq9NUHge3IXNzN1N-lipC6EEh5Hg-tsPo57MDVI0.ggg9sxEySmQPD6hw6By23yQdlo2PGL5GLFlnSX--ofU&amp;dib_tag=se&amp;keywords=3%2F16%22%2Bnut&amp;qid=1739304808&amp;sprefix=3%2F16%2Bnut%2Caps%2C120&amp;sr=8-3&amp;th=1" xr:uid="{C0B89489-EF72-4641-919A-DB859BFEAE19}"/>
-    <hyperlink ref="G41" r:id="rId68" display="https://www.amazon.com/Vifmy-16-Locknuts-Stainless-Standard/dp/B0CPHP1VL9?crid=3MB60QT5VP26B&amp;dib=eyJ2IjoiMSJ9.ODNeNL9BnL6ZJFjNRGhoWWhKLN88OC02E961cARzES6Dr6EJ8AV3lL_utwj9eg6JL_uh6FJZipZS1nCnpjUwp8oKuAzc2nZQaEQBrz-EnCQRUNCkMtA-m134qJox_rMFJMf2wvxRZMwWunL0nOQb8tUrpOR4WKTcSw23ctthvP_fjfFSkLS413hZ4DAYA050xTF1un2m6FRn30AZeI0UqcSUklXa4wAuk7V1RiR3Upc.SEBfrfK7mnYjhbqdhQn2OQqY4ptqYEsI8viIsn5lw3E&amp;dib_tag=se&amp;keywords=.375%22%2Bnut&amp;qid=1739304893&amp;sprefix=375%2Bnut%2Caps%2C129&amp;sr=8-6&amp;th=1" xr:uid="{C4452A96-1D29-4511-BFC8-632F76044A39}"/>
-    <hyperlink ref="G39" r:id="rId69" xr:uid="{6BED6B3D-8F9C-467A-8A99-C4141ED6EC46}"/>
-    <hyperlink ref="G82" r:id="rId70" display="https://www.amazon.com/Bates-Stainless-Steel-Hardware-Metal/dp/B0CJ9FFH2Y/134-0072472-6555177?pd_rd_w=e47SZ&amp;content-id=amzn1.sym.52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_p=52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_r=1J12ZA159605VZ87JQJC&amp;pd_rd_wg=typRi&amp;pd_rd_r=eb0c5671-49df-4701-a0c7-37bcdd82384a&amp;pd_rd_i=B0CJ9FFH2Y&amp;th=1" xr:uid="{D56841B4-E815-4C25-AE8A-39A87A511FF3}"/>
-    <hyperlink ref="G47" r:id="rId71" display="https://www.amazon.com/Yeebyee-Collars-Machinery-Industrial-Silver-1/dp/B0BYJWLKT7?crid=2WK0ZEC48NUPF&amp;dib=eyJ2IjoiMSJ9.fCJr-VhLiZSgWEt8w43axqSGjEY7pYgKYEqvFELVFdvuRg8l1OTxrVBzrBxGuZB7E5QHF_cYgRIYCrK3uM4H7l7wVqMCnvUuFkVGuOKqHEAcULfJEk7ci2FQSxkNu_syIcv9o8phu2mds62aI3B9oy_5wEGROeG_ZAZCO8Ab1ZBP455fr_tweFnwZdP2dyDeDD-ac_RnAz_2oY-u7W4nYBxMrTMZlDhGv4jtvozE8Yk.f6cw7CkASwj5p2FXP0xrxzxvoQ7fh6UY519n9FnwTSc&amp;dib_tag=se&amp;keywords=1%2F2%2Bshaft%2Bcollar&amp;qid=1739308002&amp;sprefix=1%2F2%22%2Bshaft%2Bco%2Caps%2C119&amp;sr=8-4&amp;th=1" xr:uid="{610555B3-8FBE-46B0-80C8-FAFB6B1C4D0B}"/>
-    <hyperlink ref="G45" r:id="rId72" xr:uid="{1B239889-CD63-4E40-A11F-93774E4125BC}"/>
-    <hyperlink ref="L94" r:id="rId73" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
+    <hyperlink ref="G46" r:id="rId56" display="https://www.amazon.com/C360-Brass-Square-Solid-Stock/dp/B08XWC3WBH?crid=H6PMETHMQFJM&amp;dib=eyJ2IjoiMSJ9.2xbw5Cw1c8eNcyomhaMuUL7cOWE22X9NW3zjsfaNqC9bqnZ7EMp8jbcikpsQxzOq5rSJTP9kYvwXEbOUiDYVuT74yY35YSQypgtEMgPp3114JBFzjICwED6bJ1Os_9FV8svVkYy3E3p6K4KfKQWtIVRmnKZnVMoA0raIOVfasG2FYBNBmQrVe25yoQqqsb-FGlBE_YRd_62L87qYxJJnHR4cPfyj-J0YpkU9f4dtA18.EfWwZqdwZ6rIfHgJkLoKBBnoTtlifiT02PgoLXBFB2A&amp;dib_tag=se&amp;keywords=1%22+brass+square+stock&amp;qid=1736040210&amp;sprefix=1+brass+square+stock%2Caps%2C126&amp;sr=8-5" xr:uid="{379CDD9F-5880-48D8-8A5F-A897A2101E33}"/>
+    <hyperlink ref="G57" r:id="rId57" xr:uid="{C4DD5C7B-D350-4A87-8A29-6768079AD1F3}"/>
+    <hyperlink ref="G74" r:id="rId58" xr:uid="{9E70EB05-4DE6-467A-8E3F-8E3E6CA69A5A}"/>
+    <hyperlink ref="G33" r:id="rId59" xr:uid="{CB41B711-AA65-4AFA-824B-10D0659B2C1C}"/>
+    <hyperlink ref="G39" r:id="rId60" xr:uid="{C99A1979-6CAD-4105-B9DE-3703456B3D48}"/>
+    <hyperlink ref="G38" r:id="rId61" display="https://www.amazon.com/PRECISION-METALS-87143-12-Rod/dp/B0006NAUO2?crid=SKX6NL9SUVA8&amp;dib=eyJ2IjoiMSJ9.82VAWPYycTdWV07oSzG0iqUeFYokU5zAhh8N-nYtTSQb4RQJHr-U_muiJAYV8zmq9VimN7bz5BZACGonH0bWOYj0sRxtOprXnz5pF32hdD9-tNTRz7kHibpvc706euBblAUKD72tIFDva6g__nmdpiRfOP7H9p7vZmeTmg2AUP82DBMyBJf7jyiTpTh7gbuZOSF4pM0-qWpdvP1RetrBH41xuKE2tEtLtXDdabkQwzk.TAUB_QedbEtyMWDc_qyTie1Jpa-5ntZFTmYoHiOeJDI&amp;dib_tag=se&amp;keywords=.375%22%2Brod&amp;qid=1739304574&amp;sprefix=375%2Brod%2Caps%2C162&amp;sr=8-1&amp;th=1" xr:uid="{C8B89E04-3CC2-43E5-AFC3-9044CADA4E90}"/>
+    <hyperlink ref="G37" r:id="rId62" xr:uid="{6BED6B3D-8F9C-467A-8A99-C4141ED6EC46}"/>
+    <hyperlink ref="G78" r:id="rId63" display="https://www.amazon.com/Bates-Stainless-Steel-Hardware-Metal/dp/B0CJ9FFH2Y/134-0072472-6555177?pd_rd_w=e47SZ&amp;content-id=amzn1.sym.52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_p=52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_r=1J12ZA159605VZ87JQJC&amp;pd_rd_wg=typRi&amp;pd_rd_r=eb0c5671-49df-4701-a0c7-37bcdd82384a&amp;pd_rd_i=B0CJ9FFH2Y&amp;th=1" xr:uid="{D56841B4-E815-4C25-AE8A-39A87A511FF3}"/>
+    <hyperlink ref="G44" r:id="rId64" display="https://www.amazon.com/Yeebyee-Collars-Machinery-Industrial-Silver-1/dp/B0BYJWLKT7?crid=2WK0ZEC48NUPF&amp;dib=eyJ2IjoiMSJ9.fCJr-VhLiZSgWEt8w43axqSGjEY7pYgKYEqvFELVFdvuRg8l1OTxrVBzrBxGuZB7E5QHF_cYgRIYCrK3uM4H7l7wVqMCnvUuFkVGuOKqHEAcULfJEk7ci2FQSxkNu_syIcv9o8phu2mds62aI3B9oy_5wEGROeG_ZAZCO8Ab1ZBP455fr_tweFnwZdP2dyDeDD-ac_RnAz_2oY-u7W4nYBxMrTMZlDhGv4jtvozE8Yk.f6cw7CkASwj5p2FXP0xrxzxvoQ7fh6UY519n9FnwTSc&amp;dib_tag=se&amp;keywords=1%2F2%2Bshaft%2Bcollar&amp;qid=1739308002&amp;sprefix=1%2F2%22%2Bshaft%2Bco%2Caps%2C119&amp;sr=8-4&amp;th=1" xr:uid="{610555B3-8FBE-46B0-80C8-FAFB6B1C4D0B}"/>
+    <hyperlink ref="G42" r:id="rId65" xr:uid="{1B239889-CD63-4E40-A11F-93774E4125BC}"/>
+    <hyperlink ref="L110" r:id="rId66" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
+    <hyperlink ref="G17" r:id="rId67" xr:uid="{5AE902D9-DA7F-486B-9E19-2B6BEDFA7FD1}"/>
+    <hyperlink ref="G34" r:id="rId68" xr:uid="{FEB65F25-FDE4-4E74-8BE2-09B0268B568A}"/>
+    <hyperlink ref="G67" r:id="rId69" xr:uid="{948942F9-7CA0-4712-B9E3-9F1D8E5CB5C5}"/>
+    <hyperlink ref="G68" r:id="rId70" xr:uid="{89098B5D-810E-4B08-A4A2-EC05122A90A2}"/>
+    <hyperlink ref="G77" r:id="rId71" xr:uid="{E4BF845E-033B-4D9F-9FF8-7DDE917F0CA7}"/>
+    <hyperlink ref="G79" r:id="rId72" xr:uid="{6E60B302-93B0-4F1D-9B16-20F471096D93}"/>
+    <hyperlink ref="G91" r:id="rId73" xr:uid="{5E5ADA0C-8C68-4904-8A1C-EA6C081411C7}"/>
+    <hyperlink ref="G92" r:id="rId74" xr:uid="{3D522F80-5DF6-4D2A-822C-E8B6BFEFD906}"/>
+    <hyperlink ref="G93" r:id="rId75" xr:uid="{59FDD569-249A-4928-9CC4-00B1F824F0D7}"/>
+    <hyperlink ref="G94" r:id="rId76" xr:uid="{987D14A5-04D5-470A-9037-ACC7352A15AD}"/>
+    <hyperlink ref="G95" r:id="rId77" xr:uid="{108D71C0-1B5B-43DD-ABDA-2C1E3DA8314E}"/>
+    <hyperlink ref="G96" r:id="rId78" xr:uid="{F985B1AE-8850-4081-81EC-C91719B639A6}"/>
+    <hyperlink ref="G97" r:id="rId79" xr:uid="{632F387A-22C1-4505-9A7E-16EB48DA624C}"/>
+    <hyperlink ref="G98" r:id="rId80" xr:uid="{3DA55087-5538-4E85-BF9F-3505ACB33E86}"/>
+    <hyperlink ref="G105" r:id="rId81" xr:uid="{6117B992-A526-4AE0-A867-9356178FDE39}"/>
+    <hyperlink ref="G45" r:id="rId82" xr:uid="{11661C40-7BEA-44BF-B674-1670E6891808}"/>
+    <hyperlink ref="G47" r:id="rId83" xr:uid="{3F47E1B6-30B6-415D-A90B-8FEEAED9CDB0}"/>
+    <hyperlink ref="G101" r:id="rId84" display="https://www.amazon.com/dp/B0983GW7YJ?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C18F7520-E2F8-41BF-92A2-8E9AB39D7312}"/>
+    <hyperlink ref="G49" r:id="rId85" xr:uid="{38B47C6B-AFDA-413E-AD52-FFC88C2ABD93}"/>
+    <hyperlink ref="G102" r:id="rId86" xr:uid="{CAD88304-8D3B-4162-9A57-C26A56223447}"/>
+    <hyperlink ref="G83" r:id="rId87" xr:uid="{37978353-E4FE-41E4-AB9B-61E9B77DCF7D}"/>
+    <hyperlink ref="G82" r:id="rId88" xr:uid="{E247006B-54EB-44A2-B29B-3A65FF554184}"/>
+    <hyperlink ref="G81" r:id="rId89" xr:uid="{6C782C4C-7EBA-44E1-A87B-EEE718175467}"/>
+    <hyperlink ref="G76" r:id="rId90" xr:uid="{F623A638-8730-48C6-8FA4-C2225EB8886C}"/>
+    <hyperlink ref="G99" r:id="rId91" xr:uid="{FC39948E-E006-41C3-8FA9-18559F5007A4}"/>
+    <hyperlink ref="G112" r:id="rId92" xr:uid="{71ED407B-B3D9-4551-8D2B-F8A006F87DBA}"/>
+    <hyperlink ref="G104" r:id="rId93" xr:uid="{EA853BDF-4F78-4843-BFF8-06BAFB667732}"/>
+    <hyperlink ref="G103" r:id="rId94" xr:uid="{A190CB2D-C19B-4F6D-91CD-1DC891047BCD}"/>
+    <hyperlink ref="G84" r:id="rId95" xr:uid="{6A7C57F3-4293-4E57-A819-7C8D0D8BE9F7}"/>
+    <hyperlink ref="G80" r:id="rId96" xr:uid="{92C4BFE0-15F5-4834-BEB4-717E965C54A7}"/>
+    <hyperlink ref="G86" r:id="rId97" xr:uid="{50973FF2-3FDE-4A60-9DC0-D39B2A620F6C}"/>
+    <hyperlink ref="G85" r:id="rId98" xr:uid="{D3C74365-D33D-4D87-AD88-3FA521438B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToHeight="0" orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74596AE-BA65-43C6-BFB1-FEC7E7BCF1F4}">
-  <dimension ref="E9:G13"/>
+  <dimension ref="E9:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6377,10 +7295,10 @@
   <sheetData>
     <row r="9" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G9">
         <v>9.99</v>
@@ -6388,10 +7306,10 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G12">
         <v>9.99</v>
@@ -6399,13 +7317,46 @@
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G13">
         <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20">
+        <v>34.99</v>
       </c>
     </row>
   </sheetData>
@@ -6413,7 +7364,96 @@
     <hyperlink ref="F9" r:id="rId1" xr:uid="{A4F525EA-3396-4B6E-AEB8-4A96367E1ABB}"/>
     <hyperlink ref="F12" r:id="rId2" display="https://www.amazon.com/ColumPRO-Coating-Heavy-Duty-Tapping-Stainless/dp/B0CRB7L6GT?crid=34ZN0R55AUPXO&amp;dib=eyJ2IjoiMSJ9.c8TqSS1rn-hghkjPK1adb-ofQirJbPfu4D6xnWoYFqpO97-3fO2ve2eWr_9y8RKBUFWAMt3aaoCNMZ_YlBAjAsu3RUlT1qd0mO2_jSfQcLrexYKJq9PokI8P8cLXw2pxwToisTU7C--kKmGDwrfObrUfo3r12V6T3hfr0LVoal0TL6IO4cP1gxIQZGo3hckuL6XPBzGBkmwHgFNPHUOKBHrhKhioiPEA35P27SI_77M.nBfaruZR_FlrSzLje-cMlOrPVzkWa1TuuwAXmbfG61Y&amp;dib_tag=se&amp;keywords=1%2F4%2BNPT%2BTap&amp;qid=1735309216&amp;sprefix=1%2F4%2Bnpt%2Btap%2Caps%2C134&amp;sr=8-8&amp;th=1" xr:uid="{B8F65671-DC2B-406B-8534-CA19BDAE43CF}"/>
     <hyperlink ref="F13" r:id="rId3" xr:uid="{50907F2A-6115-4098-8151-97B5E9A40D23}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{8673C807-9A1F-4B64-8536-2123DE5B9617}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{ACB3BD8D-A60E-462A-986B-164D6925E5F6}"/>
+    <hyperlink ref="F20" r:id="rId6" xr:uid="{2488F632-23CD-4B1D-80D5-CC87AB38E618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E5102B-C60B-45F7-99D3-4FD643D162CB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC74B92-87B0-4A22-A923-4C67B6D818A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/System Design and Documentation/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/Parts List and Cost Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1631" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2940CEE4-D78B-4199-8570-588D13F9F25F}"/>
+  <xr:revisionPtr revIDLastSave="1648" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5319F824-4FA3-4834-878F-B8FDC1A6E97A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Operational Consumables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts &amp; Assembly List'!$A$3:$M$465</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="314">
   <si>
     <t>$/kg</t>
   </si>
@@ -342,9 +342,6 @@
     <t>22 AWG Stranded Wire</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B07PCMTZHF/ref=ppx_yo_dt_b_asin_title_o02_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>Raspberry Pi Heat Sink and Fan</t>
   </si>
   <si>
@@ -978,9 +975,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Consumable</t>
-  </si>
-  <si>
     <t>Electronic Control</t>
   </si>
   <si>
@@ -991,6 +985,24 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07F7W91LC?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Consumable/General Purpose</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B00YWCQ86C?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>5/8" Steel Rod</t>
+  </si>
+  <si>
+    <t>Used to make Boring Bar for Machining</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07VWM4J4L?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1087,7 +1099,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,6 +1115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,11 +1441,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O463"/>
+  <dimension ref="A1:O448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="10" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1447,8 +1462,8 @@
         <v>41</v>
       </c>
       <c r="H1">
-        <f>SUM(K4:K464)</f>
-        <v>2244.4999999999991</v>
+        <f>SUM(K4:K465)</f>
+        <v>2256.9999999999986</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1622,7 +1637,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -1630,13 +1647,13 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7">
         <v>12.99</v>
@@ -1654,7 +1671,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">IF(OR(CELL("address")=CELL("address",A7),CELL("address")=CELL("address",B7),CELL("address")=CELL("address",C7),CELL("address")=CELL("address",D7),CELL("address")=CELL("address",E7),CELL("address")=CELL("address",F7),CELL("address")=CELL("address",G7),CELL("address")=CELL("address",H7),CELL("address")=CELL("address",I7)),NOW(),M7)</f>
-        <v>45642.655523842594</v>
+        <v>45795.50141921296</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1732,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">IF(OR(CELL("address")=CELL("address",A9),CELL("address")=CELL("address",B9),CELL("address")=CELL("address",C9),CELL("address")=CELL("address",D9),CELL("address")=CELL("address",E9),CELL("address")=CELL("address",F9),CELL("address")=CELL("address",G9),CELL("address")=CELL("address",H9),CELL("address")=CELL("address",I9)),NOW(),M9)</f>
@@ -1788,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>32</v>
@@ -1814,7 +1831,7 @@
         <v>6.99</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">IF(OR(CELL("address")=CELL("address",A11),CELL("address")=CELL("address",B11),CELL("address")=CELL("address",C11),CELL("address")=CELL("address",D11),CELL("address")=CELL("address",E11),CELL("address")=CELL("address",F11),CELL("address")=CELL("address",G11),CELL("address")=CELL("address",H11),CELL("address")=CELL("address",I11)),NOW(),M11)</f>
@@ -1829,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -1868,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
@@ -1906,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>37</v>
@@ -1944,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>39</v>
@@ -1982,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>36</v>
@@ -2020,21 +2037,21 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="12">
+        <v>219</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="12">
+        <v>218</v>
+      </c>
+      <c r="H17">
         <v>7.79</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17">
         <v>20</v>
       </c>
       <c r="J17" s="1">
@@ -2058,21 +2075,21 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="12">
+        <v>181</v>
+      </c>
+      <c r="H18">
         <v>7.99</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18">
         <v>5</v>
       </c>
       <c r="J18" s="1">
@@ -2096,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -2134,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
@@ -2160,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">IF(OR(CELL("address")=CELL("address",A20),CELL("address")=CELL("address",B20),CELL("address")=CELL("address",C20),CELL("address")=CELL("address",D20),CELL("address")=CELL("address",E20),CELL("address")=CELL("address",F20),CELL("address")=CELL("address",G20),CELL("address")=CELL("address",H20),CELL("address")=CELL("address",I20)),NOW(),M20)</f>
@@ -2219,13 +2236,13 @@
         <v>82</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22">
         <v>9.89</v>
@@ -2234,11 +2251,11 @@
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ref="J22:J25" si="4">ROUNDUP(F22/I22,0)</f>
+        <f t="shared" ref="J22:J24" si="4">ROUNDUP(F22/I22,0)</f>
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K25" si="5">J22*H22</f>
+        <f t="shared" ref="K22:K24" si="5">J22*H22</f>
         <v>9.89</v>
       </c>
       <c r="M22" s="3" cm="1">
@@ -2257,13 +2274,13 @@
         <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23">
         <v>8.99</v>
@@ -2285,7 +2302,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -2293,13 +2312,13 @@
         <v>82</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24">
         <v>13.99</v>
@@ -2320,44 +2339,6 @@
         <v>45642.648433912036</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>15.99</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="5"/>
-        <v>15.99</v>
-      </c>
-      <c r="M25" s="3" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">IF(OR(CELL("address")=CELL("address",A25),CELL("address")=CELL("address",B25),CELL("address")=CELL("address",C25),CELL("address")=CELL("address",D25),CELL("address")=CELL("address",E25),CELL("address")=CELL("address",F25),CELL("address")=CELL("address",G25),CELL("address")=CELL("address",H25),CELL("address")=CELL("address",I25)),NOW(),M25)</f>
-        <v>45794.746116550923</v>
-      </c>
-    </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>49</v>
@@ -2372,13 +2353,13 @@
         <v>82</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26">
         <v>8.99</v>
@@ -2454,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28">
         <v>67.989999999999995</v>
@@ -2509,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">IF(OR(CELL("address")=CELL("address",A29),CELL("address")=CELL("address",B29),CELL("address")=CELL("address",C29),CELL("address")=CELL("address",D29),CELL("address")=CELL("address",E29),CELL("address")=CELL("address",F29),CELL("address")=CELL("address",G29),CELL("address")=CELL("address",H29),CELL("address")=CELL("address",I29)),NOW(),M29)</f>
@@ -2527,13 +2508,13 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30">
         <v>7.69</v>
@@ -2571,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2610,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H32" s="6">
         <v>10.58</v>
@@ -2649,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="6">
         <v>23.53</v>
@@ -2681,13 +2662,13 @@
         <v>51</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34">
         <v>8.35</v>
@@ -2719,13 +2700,13 @@
         <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35">
         <v>70.98</v>
@@ -2742,7 +2723,7 @@
         <v>70.98</v>
       </c>
       <c r="L35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M35" s="3" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">IF(OR(CELL("address")=CELL("address",A35),CELL("address")=CELL("address",B35),CELL("address")=CELL("address",C35),CELL("address")=CELL("address",D35),CELL("address")=CELL("address",E35),CELL("address")=CELL("address",F35),CELL("address")=CELL("address",G35),CELL("address")=CELL("address",H35),CELL("address")=CELL("address",I35)),NOW(),M35)</f>
@@ -2766,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>13.76</v>
@@ -2804,7 +2785,7 @@
         <v>11.6</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H37">
         <v>27.5</v>
@@ -2839,13 +2820,13 @@
         <v>52</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H38">
         <v>5.99</v>
@@ -2862,7 +2843,7 @@
         <v>5.99</v>
       </c>
       <c r="L38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">IF(OR(CELL("address")=CELL("address",A38),CELL("address")=CELL("address",B38),CELL("address")=CELL("address",C38),CELL("address")=CELL("address",D38),CELL("address")=CELL("address",E38),CELL("address")=CELL("address",F38),CELL("address")=CELL("address",G38),CELL("address")=CELL("address",H38),CELL("address")=CELL("address",I38)),NOW(),M38)</f>
@@ -2886,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39">
         <v>5.98</v>
@@ -2927,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40">
         <v>13.76</v>
@@ -2965,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41">
         <v>5.01</v>
@@ -3000,13 +2981,13 @@
         <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H42">
         <v>8.73</v>
@@ -3038,7 +3019,7 @@
         <v>53</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -3057,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M43" s="3" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">IF(OR(CELL("address")=CELL("address",A43),CELL("address")=CELL("address",B43),CELL("address")=CELL("address",C43),CELL("address")=CELL("address",D43),CELL("address")=CELL("address",E43),CELL("address")=CELL("address",F43),CELL("address")=CELL("address",G43),CELL("address")=CELL("address",H43),CELL("address")=CELL("address",I43)),NOW(),M43)</f>
@@ -3075,13 +3056,13 @@
         <v>53</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H44">
         <v>10.99</v>
@@ -3107,19 +3088,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H45">
         <v>7.99</v>
@@ -3136,7 +3117,7 @@
         <v>7.99</v>
       </c>
       <c r="L45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M45" s="3" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">IF(OR(CELL("address")=CELL("address",A45),CELL("address")=CELL("address",B45),CELL("address")=CELL("address",C45),CELL("address")=CELL("address",D45),CELL("address")=CELL("address",E45),CELL("address")=CELL("address",F45),CELL("address")=CELL("address",G45),CELL("address")=CELL("address",H45),CELL("address")=CELL("address",I45)),NOW(),M45)</f>
@@ -3148,19 +3129,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H46">
         <v>23.99</v>
@@ -3186,19 +3167,19 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F47">
         <v>25</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H47">
         <v>8.99</v>
@@ -3227,19 +3208,19 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H48">
         <v>56.3</v>
@@ -3268,19 +3249,19 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H49">
         <v>24.99</v>
@@ -3306,19 +3287,19 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50">
         <v>8.99</v>
@@ -3344,19 +3325,19 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H51">
         <v>9.99</v>
@@ -3382,19 +3363,19 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H52">
         <v>12.29</v>
@@ -3420,19 +3401,19 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53">
         <v>8.19</v>
@@ -3458,16 +3439,16 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54">
         <v>16.91</v>
@@ -3484,7 +3465,7 @@
         <v>16.91</v>
       </c>
       <c r="L54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M54" s="3" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">IF(OR(CELL("address")=CELL("address",A54),CELL("address")=CELL("address",B54),CELL("address")=CELL("address",C54),CELL("address")=CELL("address",D54),CELL("address")=CELL("address",E54),CELL("address")=CELL("address",F54),CELL("address")=CELL("address",G54),CELL("address")=CELL("address",H54),CELL("address")=CELL("address",I54)),NOW(),M54)</f>
@@ -3496,19 +3477,19 @@
         <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55">
         <v>20</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55">
         <v>12.88</v>
@@ -3534,19 +3515,19 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H56">
         <v>9.99</v>
@@ -3563,7 +3544,7 @@
         <v>39.96</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M56" s="3" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">IF(OR(CELL("address")=CELL("address",A56),CELL("address")=CELL("address",B56),CELL("address")=CELL("address",C56),CELL("address")=CELL("address",D56),CELL("address")=CELL("address",E56),CELL("address")=CELL("address",F56),CELL("address")=CELL("address",G56),CELL("address")=CELL("address",H56),CELL("address")=CELL("address",I56)),NOW(),M56)</f>
@@ -3575,19 +3556,19 @@
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H57">
         <v>12.49</v>
@@ -3604,7 +3585,7 @@
         <v>12.49</v>
       </c>
       <c r="L57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M57" s="3" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">IF(OR(CELL("address")=CELL("address",A57),CELL("address")=CELL("address",B57),CELL("address")=CELL("address",C57),CELL("address")=CELL("address",D57),CELL("address")=CELL("address",E57),CELL("address")=CELL("address",F57),CELL("address")=CELL("address",G57),CELL("address")=CELL("address",H57),CELL("address")=CELL("address",I57)),NOW(),M57)</f>
@@ -3616,19 +3597,19 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3654,19 +3635,19 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H59">
         <v>17.59</v>
@@ -3692,19 +3673,19 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H60">
         <v>6.69</v>
@@ -3730,19 +3711,19 @@
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3765,16 +3746,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3806,13 +3787,13 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -3844,19 +3825,19 @@
         <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64">
         <v>13.63</v>
@@ -3885,19 +3866,19 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H65">
         <v>8.2899999999999991</v>
@@ -3926,10 +3907,10 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>25</v>
@@ -3938,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H66">
         <v>60.97</v>
@@ -3964,20 +3945,20 @@
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67">
         <f>8*4</f>
         <v>32</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H67">
         <v>9.69</v>
@@ -4003,19 +3984,19 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F68">
         <v>32</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H68">
         <v>6.99</v>
@@ -4041,10 +4022,10 @@
         <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>35</v>
@@ -4053,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H69">
         <v>9.99</v>
@@ -4079,19 +4060,19 @@
         <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H70">
         <v>3.3</v>
@@ -4120,19 +4101,19 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H71">
         <v>7.99</v>
@@ -4141,15 +4122,15 @@
         <v>10</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" ref="J71:J119" si="26">ROUNDUP(F71/I71,0)</f>
+        <f t="shared" ref="J71:J120" si="26">ROUNDUP(F71/I71,0)</f>
         <v>1</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" ref="K71:K119" si="27">J71*H71</f>
+        <f t="shared" ref="K71:K120" si="27">J71*H71</f>
         <v>7.99</v>
       </c>
       <c r="L71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M71" s="3" cm="1">
         <f t="array" aca="1" ref="M71" ca="1">IF(OR(CELL("address")=CELL("address",A71),CELL("address")=CELL("address",B71),CELL("address")=CELL("address",C71),CELL("address")=CELL("address",D71),CELL("address")=CELL("address",E71),CELL("address")=CELL("address",F71),CELL("address")=CELL("address",G71),CELL("address")=CELL("address",H71),CELL("address")=CELL("address",I71)),NOW(),M71)</f>
@@ -4161,19 +4142,19 @@
         <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4199,19 +4180,19 @@
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4237,19 +4218,19 @@
         <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H74">
         <v>8.39</v>
@@ -4278,19 +4259,19 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H75">
         <v>18.989999999999998</v>
@@ -4316,19 +4297,19 @@
         <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F76">
         <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H76">
         <v>5.59</v>
@@ -4354,19 +4335,19 @@
         <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F77">
         <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H77">
         <v>9.99</v>
@@ -4392,19 +4373,19 @@
         <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78">
         <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H78">
         <v>6.85</v>
@@ -4430,19 +4411,19 @@
         <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H79">
         <v>31.18</v>
@@ -4468,19 +4449,19 @@
         <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H80">
         <v>6.99</v>
@@ -4506,19 +4487,19 @@
         <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F81">
         <v>4</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H81">
         <v>8.49</v>
@@ -4544,19 +4525,19 @@
         <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="H82">
         <v>13.99</v>
@@ -4582,19 +4563,19 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H83">
         <v>26.99</v>
@@ -4620,19 +4601,19 @@
         <v>49</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H84">
         <v>28.9</v>
@@ -4658,19 +4639,19 @@
         <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H85">
         <v>40</v>
@@ -4696,19 +4677,19 @@
         <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F86">
         <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H86">
         <v>22</v>
@@ -4763,7 +4744,7 @@
         <v>12.99</v>
       </c>
       <c r="L87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M87" s="3" cm="1">
         <f t="array" aca="1" ref="M87" ca="1">IF(OR(CELL("address")=CELL("address",A87),CELL("address")=CELL("address",B87),CELL("address")=CELL("address",C87),CELL("address")=CELL("address",D87),CELL("address")=CELL("address",E87),CELL("address")=CELL("address",F87),CELL("address")=CELL("address",G87),CELL("address")=CELL("address",H87),CELL("address")=CELL("address",I87)),NOW(),M87)</f>
@@ -4781,13 +4762,13 @@
         <v>85</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="H88">
         <v>9.99</v>
@@ -4857,13 +4838,13 @@
         <v>85</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90">
         <v>36.950000000000003</v>
@@ -4895,13 +4876,13 @@
         <v>85</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H91">
         <v>13.99</v>
@@ -4933,13 +4914,13 @@
         <v>85</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H92">
         <v>7.99</v>
@@ -4971,13 +4952,13 @@
         <v>85</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H93">
         <v>9.99</v>
@@ -5009,13 +4990,13 @@
         <v>85</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H94">
         <v>4.99</v>
@@ -5044,13 +5025,13 @@
         <v>85</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H95">
         <v>18.98</v>
@@ -5082,13 +5063,13 @@
         <v>85</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H96">
         <v>9.99</v>
@@ -5117,13 +5098,13 @@
         <v>85</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H97">
         <v>9.2899999999999991</v>
@@ -5155,13 +5136,13 @@
         <v>85</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H98">
         <v>15.99</v>
@@ -5183,44 +5164,27 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A99" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" t="s">
-        <v>281</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="E99" s="5"/>
       <c r="F99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="H99">
-        <v>6.99</v>
+        <v>7.49</v>
       </c>
       <c r="I99">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J99" s="1">
-        <f>ROUNDUP(F99/I99,0)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K99" s="1">
-        <f>J99*H99</f>
-        <v>6.99</v>
-      </c>
-      <c r="M99" s="3" cm="1">
-        <f t="array" aca="1" ref="M99" ca="1">IF(OR(CELL("address")=CELL("address",A99),CELL("address")=CELL("address",B99),CELL("address")=CELL("address",C99),CELL("address")=CELL("address",D99),CELL("address")=CELL("address",E99),CELL("address")=CELL("address",F99),CELL("address")=CELL("address",G99),CELL("address")=CELL("address",H99),CELL("address")=CELL("address",I99)),NOW(),M99)</f>
-        <v>45794.88801412037</v>
+        <f t="shared" si="27"/>
+        <v>7.49</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
@@ -5234,22 +5198,22 @@
         <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="H100">
-        <v>18</v>
+        <v>6.99</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J100" s="1">
         <f>ROUNDUP(F100/I100,0)</f>
@@ -5257,14 +5221,11 @@
       </c>
       <c r="K100" s="1">
         <f>J100*H100</f>
-        <v>18</v>
-      </c>
-      <c r="L100" t="s">
-        <v>283</v>
+        <v>6.99</v>
       </c>
       <c r="M100" s="3" cm="1">
         <f t="array" aca="1" ref="M100" ca="1">IF(OR(CELL("address")=CELL("address",A100),CELL("address")=CELL("address",B100),CELL("address")=CELL("address",C100),CELL("address")=CELL("address",D100),CELL("address")=CELL("address",E100),CELL("address")=CELL("address",F100),CELL("address")=CELL("address",G100),CELL("address")=CELL("address",H100),CELL("address")=CELL("address",I100)),NOW(),M100)</f>
-        <v>45795.004241550923</v>
+        <v>45794.88801412037</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
@@ -5278,34 +5239,37 @@
         <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="H101">
-        <v>8.99</v>
+        <v>18</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" ref="J101:J105" si="38">ROUNDUP(F101/I101,0)</f>
+        <f>ROUNDUP(F101/I101,0)</f>
         <v>1</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" ref="K101:K105" si="39">J101*H101</f>
-        <v>8.99</v>
+        <f>J101*H101</f>
+        <v>18</v>
+      </c>
+      <c r="L101" t="s">
+        <v>282</v>
       </c>
       <c r="M101" s="3" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">IF(OR(CELL("address")=CELL("address",A101),CELL("address")=CELL("address",B101),CELL("address")=CELL("address",C101),CELL("address")=CELL("address",D101),CELL("address")=CELL("address",E101),CELL("address")=CELL("address",F101),CELL("address")=CELL("address",G101),CELL("address")=CELL("address",H101),CELL("address")=CELL("address",I101)),NOW(),M101)</f>
-        <v>45795.004385532404</v>
+        <v>45795.004241550923</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
@@ -5319,109 +5283,112 @@
         <v>85</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102">
+        <v>8.99</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" ref="J102:J106" si="38">ROUNDUP(F102/I102,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" ref="K102:K106" si="39">J102*H102</f>
+        <v>8.99</v>
+      </c>
+      <c r="M102" s="3" cm="1">
+        <f t="array" aca="1" ref="M102" ca="1">IF(OR(CELL("address")=CELL("address",A102),CELL("address")=CELL("address",B102),CELL("address")=CELL("address",C102),CELL("address")=CELL("address",D102),CELL("address")=CELL("address",E102),CELL("address")=CELL("address",F102),CELL("address")=CELL("address",G102),CELL("address")=CELL("address",H102),CELL("address")=CELL("address",I102)),NOW(),M102)</f>
+        <v>45795.004385532404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H102">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H103">
         <v>15.59</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1">
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K103" s="1">
         <f t="shared" si="39"/>
         <v>15.59</v>
       </c>
-      <c r="L102" t="s">
-        <v>269</v>
-      </c>
-      <c r="M102" s="3" cm="1">
-        <f t="array" aca="1" ref="M102" ca="1">IF(OR(CELL("address")=CELL("address",A102),CELL("address")=CELL("address",B102),CELL("address")=CELL("address",C102),CELL("address")=CELL("address",D102),CELL("address")=CELL("address",E102),CELL("address")=CELL("address",F102),CELL("address")=CELL("address",G102),CELL("address")=CELL("address",H102),CELL("address")=CELL("address",I102)),NOW(),M102)</f>
+      <c r="L103" t="s">
+        <v>268</v>
+      </c>
+      <c r="M103" s="3" cm="1">
+        <f t="array" aca="1" ref="M103" ca="1">IF(OR(CELL("address")=CELL("address",A103),CELL("address")=CELL("address",B103),CELL("address")=CELL("address",C103),CELL("address")=CELL("address",D103),CELL("address")=CELL("address",E103),CELL("address")=CELL("address",F103),CELL("address")=CELL("address",G103),CELL("address")=CELL("address",H103),CELL("address")=CELL("address",I103)),NOW(),M103)</f>
         <v>45794.921978819446</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A103" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
         <v>19</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>85</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="E104" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="H103">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H104">
         <v>12.99</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K104" s="1">
         <f t="shared" si="39"/>
         <v>12.99</v>
-      </c>
-      <c r="M103" s="3" cm="1">
-        <f t="array" aca="1" ref="M103" ca="1">IF(OR(CELL("address")=CELL("address",A103),CELL("address")=CELL("address",B103),CELL("address")=CELL("address",C103),CELL("address")=CELL("address",D103),CELL("address")=CELL("address",E103),CELL("address")=CELL("address",F103),CELL("address")=CELL("address",G103),CELL("address")=CELL("address",H103),CELL("address")=CELL("address",I103)),NOW(),M103)</f>
-        <v>45794.996380555553</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A104" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H104">
-        <v>10.99</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="K104" s="1">
-        <f t="shared" si="39"/>
-        <v>10.99</v>
       </c>
       <c r="M104" s="3" cm="1">
         <f t="array" aca="1" ref="M104" ca="1">IF(OR(CELL("address")=CELL("address",A104),CELL("address")=CELL("address",B104),CELL("address")=CELL("address",C104),CELL("address")=CELL("address",D104),CELL("address")=CELL("address",E104),CELL("address")=CELL("address",F104),CELL("address")=CELL("address",G104),CELL("address")=CELL("address",H104),CELL("address")=CELL("address",I104)),NOW(),M104)</f>
@@ -5439,16 +5406,16 @@
         <v>85</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="H105">
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -5459,11 +5426,11 @@
       </c>
       <c r="K105" s="1">
         <f t="shared" si="39"/>
-        <v>11.99</v>
+        <v>10.99</v>
       </c>
       <c r="M105" s="3" cm="1">
         <f t="array" aca="1" ref="M105" ca="1">IF(OR(CELL("address")=CELL("address",A105),CELL("address")=CELL("address",B105),CELL("address")=CELL("address",C105),CELL("address")=CELL("address",D105),CELL("address")=CELL("address",E105),CELL("address")=CELL("address",F105),CELL("address")=CELL("address",G105),CELL("address")=CELL("address",H105),CELL("address")=CELL("address",I105)),NOW(),M105)</f>
-        <v>45794.88801412037</v>
+        <v>45794.996380555553</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
@@ -5476,76 +5443,73 @@
       <c r="C106" t="s">
         <v>85</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106">
+        <v>11.99</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="39"/>
+        <v>11.99</v>
+      </c>
+      <c r="M106" s="3" cm="1">
+        <f t="array" aca="1" ref="M106" ca="1">IF(OR(CELL("address")=CELL("address",A106),CELL("address")=CELL("address",B106),CELL("address")=CELL("address",C106),CELL("address")=CELL("address",D106),CELL("address")=CELL("address",E106),CELL("address")=CELL("address",F106),CELL("address")=CELL("address",G106),CELL("address")=CELL("address",H106),CELL("address")=CELL("address",I106)),NOW(),M106)</f>
+        <v>45794.88801412037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H106">
+      <c r="H107">
         <v>70.5</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1">
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <f t="shared" si="27"/>
         <v>70.5</v>
       </c>
-      <c r="M106" s="3" cm="1">
-        <f t="array" aca="1" ref="M106" ca="1">IF(OR(CELL("address")=CELL("address",A106),CELL("address")=CELL("address",B106),CELL("address")=CELL("address",C106),CELL("address")=CELL("address",D106),CELL("address")=CELL("address",E106),CELL("address")=CELL("address",F106),CELL("address")=CELL("address",G106),CELL("address")=CELL("address",H106),CELL("address")=CELL("address",I106)),NOW(),M106)</f>
-        <v>45795.006290509256</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A107" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" t="s">
-        <v>90</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H107">
-        <v>8.98</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="K107" s="1">
-        <f t="shared" si="27"/>
-        <v>8.98</v>
-      </c>
       <c r="M107" s="3" cm="1">
         <f t="array" aca="1" ref="M107" ca="1">IF(OR(CELL("address")=CELL("address",A107),CELL("address")=CELL("address",B107),CELL("address")=CELL("address",C107),CELL("address")=CELL("address",D107),CELL("address")=CELL("address",E107),CELL("address")=CELL("address",F107),CELL("address")=CELL("address",G107),CELL("address")=CELL("address",H107),CELL("address")=CELL("address",I107)),NOW(),M107)</f>
-        <v>45643.709466666667</v>
+        <v>45795.006290509256</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
@@ -5562,16 +5526,16 @@
         <v>90</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="H108">
-        <v>33.92</v>
+        <v>13.99</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -5582,14 +5546,11 @@
       </c>
       <c r="K108" s="1">
         <f t="shared" si="27"/>
-        <v>33.92</v>
-      </c>
-      <c r="L108" t="s">
-        <v>96</v>
+        <v>13.99</v>
       </c>
       <c r="M108" s="3" cm="1">
         <f t="array" aca="1" ref="M108" ca="1">IF(OR(CELL("address")=CELL("address",A108),CELL("address")=CELL("address",B108),CELL("address")=CELL("address",C108),CELL("address")=CELL("address",D108),CELL("address")=CELL("address",E108),CELL("address")=CELL("address",F108),CELL("address")=CELL("address",G108),CELL("address")=CELL("address",H108),CELL("address")=CELL("address",I108)),NOW(),M108)</f>
-        <v>45642.605838310184</v>
+        <v>45795.703231018517</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
@@ -5606,19 +5567,19 @@
         <v>90</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="H109">
-        <v>15.99</v>
+        <v>33.92</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" si="26"/>
@@ -5626,11 +5587,14 @@
       </c>
       <c r="K109" s="1">
         <f t="shared" si="27"/>
-        <v>15.99</v>
+        <v>33.92</v>
+      </c>
+      <c r="L109" t="s">
+        <v>95</v>
       </c>
       <c r="M109" s="3" cm="1">
         <f t="array" aca="1" ref="M109" ca="1">IF(OR(CELL("address")=CELL("address",A109),CELL("address")=CELL("address",B109),CELL("address")=CELL("address",C109),CELL("address")=CELL("address",D109),CELL("address")=CELL("address",E109),CELL("address")=CELL("address",F109),CELL("address")=CELL("address",G109),CELL("address")=CELL("address",H109),CELL("address")=CELL("address",I109)),NOW(),M109)</f>
-        <v>45643.709010995372</v>
+        <v>45795.817220254627</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
@@ -5644,34 +5608,34 @@
         <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>285</v>
+        <v>46</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>15.99</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" ref="J110" si="40">ROUNDUP(F110/I110,0)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="K110" s="1">
-        <f>J110*H110</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>217</v>
+        <f t="shared" si="27"/>
+        <v>15.99</v>
       </c>
       <c r="M110" s="3" cm="1">
         <f t="array" aca="1" ref="M110" ca="1">IF(OR(CELL("address")=CELL("address",A110),CELL("address")=CELL("address",B110),CELL("address")=CELL("address",C110),CELL("address")=CELL("address",D110),CELL("address")=CELL("address",E110),CELL("address")=CELL("address",F110),CELL("address")=CELL("address",G110),CELL("address")=CELL("address",H110),CELL("address")=CELL("address",I110)),NOW(),M110)</f>
-        <v>45794.999953935185</v>
+        <v>45643.709010995372</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
@@ -5685,386 +5649,462 @@
         <v>85</v>
       </c>
       <c r="D111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
       <c r="G111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" ref="J111" si="40">ROUNDUP(F111/I111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <f>J111*H111</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M111" s="3" cm="1">
+        <f t="array" aca="1" ref="M111" ca="1">IF(OR(CELL("address")=CELL("address",A111),CELL("address")=CELL("address",B111),CELL("address")=CELL("address",C111),CELL("address")=CELL("address",D111),CELL("address")=CELL("address",E111),CELL("address")=CELL("address",F111),CELL("address")=CELL("address",G111),CELL("address")=CELL("address",H111),CELL("address")=CELL("address",I111)),NOW(),M111)</f>
+        <v>45794.999953935185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A112" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H111">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H112">
         <v>16.989999999999998</v>
       </c>
-      <c r="I111">
+      <c r="I112">
         <v>10</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J112" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K112" s="1">
         <f t="shared" si="27"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="M111" s="3" cm="1">
-        <f t="array" aca="1" ref="M111" ca="1">IF(OR(CELL("address")=CELL("address",A111),CELL("address")=CELL("address",B111),CELL("address")=CELL("address",C111),CELL("address")=CELL("address",D111),CELL("address")=CELL("address",E111),CELL("address")=CELL("address",F111),CELL("address")=CELL("address",G111),CELL("address")=CELL("address",H111),CELL("address")=CELL("address",I111)),NOW(),M111)</f>
+      <c r="M112" s="3" cm="1">
+        <f t="array" aca="1" ref="M112" ca="1">IF(OR(CELL("address")=CELL("address",A112),CELL("address")=CELL("address",B112),CELL("address")=CELL("address",C112),CELL("address")=CELL("address",D112),CELL("address")=CELL("address",E112),CELL("address")=CELL("address",F112),CELL("address")=CELL("address",G112),CELL("address")=CELL("address",H112),CELL("address")=CELL("address",I112)),NOW(),M112)</f>
         <v>45794.983736458336</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A112" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
         <v>85</v>
       </c>
-      <c r="D112" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H112">
+      <c r="D113" t="s">
+        <v>283</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H113">
         <v>5.99</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K113" s="1">
         <f t="shared" si="27"/>
         <v>5.99</v>
       </c>
-      <c r="M112" s="3" cm="1">
-        <f t="array" aca="1" ref="M112" ca="1">IF(OR(CELL("address")=CELL("address",A112),CELL("address")=CELL("address",B112),CELL("address")=CELL("address",C112),CELL("address")=CELL("address",D112),CELL("address")=CELL("address",E112),CELL("address")=CELL("address",F112),CELL("address")=CELL("address",G112),CELL("address")=CELL("address",H112),CELL("address")=CELL("address",I112)),NOW(),M112)</f>
+      <c r="M113" s="3" cm="1">
+        <f t="array" aca="1" ref="M113" ca="1">IF(OR(CELL("address")=CELL("address",A113),CELL("address")=CELL("address",B113),CELL("address")=CELL("address",C113),CELL("address")=CELL("address",D113),CELL("address")=CELL("address",E113),CELL("address")=CELL("address",F113),CELL("address")=CELL("address",G113),CELL("address")=CELL("address",H113),CELL("address")=CELL("address",I113)),NOW(),M113)</f>
         <v>45795.012884837961</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A113" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
         <v>19</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>85</v>
       </c>
-      <c r="D113" t="s">
-        <v>284</v>
-      </c>
-      <c r="E113" s="5" t="s">
+      <c r="D114" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H113">
+      <c r="H114">
         <v>22.99</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1">
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K114" s="1">
         <f t="shared" si="27"/>
         <v>22.99</v>
       </c>
-      <c r="M113" s="3" cm="1">
-        <f t="array" aca="1" ref="M113" ca="1">IF(OR(CELL("address")=CELL("address",A113),CELL("address")=CELL("address",B113),CELL("address")=CELL("address",C113),CELL("address")=CELL("address",D113),CELL("address")=CELL("address",E113),CELL("address")=CELL("address",F113),CELL("address")=CELL("address",G113),CELL("address")=CELL("address",H113),CELL("address")=CELL("address",I113)),NOW(),M113)</f>
+      <c r="M114" s="3" cm="1">
+        <f t="array" aca="1" ref="M114" ca="1">IF(OR(CELL("address")=CELL("address",A114),CELL("address")=CELL("address",B114),CELL("address")=CELL("address",C114),CELL("address")=CELL("address",D114),CELL("address")=CELL("address",E114),CELL("address")=CELL("address",F114),CELL("address")=CELL("address",G114),CELL("address")=CELL("address",H114),CELL("address")=CELL("address",I114)),NOW(),M114)</f>
         <v>45643.705772337962</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A114" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A115" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
         <v>19</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H114">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H115">
         <v>15.19</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1">
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K115" s="1">
         <f t="shared" si="27"/>
         <v>15.19</v>
       </c>
-      <c r="M114" s="3" cm="1">
-        <f t="array" aca="1" ref="M114" ca="1">IF(OR(CELL("address")=CELL("address",A114),CELL("address")=CELL("address",B114),CELL("address")=CELL("address",C114),CELL("address")=CELL("address",D114),CELL("address")=CELL("address",E114),CELL("address")=CELL("address",F114),CELL("address")=CELL("address",G114),CELL("address")=CELL("address",H114),CELL("address")=CELL("address",I114)),NOW(),M114)</f>
+      <c r="M115" s="3" cm="1">
+        <f t="array" aca="1" ref="M115" ca="1">IF(OR(CELL("address")=CELL("address",A115),CELL("address")=CELL("address",B115),CELL("address")=CELL("address",C115),CELL("address")=CELL("address",D115),CELL("address")=CELL("address",E115),CELL("address")=CELL("address",F115),CELL("address")=CELL("address",G115),CELL("address")=CELL("address",H115),CELL("address")=CELL("address",I115)),NOW(),M115)</f>
         <v>45643.707148842594</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A115" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
         <v>19</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>85</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H115">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116">
         <v>9.49</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K116" s="1">
         <f t="shared" si="27"/>
         <v>9.49</v>
       </c>
-      <c r="M115" s="3" cm="1">
-        <f t="array" aca="1" ref="M115" ca="1">IF(OR(CELL("address")=CELL("address",A115),CELL("address")=CELL("address",B115),CELL("address")=CELL("address",C115),CELL("address")=CELL("address",D115),CELL("address")=CELL("address",E115),CELL("address")=CELL("address",F115),CELL("address")=CELL("address",G115),CELL("address")=CELL("address",H115),CELL("address")=CELL("address",I115)),NOW(),M115)</f>
+      <c r="M116" s="3" cm="1">
+        <f t="array" aca="1" ref="M116" ca="1">IF(OR(CELL("address")=CELL("address",A116),CELL("address")=CELL("address",B116),CELL("address")=CELL("address",C116),CELL("address")=CELL("address",D116),CELL("address")=CELL("address",E116),CELL("address")=CELL("address",F116),CELL("address")=CELL("address",G116),CELL("address")=CELL("address",H116),CELL("address")=CELL("address",I116)),NOW(),M116)</f>
         <v>45643.699993402777</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A116" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A117" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
         <v>19</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>85</v>
       </c>
-      <c r="D116" t="s">
-        <v>197</v>
-      </c>
-      <c r="E116" s="5" t="s">
+      <c r="D117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <v>3.99</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1">
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K117" s="1">
         <f t="shared" si="27"/>
         <v>3.99</v>
       </c>
-      <c r="L116" t="s">
-        <v>198</v>
-      </c>
-      <c r="M116" s="3" cm="1">
-        <f t="array" aca="1" ref="M116" ca="1">IF(OR(CELL("address")=CELL("address",A116),CELL("address")=CELL("address",B116),CELL("address")=CELL("address",C116),CELL("address")=CELL("address",D116),CELL("address")=CELL("address",E116),CELL("address")=CELL("address",F116),CELL("address")=CELL("address",G116),CELL("address")=CELL("address",H116),CELL("address")=CELL("address",I116)),NOW(),M116)</f>
+      <c r="L117" t="s">
+        <v>197</v>
+      </c>
+      <c r="M117" s="3" cm="1">
+        <f t="array" aca="1" ref="M117" ca="1">IF(OR(CELL("address")=CELL("address",A117),CELL("address")=CELL("address",B117),CELL("address")=CELL("address",C117),CELL("address")=CELL("address",D117),CELL("address")=CELL("address",E117),CELL("address")=CELL("address",F117),CELL("address")=CELL("address",G117),CELL("address")=CELL("address",H117),CELL("address")=CELL("address",I117)),NOW(),M117)</f>
         <v>45663.844060416668</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A117" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A118" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
         <v>19</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>85</v>
       </c>
-      <c r="D117" t="s">
-        <v>197</v>
-      </c>
-      <c r="E117" s="5" t="s">
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H117">
+      <c r="H118">
         <v>7.99</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K118" s="1">
         <f t="shared" si="27"/>
         <v>7.99</v>
       </c>
-      <c r="M117" s="3" cm="1">
-        <f t="array" aca="1" ref="M117" ca="1">IF(OR(CELL("address")=CELL("address",A117),CELL("address")=CELL("address",B117),CELL("address")=CELL("address",C117),CELL("address")=CELL("address",D117),CELL("address")=CELL("address",E117),CELL("address")=CELL("address",F117),CELL("address")=CELL("address",G117),CELL("address")=CELL("address",H117),CELL("address")=CELL("address",I117)),NOW(),M117)</f>
+      <c r="M118" s="3" cm="1">
+        <f t="array" aca="1" ref="M118" ca="1">IF(OR(CELL("address")=CELL("address",A118),CELL("address")=CELL("address",B118),CELL("address")=CELL("address",C118),CELL("address")=CELL("address",D118),CELL("address")=CELL("address",E118),CELL("address")=CELL("address",F118),CELL("address")=CELL("address",G118),CELL("address")=CELL("address",H118),CELL("address")=CELL("address",I118)),NOW(),M118)</f>
         <v>45663.844104976852</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A118" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A119" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" t="s">
         <v>19</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>85</v>
       </c>
-      <c r="D118" t="s">
-        <v>197</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="D119" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H118">
+      <c r="H119">
         <v>23.99</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1">
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K119" s="1">
         <f t="shared" si="27"/>
         <v>23.99</v>
       </c>
-      <c r="M118" s="3" cm="1">
-        <f t="array" aca="1" ref="M118" ca="1">IF(OR(CELL("address")=CELL("address",A118),CELL("address")=CELL("address",B118),CELL("address")=CELL("address",C118),CELL("address")=CELL("address",D118),CELL("address")=CELL("address",E118),CELL("address")=CELL("address",F118),CELL("address")=CELL("address",G118),CELL("address")=CELL("address",H118),CELL("address")=CELL("address",I118)),NOW(),M118)</f>
+      <c r="M119" s="3" cm="1">
+        <f t="array" aca="1" ref="M119" ca="1">IF(OR(CELL("address")=CELL("address",A119),CELL("address")=CELL("address",B119),CELL("address")=CELL("address",C119),CELL("address")=CELL("address",D119),CELL("address")=CELL("address",E119),CELL("address")=CELL("address",F119),CELL("address")=CELL("address",G119),CELL("address")=CELL("address",H119),CELL("address")=CELL("address",I119)),NOW(),M119)</f>
         <v>45663.844116319444</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A119" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C119" t="s">
-        <v>304</v>
-      </c>
-      <c r="E119" s="5" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A120" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
+        <v>303</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H119">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H120">
         <v>13.99</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K120" s="1">
         <f t="shared" si="27"/>
         <v>13.99</v>
       </c>
-      <c r="M119" s="3" cm="1">
-        <f t="array" aca="1" ref="M119" ca="1">IF(OR(CELL("address")=CELL("address",A119),CELL("address")=CELL("address",B119),CELL("address")=CELL("address",C119),CELL("address")=CELL("address",D119),CELL("address")=CELL("address",E119),CELL("address")=CELL("address",F119),CELL("address")=CELL("address",G119),CELL("address")=CELL("address",H119),CELL("address")=CELL("address",I119)),NOW(),M119)</f>
-        <v>45795.013606250002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A120" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" t="s">
-        <v>304</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <f>ROUNDUP(F120/I120,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K120" s="1">
-        <f>J120*H120</f>
-        <v>0</v>
-      </c>
       <c r="M120" s="3" cm="1">
         <f t="array" aca="1" ref="M120" ca="1">IF(OR(CELL("address")=CELL("address",A120),CELL("address")=CELL("address",B120),CELL("address")=CELL("address",C120),CELL("address")=CELL("address",D120),CELL("address")=CELL("address",E120),CELL("address")=CELL("address",F120),CELL("address")=CELL("address",G120),CELL("address")=CELL("address",H120),CELL("address")=CELL("address",I120)),NOW(),M120)</f>
+        <v>45795.500414351853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A121" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>303</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <f>ROUNDUP(F121/I121,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K121" s="1">
+        <f>J121*H121</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="3" cm="1">
+        <f t="array" aca="1" ref="M121" ca="1">IF(OR(CELL("address")=CELL("address",A121),CELL("address")=CELL("address",B121),CELL("address")=CELL("address",C121),CELL("address")=CELL("address",D121),CELL("address")=CELL("address",E121),CELL("address")=CELL("address",F121),CELL("address")=CELL("address",G121),CELL("address")=CELL("address",H121),CELL("address")=CELL("address",I121)),NOW(),M121)</f>
         <v>45795.006454050927</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M122"/>
+      <c r="A122" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="s">
+        <v>303</v>
+      </c>
+      <c r="D122" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H122">
+        <v>15.99</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <f>ROUNDUP(F122/I122,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
+        <f>J122*H122</f>
+        <v>15.99</v>
+      </c>
+      <c r="M122" s="3" cm="1">
+        <f t="array" aca="1" ref="M122" ca="1">IF(OR(CELL("address")=CELL("address",A122),CELL("address")=CELL("address",B122),CELL("address")=CELL("address",C122),CELL("address")=CELL("address",D122),CELL("address")=CELL("address",E122),CELL("address")=CELL("address",F122),CELL("address")=CELL("address",G122),CELL("address")=CELL("address",H122),CELL("address")=CELL("address",I122)),NOW(),M122)</f>
+        <v>45795.501752199074</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M123"/>
@@ -6996,183 +7036,58 @@
     <row r="432" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M432"/>
     </row>
-    <row r="433" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M433"/>
     </row>
-    <row r="434" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M434"/>
     </row>
-    <row r="435" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M435"/>
     </row>
-    <row r="436" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M436"/>
     </row>
-    <row r="437" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M437"/>
     </row>
-    <row r="438" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M438"/>
     </row>
-    <row r="439" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M439"/>
     </row>
-    <row r="440" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M440"/>
     </row>
-    <row r="441" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M441"/>
     </row>
-    <row r="442" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M442"/>
     </row>
-    <row r="443" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M443"/>
     </row>
-    <row r="444" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M444"/>
     </row>
-    <row r="445" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M445"/>
     </row>
-    <row r="446" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M446"/>
     </row>
-    <row r="447" spans="6:13" x14ac:dyDescent="0.45">
+    <row r="447" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M447"/>
     </row>
-    <row r="448" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F448" s="12"/>
-      <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
-      <c r="I448" s="12"/>
-      <c r="J448" s="12"/>
-      <c r="K448" s="12"/>
-    </row>
-    <row r="449" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F449" s="12"/>
-      <c r="G449" s="12"/>
-      <c r="H449" s="12"/>
-      <c r="I449" s="12"/>
-      <c r="J449" s="12"/>
-      <c r="K449" s="12"/>
-    </row>
-    <row r="450" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F450" s="12"/>
-      <c r="G450" s="12"/>
-      <c r="H450" s="12"/>
-      <c r="I450" s="12"/>
-      <c r="J450" s="12"/>
-      <c r="K450" s="12"/>
-    </row>
-    <row r="451" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F451" s="12"/>
-      <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
-      <c r="I451" s="12"/>
-      <c r="J451" s="12"/>
-      <c r="K451" s="12"/>
-    </row>
-    <row r="452" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F452" s="12"/>
-      <c r="G452" s="12"/>
-      <c r="H452" s="12"/>
-      <c r="I452" s="12"/>
-      <c r="J452" s="12"/>
-      <c r="K452" s="12"/>
-    </row>
-    <row r="453" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F453" s="12"/>
-      <c r="G453" s="12"/>
-      <c r="H453" s="12"/>
-      <c r="I453" s="12"/>
-      <c r="J453" s="12"/>
-      <c r="K453" s="12"/>
-    </row>
-    <row r="454" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F454" s="12"/>
-      <c r="G454" s="12"/>
-      <c r="H454" s="12"/>
-      <c r="I454" s="12"/>
-      <c r="J454" s="12"/>
-      <c r="K454" s="12"/>
-    </row>
-    <row r="455" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F455" s="12"/>
-      <c r="G455" s="12"/>
-      <c r="H455" s="12"/>
-      <c r="I455" s="12"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="12"/>
-    </row>
-    <row r="456" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F456" s="12"/>
-      <c r="G456" s="12"/>
-      <c r="H456" s="12"/>
-      <c r="I456" s="12"/>
-      <c r="J456" s="12"/>
-      <c r="K456" s="12"/>
-    </row>
-    <row r="457" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F457" s="12"/>
-      <c r="G457" s="12"/>
-      <c r="H457" s="12"/>
-      <c r="I457" s="12"/>
-      <c r="J457" s="12"/>
-      <c r="K457" s="12"/>
-    </row>
-    <row r="458" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F458" s="12"/>
-      <c r="G458" s="12"/>
-      <c r="H458" s="12"/>
-      <c r="I458" s="12"/>
-      <c r="J458" s="12"/>
-      <c r="K458" s="12"/>
-    </row>
-    <row r="459" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F459" s="12"/>
-      <c r="G459" s="12"/>
-      <c r="H459" s="12"/>
-      <c r="I459" s="12"/>
-      <c r="J459" s="12"/>
-      <c r="K459" s="12"/>
-    </row>
-    <row r="460" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F460" s="12"/>
-      <c r="G460" s="12"/>
-      <c r="H460" s="12"/>
-      <c r="I460" s="12"/>
-      <c r="J460" s="12"/>
-      <c r="K460" s="12"/>
-    </row>
-    <row r="461" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F461" s="12"/>
-      <c r="G461" s="12"/>
-      <c r="H461" s="12"/>
-      <c r="I461" s="12"/>
-      <c r="J461" s="12"/>
-      <c r="K461" s="12"/>
-    </row>
-    <row r="462" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F462" s="12"/>
-      <c r="G462" s="12"/>
-      <c r="H462" s="12"/>
-      <c r="I462" s="12"/>
-      <c r="J462" s="12"/>
-      <c r="K462" s="12"/>
-    </row>
-    <row r="463" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F463" s="12"/>
-      <c r="G463" s="12"/>
-      <c r="H463" s="12"/>
-      <c r="I463" s="12"/>
-      <c r="J463" s="12"/>
-      <c r="K463" s="12"/>
+    <row r="448" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M448"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M464" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A3:M465" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M21">
-      <sortCondition ref="D3:D464"/>
+      <sortCondition ref="D3:D465"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -7186,21 +7101,21 @@
     <hyperlink ref="G19" r:id="rId8" display="https://www.amazon.com/ESHIONG-Straight-Reverse-Fittings%EF%BC%881-Purifiers%EF%BC%89/dp/B088DDX593?content-id=amzn1.sym.9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;keywords=ro%2Bcheck%2Bvalve&amp;pd_rd_r=1af7a1bd-e624-4f69-ae57-e1a456d389f2&amp;pd_rd_w=RcPqF&amp;pd_rd_wg=aljBP&amp;pf_rd_p=9575273b-ecd8-4648-9bf0-15f20c657e0a&amp;pf_rd_r=TF7WYWSQ1V7A797EMJ1P&amp;qid=1674251369&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJU0tQNVM1MDhVM1UmZW5jcnlwdGVkSWQ9QTA5MjIyMjJUVU9IMFBRMVVQM1UmZW5jcnlwdGVkQWRJZD1BMDk5MzUwN1IzRUZTUTIwTVM2UCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{1FCD8F64-5B13-4DB7-86C9-101B36DB637F}"/>
     <hyperlink ref="G21" r:id="rId9" xr:uid="{5A7DA1E0-C8BE-4D2C-9475-073B3454FB99}"/>
     <hyperlink ref="G89" r:id="rId10" xr:uid="{E44491F2-DB4E-4225-BB90-29BA22FBEA0D}"/>
-    <hyperlink ref="G108" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
-    <hyperlink ref="G106" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
-    <hyperlink ref="G116" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
-    <hyperlink ref="G117" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
-    <hyperlink ref="G118" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
-    <hyperlink ref="G107" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
+    <hyperlink ref="G109" r:id="rId11" xr:uid="{B0832862-E97F-4E6D-8ABF-D168809AD0A0}"/>
+    <hyperlink ref="G107" r:id="rId12" xr:uid="{364419D9-C182-449E-A644-39D54538E7F0}"/>
+    <hyperlink ref="G117" r:id="rId13" xr:uid="{D6D938D9-A780-438E-8745-0DB2A6564D6A}"/>
+    <hyperlink ref="G118" r:id="rId14" xr:uid="{3F4192F0-5623-4363-90D9-EE2C6DA1ADE3}"/>
+    <hyperlink ref="G119" r:id="rId15" xr:uid="{758DBFDE-24AE-4805-A6B9-931C79655A73}"/>
+    <hyperlink ref="G108" r:id="rId16" xr:uid="{206AC898-59D4-4E0D-9849-80E29D55FF2F}"/>
     <hyperlink ref="G23" r:id="rId17" xr:uid="{53743EB8-09BB-4C83-9BD4-8D184989BC54}"/>
-    <hyperlink ref="G25" r:id="rId18" xr:uid="{61C14228-2890-4F92-9A1F-412D451F55A3}"/>
+    <hyperlink ref="G122" r:id="rId18" xr:uid="{61C14228-2890-4F92-9A1F-412D451F55A3}"/>
     <hyperlink ref="G26" r:id="rId19" xr:uid="{C55FBA61-8E93-4FF3-A1D1-C786D9873885}"/>
     <hyperlink ref="G71" r:id="rId20" xr:uid="{640FC664-131F-4FFC-917F-379924A0E026}"/>
     <hyperlink ref="G35" r:id="rId21" xr:uid="{4DBFBC39-72E0-4524-B6C8-465CD165F079}"/>
     <hyperlink ref="G32" r:id="rId22" xr:uid="{1498CBE9-9372-485C-B3BB-27D0AE5B86BD}"/>
-    <hyperlink ref="G111" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
-    <hyperlink ref="G119" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
-    <hyperlink ref="G109" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
+    <hyperlink ref="G112" r:id="rId23" xr:uid="{EFC8CA03-83C4-4E85-9A69-DF06E33BD402}"/>
+    <hyperlink ref="G120" r:id="rId24" xr:uid="{9519B8DE-EBFF-48FF-9796-742AD1125F39}"/>
+    <hyperlink ref="G110" r:id="rId25" xr:uid="{ED5C3BF2-AA40-4D19-ABB9-DE1738BE20E2}"/>
     <hyperlink ref="G7" r:id="rId26" xr:uid="{08E5E586-C17A-424B-951C-2C634CC7920D}"/>
     <hyperlink ref="G75" r:id="rId27" xr:uid="{5036D263-8019-49B4-8087-28821AEAE19F}"/>
     <hyperlink ref="G65" r:id="rId28" xr:uid="{9B0D3F4C-ACB7-4A15-AFFD-417E1A393112}"/>
@@ -7211,10 +7126,10 @@
     <hyperlink ref="G40" r:id="rId33" xr:uid="{CC6305D1-3266-4187-9479-77C83506E1AC}"/>
     <hyperlink ref="G24" r:id="rId34" xr:uid="{9D165EC1-90A2-4DD6-91D9-C86229A7D7C4}"/>
     <hyperlink ref="G22" r:id="rId35" xr:uid="{7527279C-B3EA-4862-86A2-82F2923022AD}"/>
-    <hyperlink ref="G100" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
-    <hyperlink ref="G115" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
-    <hyperlink ref="G113" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
-    <hyperlink ref="G114" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
+    <hyperlink ref="G101" r:id="rId36" xr:uid="{E37A3E0C-D727-4F1A-97EE-04AE95F980D6}"/>
+    <hyperlink ref="G116" r:id="rId37" xr:uid="{CD7DCC4D-CFD9-4FA2-9305-CAA3625EE6AC}"/>
+    <hyperlink ref="G114" r:id="rId38" xr:uid="{117AEF66-E13D-40F7-9E49-D9781AF3BEEC}"/>
+    <hyperlink ref="G115" r:id="rId39" xr:uid="{29704212-A5C6-4D18-92A2-54C23E0509D6}"/>
     <hyperlink ref="G90" r:id="rId40" xr:uid="{39B4DA69-46BF-425C-9C7E-E076BB5F0FBF}"/>
     <hyperlink ref="G28" r:id="rId41" xr:uid="{1C4C4A2E-E434-466E-B19C-B16AB5D70DBB}"/>
     <hyperlink ref="G27" r:id="rId42" xr:uid="{851DC6B1-D13B-4376-943C-22F0F5436C0C}"/>
@@ -7241,7 +7156,7 @@
     <hyperlink ref="G78" r:id="rId63" display="https://www.amazon.com/Bates-Stainless-Steel-Hardware-Metal/dp/B0CJ9FFH2Y/134-0072472-6555177?pd_rd_w=e47SZ&amp;content-id=amzn1.sym.52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_p=52395280-70da-442b-acda-fca52ac79a0b&amp;pf_rd_r=1J12ZA159605VZ87JQJC&amp;pd_rd_wg=typRi&amp;pd_rd_r=eb0c5671-49df-4701-a0c7-37bcdd82384a&amp;pd_rd_i=B0CJ9FFH2Y&amp;th=1" xr:uid="{D56841B4-E815-4C25-AE8A-39A87A511FF3}"/>
     <hyperlink ref="G44" r:id="rId64" display="https://www.amazon.com/Yeebyee-Collars-Machinery-Industrial-Silver-1/dp/B0BYJWLKT7?crid=2WK0ZEC48NUPF&amp;dib=eyJ2IjoiMSJ9.fCJr-VhLiZSgWEt8w43axqSGjEY7pYgKYEqvFELVFdvuRg8l1OTxrVBzrBxGuZB7E5QHF_cYgRIYCrK3uM4H7l7wVqMCnvUuFkVGuOKqHEAcULfJEk7ci2FQSxkNu_syIcv9o8phu2mds62aI3B9oy_5wEGROeG_ZAZCO8Ab1ZBP455fr_tweFnwZdP2dyDeDD-ac_RnAz_2oY-u7W4nYBxMrTMZlDhGv4jtvozE8Yk.f6cw7CkASwj5p2FXP0xrxzxvoQ7fh6UY519n9FnwTSc&amp;dib_tag=se&amp;keywords=1%2F2%2Bshaft%2Bcollar&amp;qid=1739308002&amp;sprefix=1%2F2%22%2Bshaft%2Bco%2Caps%2C119&amp;sr=8-4&amp;th=1" xr:uid="{610555B3-8FBE-46B0-80C8-FAFB6B1C4D0B}"/>
     <hyperlink ref="G42" r:id="rId65" xr:uid="{1B239889-CD63-4E40-A11F-93774E4125BC}"/>
-    <hyperlink ref="L110" r:id="rId66" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
+    <hyperlink ref="L111" r:id="rId66" xr:uid="{472088E2-FDFC-46D1-9B3E-36FCD212BB03}"/>
     <hyperlink ref="G17" r:id="rId67" xr:uid="{5AE902D9-DA7F-486B-9E19-2B6BEDFA7FD1}"/>
     <hyperlink ref="G34" r:id="rId68" xr:uid="{FEB65F25-FDE4-4E74-8BE2-09B0268B568A}"/>
     <hyperlink ref="G67" r:id="rId69" xr:uid="{948942F9-7CA0-4712-B9E3-9F1D8E5CB5C5}"/>
@@ -7256,36 +7171,37 @@
     <hyperlink ref="G96" r:id="rId78" xr:uid="{F985B1AE-8850-4081-81EC-C91719B639A6}"/>
     <hyperlink ref="G97" r:id="rId79" xr:uid="{632F387A-22C1-4505-9A7E-16EB48DA624C}"/>
     <hyperlink ref="G98" r:id="rId80" xr:uid="{3DA55087-5538-4E85-BF9F-3505ACB33E86}"/>
-    <hyperlink ref="G105" r:id="rId81" xr:uid="{6117B992-A526-4AE0-A867-9356178FDE39}"/>
+    <hyperlink ref="G106" r:id="rId81" xr:uid="{6117B992-A526-4AE0-A867-9356178FDE39}"/>
     <hyperlink ref="G45" r:id="rId82" xr:uid="{11661C40-7BEA-44BF-B674-1670E6891808}"/>
     <hyperlink ref="G47" r:id="rId83" xr:uid="{3F47E1B6-30B6-415D-A90B-8FEEAED9CDB0}"/>
-    <hyperlink ref="G101" r:id="rId84" display="https://www.amazon.com/dp/B0983GW7YJ?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C18F7520-E2F8-41BF-92A2-8E9AB39D7312}"/>
+    <hyperlink ref="G102" r:id="rId84" display="https://www.amazon.com/dp/B0983GW7YJ?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C18F7520-E2F8-41BF-92A2-8E9AB39D7312}"/>
     <hyperlink ref="G49" r:id="rId85" xr:uid="{38B47C6B-AFDA-413E-AD52-FFC88C2ABD93}"/>
-    <hyperlink ref="G102" r:id="rId86" xr:uid="{CAD88304-8D3B-4162-9A57-C26A56223447}"/>
+    <hyperlink ref="G103" r:id="rId86" xr:uid="{CAD88304-8D3B-4162-9A57-C26A56223447}"/>
     <hyperlink ref="G83" r:id="rId87" xr:uid="{37978353-E4FE-41E4-AB9B-61E9B77DCF7D}"/>
     <hyperlink ref="G82" r:id="rId88" xr:uid="{E247006B-54EB-44A2-B29B-3A65FF554184}"/>
     <hyperlink ref="G81" r:id="rId89" xr:uid="{6C782C4C-7EBA-44E1-A87B-EEE718175467}"/>
     <hyperlink ref="G76" r:id="rId90" xr:uid="{F623A638-8730-48C6-8FA4-C2225EB8886C}"/>
-    <hyperlink ref="G99" r:id="rId91" xr:uid="{FC39948E-E006-41C3-8FA9-18559F5007A4}"/>
-    <hyperlink ref="G112" r:id="rId92" xr:uid="{71ED407B-B3D9-4551-8D2B-F8A006F87DBA}"/>
-    <hyperlink ref="G104" r:id="rId93" xr:uid="{EA853BDF-4F78-4843-BFF8-06BAFB667732}"/>
-    <hyperlink ref="G103" r:id="rId94" xr:uid="{A190CB2D-C19B-4F6D-91CD-1DC891047BCD}"/>
+    <hyperlink ref="G100" r:id="rId91" xr:uid="{FC39948E-E006-41C3-8FA9-18559F5007A4}"/>
+    <hyperlink ref="G113" r:id="rId92" xr:uid="{71ED407B-B3D9-4551-8D2B-F8A006F87DBA}"/>
+    <hyperlink ref="G105" r:id="rId93" xr:uid="{EA853BDF-4F78-4843-BFF8-06BAFB667732}"/>
+    <hyperlink ref="G104" r:id="rId94" xr:uid="{A190CB2D-C19B-4F6D-91CD-1DC891047BCD}"/>
     <hyperlink ref="G84" r:id="rId95" xr:uid="{6A7C57F3-4293-4E57-A819-7C8D0D8BE9F7}"/>
     <hyperlink ref="G80" r:id="rId96" xr:uid="{92C4BFE0-15F5-4834-BEB4-717E965C54A7}"/>
     <hyperlink ref="G86" r:id="rId97" xr:uid="{50973FF2-3FDE-4A60-9DC0-D39B2A620F6C}"/>
     <hyperlink ref="G85" r:id="rId98" xr:uid="{D3C74365-D33D-4D87-AD88-3FA521438B13}"/>
+    <hyperlink ref="G99" r:id="rId99" xr:uid="{A8DAD2D1-153A-404C-B65E-C45B809BB56E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToHeight="0" orientation="portrait" r:id="rId99"/>
+  <pageSetup scale="48" fitToHeight="0" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74596AE-BA65-43C6-BFB1-FEC7E7BCF1F4}">
-  <dimension ref="E9:G20"/>
+  <dimension ref="E9:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7295,10 +7211,10 @@
   <sheetData>
     <row r="9" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <v>9.99</v>
@@ -7306,10 +7222,10 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12">
         <v>9.99</v>
@@ -7317,10 +7233,10 @@
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13">
         <v>18.989999999999998</v>
@@ -7328,32 +7244,46 @@
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15">
         <v>11.79</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G17">
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18">
+        <v>24.99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G20">
         <v>34.99</v>
@@ -7367,6 +7297,7 @@
     <hyperlink ref="F15" r:id="rId4" xr:uid="{8673C807-9A1F-4B64-8536-2123DE5B9617}"/>
     <hyperlink ref="F17" r:id="rId5" xr:uid="{ACB3BD8D-A60E-462A-986B-164D6925E5F6}"/>
     <hyperlink ref="F20" r:id="rId6" xr:uid="{2488F632-23CD-4B1D-80D5-CC87AB38E618}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{D3D57CE9-93CE-477C-835E-49FBFA05AD15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7377,12 +7308,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="2" max="2" width="25.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -7390,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -7403,18 +7334,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -7422,15 +7353,15 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7450,7 +7381,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
